--- a/tabular/contributed/publications.xlsx
+++ b/tabular/contributed/publications.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9740" yWindow="2620" windowWidth="40260" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="9640" yWindow="2620" windowWidth="40260" windowHeight="22460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="129">
   <si>
     <t>id</t>
   </si>
@@ -47,9 +47,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>author_short</t>
-  </si>
-  <si>
     <t>authors_full</t>
   </si>
   <si>
@@ -384,6 +381,39 @@
   </si>
   <si>
     <t>Foster GR, Afdhal N, Roberts SK, Bräu N, Gane EJ, Pianko S, Lawitz E, Thompson A, Shiffman ML, Cooper C, Towner WJ, Conway B, Ruane P, Bourlière M, Asselah T, Berg T, Zeuzem S, Rosenberg W, Agarwal K, Stedman CA, Mo H, Dvory-Sobol H, Han L, Wang J, McNally J, Osinusi A, Brainard DM, McHutchison JG, Mazzotta F, Tran TT, Gordon SC, Patel K, Reau N, Mangia A, Sulkowski M</t>
+  </si>
+  <si>
+    <t>Pham et al.</t>
+  </si>
+  <si>
+    <t>Gottwein et al.</t>
+  </si>
+  <si>
+    <t>Hezode et al.</t>
+  </si>
+  <si>
+    <t>Poordad et al.</t>
+  </si>
+  <si>
+    <t>Ng et al.</t>
+  </si>
+  <si>
+    <t>Bourlière et al.</t>
+  </si>
+  <si>
+    <t>Gane et al.</t>
+  </si>
+  <si>
+    <t>Kwo et al.</t>
+  </si>
+  <si>
+    <t>Foster et al.</t>
+  </si>
+  <si>
+    <t>Curry et al.</t>
+  </si>
+  <si>
+    <t>authors_short</t>
   </si>
 </sst>
 </file>
@@ -734,7 +764,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -753,13 +783,13 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -774,30 +804,30 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>2017</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2">
         <v>66</v>
@@ -806,68 +836,68 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2013</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3">
         <v>58</v>
       </c>
       <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
       <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
       </c>
       <c r="E4">
         <v>2017</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4">
         <v>66</v>
@@ -876,33 +906,33 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
         <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
       <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
         <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
       </c>
       <c r="E5">
         <v>2017</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5">
         <v>66</v>
@@ -911,33 +941,33 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
         <v>38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
         <v>50</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
       </c>
       <c r="E6">
         <v>2016</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <v>64</v>
@@ -946,65 +976,65 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
         <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
       </c>
       <c r="E7">
         <v>2017</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7">
         <v>66</v>
       </c>
       <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
         <v>53</v>
-      </c>
-      <c r="I7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
       </c>
       <c r="E8">
         <v>2015</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8">
         <v>62</v>
@@ -1013,10 +1043,10 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
         <v>47</v>
-      </c>
-      <c r="J8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1024,19 +1054,22 @@
         <v>29454794</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9">
         <v>2018</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1044,16 +1077,19 @@
         <v>29274866</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10">
         <v>2018</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10">
         <v>154</v>
@@ -1062,10 +1098,10 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1073,16 +1109,19 @@
         <v>29221887</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11">
         <v>2018</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11">
         <v>68</v>
@@ -1091,10 +1130,10 @@
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1102,16 +1141,19 @@
         <v>29152781</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E12">
         <v>2018</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12">
         <v>67</v>
@@ -1120,10 +1162,10 @@
         <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1131,16 +1173,19 @@
         <v>29084747</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13">
         <v>2018</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G13">
         <v>62</v>
@@ -1149,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1157,16 +1202,19 @@
         <v>28564569</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14">
         <v>2017</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G14">
         <v>376</v>
@@ -1175,10 +1223,10 @@
         <v>22</v>
       </c>
       <c r="I14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1186,16 +1234,19 @@
         <v>28498551</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15">
         <v>2017</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>66</v>
@@ -1204,10 +1255,10 @@
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1215,16 +1266,19 @@
         <v>28412293</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16">
         <v>2017</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16">
         <v>67</v>
@@ -1233,10 +1287,10 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1244,16 +1298,19 @@
         <v>28193664</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17">
         <v>2017</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17">
         <v>61</v>
@@ -1262,7 +1319,7 @@
         <v>5</v>
       </c>
       <c r="K17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1270,16 +1327,19 @@
         <v>28128852</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18">
         <v>2017</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>66</v>
@@ -1288,10 +1348,10 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1299,16 +1359,19 @@
         <v>27353271</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19">
         <v>2016</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G19">
         <v>60</v>
@@ -1317,10 +1380,10 @@
         <v>9</v>
       </c>
       <c r="I19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1328,16 +1391,19 @@
         <v>26778412</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20">
         <v>2016</v>
       </c>
       <c r="F20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G20">
         <v>36</v>
@@ -1346,10 +1412,10 @@
         <v>8</v>
       </c>
       <c r="I20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1357,16 +1423,19 @@
         <v>26575258</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E21">
         <v>2015</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G21">
         <v>373</v>
@@ -1375,10 +1444,10 @@
         <v>27</v>
       </c>
       <c r="I21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1386,16 +1455,19 @@
         <v>26569658</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>127</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22">
         <v>2015</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G22">
         <v>373</v>
@@ -1404,10 +1476,10 @@
         <v>27</v>
       </c>
       <c r="I22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/contributed/publications.xlsx
+++ b/tabular/contributed/publications.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="250">
   <si>
     <t>id</t>
   </si>
@@ -209,36 +209,6 @@
     <t>415A-416A</t>
   </si>
   <si>
-    <t>Curry MP, O'Leary JG, Bzowej N, Muir AJ, Korenblat KM, Fenkel JM, Reddy KR, Lawitz E, Flamm SL, Schiano T, Teperman L, Fontana R, Schiff E, Fried M, Doehle B, An D, McNally J, Osinusi A, Brainard DM, McHutchison JG, Brown RS Jr, Charlton M</t>
-  </si>
-  <si>
-    <t>Poordad F, Landis CS, Asatryan A, Jackson DF 3rd, Ng TI, Fu B, Lin CW, Yao B, Kort J</t>
-  </si>
-  <si>
-    <t>Lawitz EJ, Dvory-Sobol H, Doehle BP, Worth AS, McNally J, Brainard DM, Link JO, Miller MD, Mo H</t>
-  </si>
-  <si>
-    <t>Poordad F, Felizarta F, Asatryan A, Sulkowski MS, Reindollar RW, Landis CS, Gordon SC, Flamm SL, Fried MW, Bernstein DE, Lin CW, Liu R, Lovell SS, Ng TI, Kort J, Mensa FJ</t>
-  </si>
-  <si>
-    <t>Ng TI, Krishnan P, Pilot-Matias T, Kati W, Schnell G, Beyer J, Reisch T, Lu L, Dekhtyar T, Irvin M, Tripathi R, Maring C, Randolph JT, Wagner R, Collins C</t>
-  </si>
-  <si>
-    <t>Kwo PY, Poordad F, Asatryan A, Wang S, Wyles DL, Hassanein T, Felizarta F, Sulkowski MS, Gane E, Maliakkal B, Overcash JS, Gordon SC, Muir AJ, Aguilar H, Agarwal K, Dore GJ, Lin CW, Liu R, Lovell SS, Ng TI, Kort J, Mensa FJ</t>
-  </si>
-  <si>
-    <t>Gane EJ, Shiffman ML, Etzkorn K, Morelli G, Stedman CAM, Davis MN, Hinestrosa F, Dvory-Sobol H, Huang KC, Osinusi A, McNally J, Brainard DM, McHutchison JG, Thompson AJ, Sulkowski MS</t>
-  </si>
-  <si>
-    <t>Ng TI, Tripathi R, Reisch T, Lu L, Middleton T, Hopkins TA, Pithawalla R, Irvin M, Dekhtyar T, Krishnan P, Schnell G, Beyer J, McDaniel KF, Ma J, Wang G, Jiang LJ, Or YS, Kempf D, Pilot-Matias T, Collins C</t>
-  </si>
-  <si>
-    <t>Hezode C, Reau N, Svarovskaia ES, Doehle BP, Shanmugam R, Dvory-Sobol H, Hedskog C, McNally J, Osinusi A, Brainard DM, Miller MD, Mo H, Roberts SK, O'Leary JG, Shafran SD, Zeuzem S</t>
-  </si>
-  <si>
-    <t>Gottwein JM, Pham LV, Mikkelsen LS, Ghanem L, Ramirez S, Scheel TKH, Carlsen THR, Bukh J</t>
-  </si>
-  <si>
     <t>Sofosbuvir and Velpatasvir for HCV in Patients with Decompensated Cirrhosis.</t>
   </si>
   <si>
@@ -272,15 +242,6 @@
     <t>Efficacy of NS5A Inhibitors Against Hepatitis C Virus Genotypes 1-7 and Escape Variants.</t>
   </si>
   <si>
-    <t>HCV Genotype 6a Escape from and Resistance to Velpatasvir, Pibrentasvir, and Sofosbuvir in Robust Infectious Cell Culture Models.</t>
-  </si>
-  <si>
-    <t>In Vitro Antiviral Activity and Resistance Profile of the Next-Generation Hepatitis C Virus NS5A Inhibitor Pibrentasvir.</t>
-  </si>
-  <si>
-    <t>In Vitro Antiviral Activity and Resistance Profile of the Next-Generation Hepatitis C Virus NS3/4A Protease Inhibitor Glecaprevir.</t>
-  </si>
-  <si>
     <t>Gastroenterology</t>
   </si>
   <si>
@@ -371,18 +332,6 @@
     <t>https://doi.org/10.1056/NEJMoa1512614</t>
   </si>
   <si>
-    <t>Pham LV, Ramirez S, Gottwein JM, Fahnøe U, Li YP, Pedersen J, Bukh J</t>
-  </si>
-  <si>
-    <t>Poordad F, Pol S, Asatryan A, Buti M, Shaw D, Hézode C, Felizarta F, Reindollar RW, Gordon SC, Pianko S, Fried MW, Bernstein DE, Gallant J, Lin CW, Lei Y, Ng TI, Krishnan P, Kopecky-Bromberg S, Kort J, Mensa FJ</t>
-  </si>
-  <si>
-    <t>Bourlière M, Gordon SC, Flamm SL, Cooper CL, Ramji A, Tong M, Ravendhran N, Vierling JM, Tran TT, Pianko S, Bansal MB, de Lédinghen V, Hyland RH, Stamm LM, Dvory-Sobol H, Svarovskaia E, Zhang J, Huang KC, Subramanian GM, Brainard DM, McHutchison JG, Verna EC, Buggisch P, Landis CS, Younes ZH, Curry MP, Strasser SI, Schiff ER, Reddy KR, Manns MP, Kowdley KV, Zeuzem S</t>
-  </si>
-  <si>
-    <t>Foster GR, Afdhal N, Roberts SK, Bräu N, Gane EJ, Pianko S, Lawitz E, Thompson A, Shiffman ML, Cooper C, Towner WJ, Conway B, Ruane P, Bourlière M, Asselah T, Berg T, Zeuzem S, Rosenberg W, Agarwal K, Stedman CA, Mo H, Dvory-Sobol H, Han L, Wang J, McNally J, Osinusi A, Brainard DM, McHutchison JG, Mazzotta F, Tran TT, Gordon SC, Patel K, Reau N, Mangia A, Sulkowski M</t>
-  </si>
-  <si>
     <t>Pham et al.</t>
   </si>
   <si>
@@ -414,6 +363,420 @@
   </si>
   <si>
     <t>authors_short</t>
+  </si>
+  <si>
+    <t>Efficacy of ledipasvir/sofosbuvir with or without ribavirin for 12 weeks in genotype 1b HCV patients previously treated with a nonstructural protein 5A inhibitor-containing regimen.</t>
+  </si>
+  <si>
+    <t>Ikeda et al.</t>
+  </si>
+  <si>
+    <t>H. Ikeda, T. Watanabe, H. Shimizu, T. Hiraishi, R. Kaneko, T. Baba, H. Takahashi, K. Matsunaga, N. Matsumoto, H. Yasuda, C. Okuse, S. Iwabuchi, M. Suzuki and F. Itoh</t>
+  </si>
+  <si>
+    <t>Hepatol. Res.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/hepr.13074</t>
+  </si>
+  <si>
+    <t>HCV Genotype 6a Escape From and Resistance to Velpatasvir, Pibrentasvir, and Sofosbuvir in Robust Infectious Cell Culture Models.</t>
+  </si>
+  <si>
+    <t>L. V. Pham, S. Ramirez, J. M. Gottwein, U. Fahnøe, Y. P. Li, J. Pedersen and J. Bukh</t>
+  </si>
+  <si>
+    <t>2194-2208.e12</t>
+  </si>
+  <si>
+    <t>Prevalence and impact of baseline resistance-associated substitutions on the efficacy of ledipasvir/sofosbuvir or simeprevir/sofosbuvir against GT1 HCV infection.</t>
+  </si>
+  <si>
+    <t>Wang et al.</t>
+  </si>
+  <si>
+    <t>G. P. Wang, N. Terrault, J. D. Reeves, L. Liu, E. Li, L. Zhao, J. K. Lim, G. Morelli, A. Kuo, J. Levitsky, K. E. Sherman, L. M. Frazier, A. Ramani, J. Peter, L. Akuskevich, M. W. Fried and D. R. Nelson</t>
+  </si>
+  <si>
+    <t>Sci Rep</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-018-21303-2</t>
+  </si>
+  <si>
+    <t>Resistance analysis of genotype 3 hepatitis C virus indicates subtypes inherently resistant to nonstructural protein 5A inhibitors.</t>
+  </si>
+  <si>
+    <t>Smith et al.</t>
+  </si>
+  <si>
+    <t>D. Smith, A. Magri, D. Bonsall, C. L. C. Ip, A. Trebes, A. Brown, P. Piazza, R. Bowden, D. Nguyen, M. A. Ansari, P. Simmonds, E. Barnes and STOP-HCV Consortium</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/hep.29837</t>
+  </si>
+  <si>
+    <t>The emergence of NS5B resistance associated substitution S282T after sofosbuvir-based treatment.</t>
+  </si>
+  <si>
+    <t>E. J. Gane, S. Metivier, R. Nahass, M. Ryan, C. A. Stedman, E. S. Svarovskaia, H. Mo, B. Doehle, H. Dvory-Sobol, C. Hedskog, M. Lin, D. M. Brainard, J. C. Yang, J. G. McHutchison, M. Sulkowski, Z. Younes and E. Lawitz</t>
+  </si>
+  <si>
+    <t>Hepatol Commun</t>
+  </si>
+  <si>
+    <t>538-549</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/hep4.1060</t>
+  </si>
+  <si>
+    <t>J. M. Gottwein, L. V. Pham, L. S. Mikkelsen, L. Ghanem, S. Ramirez, T. K. H. Scheel, T. H. R. Carlsen and J. Bukh</t>
+  </si>
+  <si>
+    <t>C. Hezode, N. Reau, E. S. Svarovskaia, B. P. Doehle, R. Shanmugam, H. Dvory-Sobol, C. Hedskog, J. McNally, A. Osinusi, D. M. Brainard, M. D. Miller, H. Mo, S. K. Roberts, J. G. O'Leary, S. D. Shafran and S. Zeuzem</t>
+  </si>
+  <si>
+    <t>F. Poordad, S. Pol, A. Asatryan, M. Buti, D. Shaw, C. Hézode, F. Felizarta, R. W. Reindollar, S. C. Gordon, S. Pianko, M. W. Fried, D. E. Bernstein, J. Gallant, C. W. Lin, Y. Lei, T. I. Ng, P. Krishnan, S. Kopecky-Bromberg, J. Kort and F. J. Mensa</t>
+  </si>
+  <si>
+    <t>Patterns of Resistance-Associated Substitutions in Patients With Chronic HCV Infection Following Treatment With Direct-Acting Antivirals.</t>
+  </si>
+  <si>
+    <t>Dietz et al.</t>
+  </si>
+  <si>
+    <t>J. Dietz, S. Susser, J. Vermehren, K. H. Peiffer, G. Grammatikos, A. Berger, P. Ferenci, M. Buti, B. Müllhaupt, B. Hunyady, H. Hinrichsen, S. Mauss, J. Petersen, P. Buggisch, G. Felten, D. Hüppe, G. Knecht, T. Lutz, E. Schott, C. Berg, U. Spengler, T. von Hahn, T. Berg, S. Zeuzem, C. Sarrazin and European HCV Resistance Study Group</t>
+  </si>
+  <si>
+    <t>976-988.e4</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1053/j.gastro.2017.11.007</t>
+  </si>
+  <si>
+    <t>Antiviral Activity and Resistance Profile of the Next-Generation Hepatitis C Virus NS3/4A Protease Inhibitor Glecaprevir.</t>
+  </si>
+  <si>
+    <t>T. I. Ng, R. Tripathi, T. Reisch, L. Lu, T. Middleton, T. A. Hopkins, R. Pithawalla, M. Irvin, T. Dekhtyar, P. Krishnan, G. Schnell, J. Beyer, K. F. McDaniel, J. Ma, G. Wang, L. J. Jiang, Y. S. Or, D. Kempf, T. Pilot-Matias and C. Collins</t>
+  </si>
+  <si>
+    <t>Resistance characterization of ledipasvir and velpatasvir in hepatitis C virus genotype 4.</t>
+  </si>
+  <si>
+    <t>Camus et al.</t>
+  </si>
+  <si>
+    <t>G. Camus, B. Han, T. Asselah, D. Hsieh, H. Dvory-Sobol, J. Lu, E. Svarovskaia, R. Martin, B. Parhy, M. D. Miller, D. M. Brainard, K. Kersey, A. Abergel and H. Mo</t>
+  </si>
+  <si>
+    <t>J. Viral Hepat.</t>
+  </si>
+  <si>
+    <t>134-143</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/jvh.12795</t>
+  </si>
+  <si>
+    <t>Characterization of Naturally Occurring NS5A and NS5B Polymorphisms in Patients Infected with HCV Genotype 3a Treated with Direct-Acting Antiviral Agents.</t>
+  </si>
+  <si>
+    <t>Bartolini et al.</t>
+  </si>
+  <si>
+    <t>B. Bartolini, E. Giombini, C. Taibi, R. Lionetti, M. Montalbano, U. Visco-Comandini, G. D'Offizi, M. R. Capobianchi, F. McPhee and A. R. Garbuglia</t>
+  </si>
+  <si>
+    <t>Viruses</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/v9080212</t>
+  </si>
+  <si>
+    <t>Detection of a genetic footprint of the sofosbuvir resistance-associated substitution S282T after HCV treatment failure.</t>
+  </si>
+  <si>
+    <t>Walker et al.</t>
+  </si>
+  <si>
+    <t>A. Walker, S. Filke, N. Lübke, M. Obermeier, R. Kaiser, D. Häussinger, J. Timm and H. H. Bock</t>
+  </si>
+  <si>
+    <t>Virol. J.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12985-017-0779-4</t>
+  </si>
+  <si>
+    <t>M. Bourlière, S. C. Gordon, S. L. Flamm, C. L. Cooper, A. Ramji, M. Tong, N. Ravendhran, J. M. Vierling, T. T. Tran, S. Pianko, M. B. Bansal, V. de Lédinghen, R. H. Hyland, L. M. Stamm, H. Dvory-Sobol, E. Svarovskaia, J. Zhang, K. C. Huang, G. M. Subramanian, D. M. Brainard, J. G. McHutchison, E. C. Verna, P. Buggisch, C. S. Landis, Z. H. Younes, M. P. Curry, S. I. Strasser, E. R. Schiff, K. R. Reddy, M. P. Manns, K. V. Kowdley, S. Zeuzem and POLARIS-1 and POLARIS-4 Investigators</t>
+  </si>
+  <si>
+    <t>E. J. Gane, M. L. Shiffman, K. Etzkorn, G. Morelli, C. A. M. Stedman, M. N. Davis, F. Hinestrosa, H. Dvory-Sobol, K. C. Huang, A. Osinusi, J. McNally, D. M. Brainard, J. G. McHutchison, A. J. Thompson, M. S. Sulkowski and GS-US-342-1553 Investigators</t>
+  </si>
+  <si>
+    <t>P. Y. Kwo, F. Poordad, A. Asatryan, S. Wang, D. L. Wyles, T. Hassanein, F. Felizarta, M. S. Sulkowski, E. Gane, B. Maliakkal, J. S. Overcash, S. C. Gordon, A. J. Muir, H. Aguilar, K. Agarwal, G. J. Dore, C. W. Lin, R. Liu, S. S. Lovell, T. I. Ng, J. Kort and F. J. Mensa</t>
+  </si>
+  <si>
+    <t>Clinical evaluation of sofosbuvir/ledipasvir in patients with chronic hepatitis C genotype 1 with and without prior daclatasvir/asunaprevir therapy.</t>
+  </si>
+  <si>
+    <t>Iio et al.</t>
+  </si>
+  <si>
+    <t>E. Iio, N. Shimada, K. Takaguchi, T. Senoh, Y. Eguchi, M. Atsukawa, A. Tsubota, H. Abe, K. Kato, A. Kusakabe, T. Miyaki, K. Matsuura, K. Matsunami, N. Shinkai, K. Fujiwara, S. Nojiri and Y. Tanaka</t>
+  </si>
+  <si>
+    <t>1308-1316</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/hepr.12898</t>
+  </si>
+  <si>
+    <t>Antiviral Activity and Resistance Profile of the Next-Generation Hepatitis C Virus NS5A Inhibitor Pibrentasvir.</t>
+  </si>
+  <si>
+    <t>T. I. Ng, P. Krishnan, T. Pilot-Matias, W. Kati, G. Schnell, J. Beyer, T. Reisch, L. Lu, T. Dekhtyar, M. Irvin, R. Tripathi, C. Maring, J. T. Randolph, R. Wagner and C. Collins</t>
+  </si>
+  <si>
+    <t>F. Poordad, F. Felizarta, A. Asatryan, M. S. Sulkowski, R. W. Reindollar, C. S. Landis, S. C. Gordon, S. L. Flamm, M. W. Fried, D. E. Bernstein, C. W. Lin, R. Liu, S. S. Lovell, T. I. Ng, J. Kort and F. J. Mensa</t>
+  </si>
+  <si>
+    <t>Multiclass HCV resistance to direct-acting antiviral failure in real-life patients advocates for tailored second-line therapies.</t>
+  </si>
+  <si>
+    <t>Di Maio et al.</t>
+  </si>
+  <si>
+    <t>V. C. Di Maio, V. Cento, I. Lenci, M. Aragri, P. Rossi, S. Barbaliscia, M. Melis, G. Verucchi, C. F. Magni, E. Teti, A. Bertoli, F. Antonucci, M. C. Bellocchi, V. Micheli, C. Masetti, S. Landonio, S. Francioso, F. Santopaolo, A. M. Pellicelli, V. Calvaruso, L. Gianserra, M. Siciliano, D. Romagnoli, R. Cozzolongo, A. Grieco, J. Vecchiet, F. Morisco, M. Merli, G. Brancaccio, A. Di Biagio, E. Loggi, C. M. Mastroianni, V. Pace Palitti, P. Tarquini, M. Puoti, G. Taliani, L. Sarmati, A. Picciotto, V. Vullo, N. Caporaso, M. Paoloni, C. Pasquazzi, G. Rizzardini, G. Parruti, A. Craxì, S. Babudieri, M. Andreoni, M. Angelico, C. F. Perno, F. Ceccherini-Silberstein and HCV Italian Resistance Network Study Group</t>
+  </si>
+  <si>
+    <t>514-528</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/liv.13327</t>
+  </si>
+  <si>
+    <t>Post-treatment resistance analysis of hepatitis C virus from phase II and III clinical trials of ledipasvir/sofosbuvir.</t>
+  </si>
+  <si>
+    <t>Wyles et al.</t>
+  </si>
+  <si>
+    <t>D. Wyles, H. Dvory-Sobol, E. S. Svarovskaia, B. P. Doehle, R. Martin, N. H. Afdhal, K. V. Kowdley, E. Lawitz, D. M. Brainard, M. D. Miller, H. Mo and E. J. Gane</t>
+  </si>
+  <si>
+    <t>703-710</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jhep.2016.11.022</t>
+  </si>
+  <si>
+    <t>Robust HCV Genotype 3a Infectious Cell Culture System Permits Identification of Escape Variants With Resistance to Sofosbuvir.</t>
+  </si>
+  <si>
+    <t>Ramirez et al.</t>
+  </si>
+  <si>
+    <t>S. Ramirez, L. S. Mikkelsen, J. M. Gottwein and J. Bukh</t>
+  </si>
+  <si>
+    <t>973-985.e2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1053/j.gastro.2016.07.013</t>
+  </si>
+  <si>
+    <t>E. J. Lawitz, H. Dvory-Sobol, B. P. Doehle, A. S. Worth, J. McNally, D. M. Brainard, J. O. Link, M. D. Miller and H. Mo</t>
+  </si>
+  <si>
+    <t>Ledipasvir plus sofosbuvir for 12 weeks in patients with hepatitis C genotype 4 infection.</t>
+  </si>
+  <si>
+    <t>Abergel et al.</t>
+  </si>
+  <si>
+    <t>A. Abergel, S. Metivier, D. Samuel, D. Jiang, K. Kersey, P. S. Pang, E. Svarovskaia, S. J. Knox, V. Loustaud-Ratti and T. Asselah</t>
+  </si>
+  <si>
+    <t>1049-56</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/hep.28706</t>
+  </si>
+  <si>
+    <t>F. Poordad, C. S. Landis, A. Asatryan, D. F. Jackson, T. I. Ng, B. Fu, C. W. Lin, B. Yao and J. Kort</t>
+  </si>
+  <si>
+    <t>L159F and V321A Sofosbuvir-Associated Hepatitis C Virus NS5B Substitutions.</t>
+  </si>
+  <si>
+    <t>Svarovskaia et al.</t>
+  </si>
+  <si>
+    <t>E. S. Svarovskaia, E. Gane, H. Dvory-Sobol, R. Martin, B. Doehle, C. Hedskog, I. M. Jacobson, D. R. Nelson, E. Lawitz, D. M. Brainard, J. G. McHutchison, M. D. Miller and H. Mo</t>
+  </si>
+  <si>
+    <t>J. Infect. Dis.</t>
+  </si>
+  <si>
+    <t>1240-7</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/infdis/jiv564</t>
+  </si>
+  <si>
+    <t>G. R. Foster, N. Afdhal, S. K. Roberts, N. Bräu, E. J. Gane, S. Pianko, E. Lawitz, A. Thompson, M. L. Shiffman, C. Cooper, W. J. Towner, B. Conway, P. Ruane, M. Bourlière, T. Asselah, T. Berg, S. Zeuzem, W. Rosenberg, K. Agarwal, C. A. Stedman, H. Mo, H. Dvory-Sobol, L. Han, J. Wang, J. McNally, A. Osinusi, D. M. Brainard, J. G. McHutchison, F. Mazzotta, T. T. Tran, S. C. Gordon, K. Patel, N. Reau, A. Mangia, M. Sulkowski, ASTRAL-2  Investigators and ASTRAL-3 Investigators</t>
+  </si>
+  <si>
+    <t>M. P. Curry, J. G. O'Leary, N. Bzowej, A. J. Muir, K. M. Korenblat, J. M. Fenkel, K. R. Reddy, E. Lawitz, S. L. Flamm, T. Schiano, L. Teperman, R. Fontana, E. Schiff, M. Fried, B. Doehle, D. An, J. McNally, A. Osinusi, D. M. Brainard, J. G. McHutchison, R. S. Brown, M. Charlton and ASTRAL-4 Investigators</t>
+  </si>
+  <si>
+    <t>Successful Retreatment of Chronic HCV Genotype-1 Infection With Ledipasvir and Sofosbuvir After Initial Short Course Therapy With Direct-Acting Antiviral Regimens.</t>
+  </si>
+  <si>
+    <t>Wilson et al.</t>
+  </si>
+  <si>
+    <t>E. M. Wilson, S. Kattakuzhy, S. Sidharthan, Z. Sims, L. Tang, M. McLaughlin, A. Price, A. Nelson, R. Silk, C. Gross, E. Akoth, H. Mo, G. M. Subramanian, P. S. Pang, J. G. McHutchison, A. Osinusi, H. Masur, A. Kohli and S. Kottilil</t>
+  </si>
+  <si>
+    <t>Clin. Infect. Dis.</t>
+  </si>
+  <si>
+    <t>280-288</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/cid/civ874</t>
+  </si>
+  <si>
+    <t>Ledipasvir and Sofosbuvir for HCV in Patients Coinfected with HIV-1.</t>
+  </si>
+  <si>
+    <t>Naggie et al.</t>
+  </si>
+  <si>
+    <t>S. Naggie, C. Cooper, M. Saag, K. Workowski, P. Ruane, W. J. Towner, K. Marks, A. Luetkemeyer, R. P. Baden, P. E. Sax, E. Gane, J. Santana-Bagur, L. M. Stamm, J. C. Yang, P. German, H. Dvory-Sobol, L. Ni, P. S. Pang, J. G. McHutchison, C. A. Stedman, J. O. Morales-Ramirez, N. Bräu, D. Jayaweera, A. E. Colson, P. Tebas, D. K. Wong, D. Dieterich, M. Sulkowski and ION-4 Investigators</t>
+  </si>
+  <si>
+    <t>705-13</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1056/NEJMoa1501315</t>
+  </si>
+  <si>
+    <t>Daclatasvir plus Sofosbuvir for HCV in Patients Coinfected with HIV-1.</t>
+  </si>
+  <si>
+    <t>D. L. Wyles, P. J. Ruane, M. S. Sulkowski, D. Dieterich, A. Luetkemeyer, T. R. Morgan, K. E. Sherman, R. Dretler, D. Fishbein, J. C. Gathe, S. Henn, F. Hinestrosa, C. Huynh, C. McDonald, A. Mills, E. T. Overton, M. Ramgopal, B. Rashbaum, G. Ray, A. Scarsella, J. Yozviak, F. McPhee, Z. Liu, E. Hughes, P. D. Yin, S. Noviello, P. Ackerman and ALLY-2 Investigators</t>
+  </si>
+  <si>
+    <t>714-25</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1056/NEJMoa1503153</t>
+  </si>
+  <si>
+    <t>Sofosbuvir plus pegylated interferon and ribavirin in patients with genotype 1 hepatitis C virus in whom previous therapy with direct-acting antivirals has failed.</t>
+  </si>
+  <si>
+    <t>Pol et al.</t>
+  </si>
+  <si>
+    <t>S. Pol, M. S. Sulkowski, T. Hassanein, E. J. Gane, L. Liu, H. Mo, B. Doehle, B. Kanwar, D. Brainard, G. M. Subramanian, W. T. Symonds, J. G. McHutchison, R. G. Nahass, M. Bennett and I. M. Jacobson</t>
+  </si>
+  <si>
+    <t>129-34</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/hep.27836</t>
+  </si>
+  <si>
+    <t>Sofosbuvir plus ribavirin for treatment of hepatitis C virus in patients co-infected with HIV (PHOTON-2): a multicentre, open-label, non-randomised, phase 3 study.</t>
+  </si>
+  <si>
+    <t>Molina et al.</t>
+  </si>
+  <si>
+    <t>J. M. Molina, C. Orkin, D. M. Iser, F. X. Zamora, M. Nelson, C. Stephan, B. Massetto, A. Gaggar, L. Ni, E. Svarovskaia, D. Brainard, G. M. Subramanian, J. G. McHutchison, M. Puoti, J. K. Rockstroh and PHOTON-2 study team</t>
+  </si>
+  <si>
+    <t>Lancet</t>
+  </si>
+  <si>
+    <t>1098-106</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0140-6736(14)62483-1</t>
+  </si>
+  <si>
+    <t>Sofosbuvir with peginterferon-ribavirin for 12 weeks in previously treated patients with hepatitis C genotype 2 or 3 and cirrhosis.</t>
+  </si>
+  <si>
+    <t>E. Lawitz, F. Poordad, D. M. Brainard, R. H. Hyland, D. An, H. Dvory-Sobol, W. T. Symonds, J. G. McHutchison and F. E. Membreno</t>
+  </si>
+  <si>
+    <t>769-75</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/hep.27567</t>
+  </si>
+  <si>
+    <t>Infrequent development of resistance in genotype 1-6 hepatitis C virus-infected subjects treated with sofosbuvir in phase 2 and 3 clinical trials.</t>
+  </si>
+  <si>
+    <t>E. S. Svarovskaia, H. Dvory-Sobol, N. Parkin, C. Hebner, V. Gontcharova, R. Martin, W. Ouyang, B. Han, S. Xu, K. Ku, S. Chiu, E. Gane, I. M. Jacobson, D. R. Nelson, E. Lawitz, D. L. Wyles, N. Bekele, D. Brainard, W. T. Symonds, J. G. McHutchison, M. D. Miller and H. Mo</t>
+  </si>
+  <si>
+    <t>1666-74</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/cid/ciu697</t>
+  </si>
+  <si>
+    <t>Sofosbuvir and ribavirin in HCV genotypes 2 and 3.</t>
+  </si>
+  <si>
+    <t>Zeuzem et al.</t>
+  </si>
+  <si>
+    <t>S. Zeuzem, G. M. Dusheiko, R. Salupere, A. Mangia, R. Flisiak, R. H. Hyland, A. Illeperuma, E. Svarovskaia, D. M. Brainard, W. T. Symonds, G. M. Subramanian, J. G. McHutchison, O. Weiland, H. W. Reesink, P. Ferenci, C. Hézode, R. Esteban and VALENCE Investigators</t>
+  </si>
+  <si>
+    <t>1993-2001</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1056/NEJMoa1316145</t>
+  </si>
+  <si>
+    <t>In vivo emergence of a novel mutant L159F/L320F in the NS5B polymerase confers low-level resistance to the HCV polymerase inhibitors mericitabine and sofosbuvir.</t>
+  </si>
+  <si>
+    <t>Tong et al.</t>
+  </si>
+  <si>
+    <t>X. Tong, S. Le Pogam, L. Li, K. Haines, K. Piso, V. Baronas, J. M. Yan, S. S. So, K. Klumpp and I. Nájera</t>
+  </si>
+  <si>
+    <t>668-75</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/infdis/jit562</t>
+  </si>
+  <si>
+    <t>Genotype and subtype profiling of PSI-7977 as a nucleotide inhibitor of hepatitis C virus.</t>
+  </si>
+  <si>
+    <t>Lam et al.</t>
+  </si>
+  <si>
+    <t>A. M. Lam, C. Espiritu, S. Bansal, H. M. Micolochick Steuer, C. Niu, V. Zennou, M. Keilman, Y. Zhu, S. Lan, M. J. Otto and P. A. Furman</t>
+  </si>
+  <si>
+    <t>3359-68</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AAC.00054-12</t>
   </si>
 </sst>
 </file>
@@ -429,27 +792,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Monaco"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -457,33 +814,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,29 +1098,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="97.83203125" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -810,8 +1147,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
@@ -827,7 +1164,7 @@
         <v>2017</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G2">
         <v>66</v>
@@ -845,8 +1182,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
@@ -862,7 +1199,7 @@
         <v>2013</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G3">
         <v>58</v>
@@ -880,7 +1217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -897,7 +1234,7 @@
         <v>2017</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G4">
         <v>66</v>
@@ -915,7 +1252,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -932,7 +1269,7 @@
         <v>2017</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G5">
         <v>66</v>
@@ -950,7 +1287,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -982,7 +1319,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -1017,8 +1354,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B8" t="s">
@@ -1049,15 +1386,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>29454794</v>
+    <row r="9" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>29504692</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
         <v>114</v>
@@ -1066,88 +1403,88 @@
         <v>2018</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>29274866</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>29454794</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="E10">
         <v>2018</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="G10">
         <v>154</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>29221887</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>29453451</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="E11">
         <v>2018</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="G11">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11" t="s">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>3199</v>
       </c>
       <c r="K11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>29152781</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>29425396</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E12">
         <v>2018</v>
@@ -1155,331 +1492,1087 @@
       <c r="F12" t="s">
         <v>42</v>
       </c>
-      <c r="G12">
-        <v>67</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12" t="s">
-        <v>91</v>
-      </c>
       <c r="K12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>29404477</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13">
+        <v>2017</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>29274866</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14">
+        <v>2018</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14">
+        <v>154</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>29221887</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>29084747</v>
-      </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13">
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15">
         <v>2018</v>
       </c>
-      <c r="F13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13">
-        <v>62</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15">
+        <v>68</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>29152781</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>28564569</v>
-      </c>
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14">
-        <v>2017</v>
-      </c>
-      <c r="F14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14">
-        <v>376</v>
-      </c>
-      <c r="H14">
-        <v>22</v>
-      </c>
-      <c r="I14" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>28498551</v>
-      </c>
-      <c r="B15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15">
-        <v>2017</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="D16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16">
+        <v>2018</v>
+      </c>
+      <c r="F16" t="s">
         <v>42</v>
-      </c>
-      <c r="G15">
-        <v>66</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="I15" t="s">
-        <v>93</v>
-      </c>
-      <c r="K15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>28412293</v>
-      </c>
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16">
-        <v>2017</v>
-      </c>
-      <c r="F16" t="s">
-        <v>85</v>
       </c>
       <c r="G16">
         <v>67</v>
       </c>
       <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>29146520</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17">
+        <v>2018</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17">
+        <v>154</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>29084747</v>
+      </c>
+      <c r="B18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18">
+        <v>2018</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18">
+        <v>62</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>28984067</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19">
+        <v>2018</v>
+      </c>
+      <c r="F19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19">
+        <v>25</v>
+      </c>
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="I16" t="s">
-        <v>94</v>
-      </c>
-      <c r="K16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>28193664</v>
-      </c>
-      <c r="B17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17">
+      <c r="I19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>28783119</v>
+      </c>
+      <c r="B20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20">
         <v>2017</v>
       </c>
-      <c r="F17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17">
-        <v>61</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="K17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>28128852</v>
-      </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18">
-        <v>2017</v>
-      </c>
-      <c r="F18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18">
-        <v>66</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18" t="s">
-        <v>95</v>
-      </c>
-      <c r="K18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>27353271</v>
-      </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19">
-        <v>2016</v>
-      </c>
-      <c r="F19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19">
-        <v>60</v>
-      </c>
-      <c r="H19">
+      <c r="F20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20">
         <v>9</v>
-      </c>
-      <c r="I19" t="s">
-        <v>96</v>
-      </c>
-      <c r="K19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>26778412</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20">
-        <v>2016</v>
-      </c>
-      <c r="F20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20">
-        <v>36</v>
       </c>
       <c r="H20">
         <v>8</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>28595606</v>
+      </c>
+      <c r="B21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21">
+        <v>2017</v>
+      </c>
+      <c r="F21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21">
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>106</v>
+      </c>
+      <c r="K21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>28564569</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22">
+        <v>2017</v>
+      </c>
+      <c r="F22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22">
+        <v>376</v>
+      </c>
+      <c r="H22">
+        <v>22</v>
+      </c>
+      <c r="I22" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>28498551</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23">
+        <v>2017</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23">
+        <v>66</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>28412293</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24">
+        <v>2017</v>
+      </c>
+      <c r="F24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24">
+        <v>67</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>28332272</v>
+      </c>
+      <c r="B25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25">
+        <v>2017</v>
+      </c>
+      <c r="F25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25">
+        <v>47</v>
+      </c>
+      <c r="H25">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s">
+        <v>166</v>
+      </c>
+      <c r="K25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>28193664</v>
+      </c>
+      <c r="B26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26">
+        <v>2017</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26">
+        <v>61</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="K26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>28128852</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27">
+        <v>2017</v>
+      </c>
+      <c r="F27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27">
+        <v>66</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>28105744</v>
+      </c>
+      <c r="B28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28">
+        <v>2017</v>
+      </c>
+      <c r="F28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28">
+        <v>37</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28" t="s">
+        <v>174</v>
+      </c>
+      <c r="K28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27923693</v>
+      </c>
+      <c r="B29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29">
+        <v>2017</v>
+      </c>
+      <c r="F29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29">
+        <v>66</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29" t="s">
+        <v>179</v>
+      </c>
+      <c r="K29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>27453546</v>
+      </c>
+      <c r="B30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30">
+        <v>2016</v>
+      </c>
+      <c r="F30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30">
+        <v>151</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>184</v>
+      </c>
+      <c r="K30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>27353271</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31">
+        <v>2016</v>
+      </c>
+      <c r="F31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31">
+        <v>60</v>
+      </c>
+      <c r="H31">
+        <v>9</v>
+      </c>
+      <c r="I31" t="s">
+        <v>83</v>
+      </c>
+      <c r="K31" t="s">
         <v>97</v>
       </c>
-      <c r="K20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21">
+    </row>
+    <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>27351341</v>
+      </c>
+      <c r="B32" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32">
+        <v>2016</v>
+      </c>
+      <c r="F32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32">
+        <v>64</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32" t="s">
+        <v>190</v>
+      </c>
+      <c r="K32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>26778412</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33">
+        <v>2016</v>
+      </c>
+      <c r="F33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33">
+        <v>36</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33" t="s">
+        <v>84</v>
+      </c>
+      <c r="K33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>26603202</v>
+      </c>
+      <c r="B34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34">
+        <v>2016</v>
+      </c>
+      <c r="F34" t="s">
+        <v>196</v>
+      </c>
+      <c r="G34">
+        <v>213</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34" t="s">
+        <v>197</v>
+      </c>
+      <c r="K34" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>26575258</v>
       </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21">
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35">
         <v>2015</v>
       </c>
-      <c r="F21" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21">
+      <c r="F35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35">
         <v>373</v>
       </c>
-      <c r="H21">
+      <c r="H35">
         <v>27</v>
       </c>
-      <c r="I21" t="s">
-        <v>98</v>
-      </c>
-      <c r="K21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="I35" t="s">
+        <v>85</v>
+      </c>
+      <c r="K35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>26569658</v>
       </c>
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="B36" t="s">
         <v>60</v>
       </c>
-      <c r="E22">
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36">
         <v>2015</v>
       </c>
-      <c r="F22" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22">
+      <c r="F36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36">
         <v>373</v>
       </c>
-      <c r="H22">
+      <c r="H36">
         <v>27</v>
       </c>
-      <c r="I22" t="s">
-        <v>99</v>
-      </c>
-      <c r="K22" t="s">
-        <v>113</v>
+      <c r="I36" t="s">
+        <v>86</v>
+      </c>
+      <c r="K36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>26521268</v>
+      </c>
+      <c r="B37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" t="s">
+        <v>203</v>
+      </c>
+      <c r="E37">
+        <v>2016</v>
+      </c>
+      <c r="F37" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37">
+        <v>62</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37" t="s">
+        <v>205</v>
+      </c>
+      <c r="K37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>26196665</v>
+      </c>
+      <c r="B38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E38">
+        <v>2015</v>
+      </c>
+      <c r="F38" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38">
+        <v>373</v>
+      </c>
+      <c r="H38">
+        <v>8</v>
+      </c>
+      <c r="I38" t="s">
+        <v>210</v>
+      </c>
+      <c r="K38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>26196502</v>
+      </c>
+      <c r="B39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" t="s">
+        <v>213</v>
+      </c>
+      <c r="E39">
+        <v>2015</v>
+      </c>
+      <c r="F39" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39">
+        <v>373</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39" t="s">
+        <v>214</v>
+      </c>
+      <c r="K39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>25847509</v>
+      </c>
+      <c r="B40" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" t="s">
+        <v>218</v>
+      </c>
+      <c r="E40">
+        <v>2015</v>
+      </c>
+      <c r="F40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40">
+        <v>62</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>219</v>
+      </c>
+      <c r="K40" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>25659285</v>
+      </c>
+      <c r="B41" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" t="s">
+        <v>222</v>
+      </c>
+      <c r="D41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E41">
+        <v>2015</v>
+      </c>
+      <c r="F41" t="s">
+        <v>224</v>
+      </c>
+      <c r="G41">
+        <v>385</v>
+      </c>
+      <c r="H41">
+        <v>9973</v>
+      </c>
+      <c r="I41" t="s">
+        <v>225</v>
+      </c>
+      <c r="K41" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>25322962</v>
+      </c>
+      <c r="B42" t="s">
+        <v>227</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42">
+        <v>2015</v>
+      </c>
+      <c r="F42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42">
+        <v>61</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42" t="s">
+        <v>229</v>
+      </c>
+      <c r="K42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>25266287</v>
+      </c>
+      <c r="B43" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" t="s">
+        <v>232</v>
+      </c>
+      <c r="E43">
+        <v>2014</v>
+      </c>
+      <c r="F43" t="s">
+        <v>204</v>
+      </c>
+      <c r="G43">
+        <v>59</v>
+      </c>
+      <c r="H43">
+        <v>12</v>
+      </c>
+      <c r="I43" t="s">
+        <v>233</v>
+      </c>
+      <c r="K43" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>24795201</v>
+      </c>
+      <c r="B44" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" t="s">
+        <v>236</v>
+      </c>
+      <c r="D44" t="s">
+        <v>237</v>
+      </c>
+      <c r="E44">
+        <v>2014</v>
+      </c>
+      <c r="F44" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44">
+        <v>370</v>
+      </c>
+      <c r="H44">
+        <v>21</v>
+      </c>
+      <c r="I44" t="s">
+        <v>238</v>
+      </c>
+      <c r="K44" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>24154738</v>
+      </c>
+      <c r="B45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C45" t="s">
+        <v>241</v>
+      </c>
+      <c r="D45" t="s">
+        <v>242</v>
+      </c>
+      <c r="E45">
+        <v>2014</v>
+      </c>
+      <c r="F45" t="s">
+        <v>196</v>
+      </c>
+      <c r="G45">
+        <v>209</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45" t="s">
+        <v>243</v>
+      </c>
+      <c r="K45" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>22430955</v>
+      </c>
+      <c r="B46" t="s">
+        <v>245</v>
+      </c>
+      <c r="C46" t="s">
+        <v>246</v>
+      </c>
+      <c r="D46" t="s">
+        <v>247</v>
+      </c>
+      <c r="E46">
+        <v>2012</v>
+      </c>
+      <c r="F46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46">
+        <v>56</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46" t="s">
+        <v>248</v>
+      </c>
+      <c r="K46" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/contributed/publications.xlsx
+++ b/tabular/contributed/publications.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9640" yWindow="2620" windowWidth="40260" windowHeight="22460" tabRatio="500"/>
+    <workbookView xWindow="9500" yWindow="2600" windowWidth="40260" windowHeight="22460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="339">
   <si>
     <t>id</t>
   </si>
@@ -777,13 +777,280 @@
   </si>
   <si>
     <t>https://doi.org/10.1128/AAC.00054-12</t>
+  </si>
+  <si>
+    <t>High Cure Rates With Grazoprevir-Elbasvir With or Without Ribavirin Guided by Genotypic Resistance Testing Among Human Immunodeficiency Virus/Hepatitis C Virus-coinfected Men Who Have Sex With Men.</t>
+  </si>
+  <si>
+    <t>Braun et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. L. Braun, B. Hampel, R. Kouyos, H. Nguyen, C. Shah, M. Flepp, M. Stöckle, A. Conen, C. Béguelin, P. Künzler-Heule, D. Nicca, P. Schmid, J. Delaloye, M. Rougemont, E. Bernasconi, A. Rauch, H. F. Günthard, J. Böni, J. S. Fehr and Swiss HIV Cohort Study </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/cid/ciy547</t>
+  </si>
+  <si>
+    <t>Elbasvir/grazoprevir and sofosbuvir for hepatitis C virus genotype 3 infection with compensated cirrhosis: A randomized trial.</t>
+  </si>
+  <si>
+    <t>G. R. Foster, K. Agarwal, M. E. Cramp, S. Moreea, S. Barclay, J. Collier, A. S. Brown, S. D. Ryder, A. Ustianowski, D. M. Forton, R. Fox, F. Gordon, W. M. Rosenberg, D. J. Mutimer, J. Du, C. L. Gilbert, E. Asante-Appiah, J. Wahl, M. N. Robertson, E. Barr and B. Haber</t>
+  </si>
+  <si>
+    <t>2113-2126</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/hep.29852</t>
+  </si>
+  <si>
+    <t>Efficacy of elbasvir and grazoprevir in participants with hepatitis C virus genotype 4 infection: A pooled analysis.</t>
+  </si>
+  <si>
+    <t>Asselah et al.</t>
+  </si>
+  <si>
+    <t>T. Asselah, H. Reesink, J. Gerstoft, V. de Ledinghen, P. J. Pockros, M. Robertson, P. Hwang, E. Asante-Appiah, J. Wahl, B. Y. Nguyen, E. Barr, R. Talwani and L. Serfaty</t>
+  </si>
+  <si>
+    <t>1583-1591</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/liv.13727</t>
+  </si>
+  <si>
+    <t>Elbasvir plus grazoprevir in patients with hepatitis C virus infection and stage 4-5 chronic kidney disease: clinical, virological, and health-related quality-of-life outcomes from a phase 3, multicentre, randomised, double-blind, placebo-controlled trial.</t>
+  </si>
+  <si>
+    <t>Bruchfeld et al.</t>
+  </si>
+  <si>
+    <t>A. Bruchfeld, D. Roth, P. Martin, D. R. Nelson, S. Pol, M. C. Londoño, H. Monsour, M. Silva, P. Hwang, J. M. Arduino, M. Robertson, B. Y. Nguyen, J. Wahl, E. Barr and W. Greaves</t>
+  </si>
+  <si>
+    <t>Lancet Gastroenterol Hepatol</t>
+  </si>
+  <si>
+    <t>585-594</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S2468-1253(17)30116-4</t>
+  </si>
+  <si>
+    <t>Efficacy of 12 or 18 weeks of elbasvir plus grazoprevir with ribavirin in treatment-naïve, noncirrhotic HCV genotype 3-infected patients.</t>
+  </si>
+  <si>
+    <t>E. Gane, R. Nahass, V. Luketic, E. Asante-Appiah, P. Hwang, M. Robertson, J. Wahl, E. Barr and B. Haber</t>
+  </si>
+  <si>
+    <t>895-899</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/jvh.12719</t>
+  </si>
+  <si>
+    <t>Antiviral Activity and Resistance Analysis of NS3/4A Protease Inhibitor Grazoprevir and NS5A Inhibitor Elbasvir in Hepatitis C Virus GT4 Replicons.</t>
+  </si>
+  <si>
+    <t>Asante-Appiah et al.</t>
+  </si>
+  <si>
+    <t>E. Asante-Appiah, S. Curry, P. McMonagle, P. Ingravallo, R. Chase, D. Nickle, P. Qiu, A. Howe and F. C. Lahser</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AAC.00363-17</t>
+  </si>
+  <si>
+    <t>Safety and Efficacy of Elbasvir/Grazoprevir in Patients With Hepatitis C Virus Infection and Compensated Cirrhosis: An Integrated Analysis.</t>
+  </si>
+  <si>
+    <t>Jacobson et al.</t>
+  </si>
+  <si>
+    <t>I. M. Jacobson, E. Lawitz, P. Y. Kwo, C. Hézode, C. Y. Peng, A. Y. M. Howe, P. Hwang, J. Wahl, M. Robertson, E. Barr and B. A. Haber</t>
+  </si>
+  <si>
+    <t>1372-1382.e2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1053/j.gastro.2017.01.050</t>
+  </si>
+  <si>
+    <t>The combination of elbasvir and grazoprevir for the treatment of chronic HCV infection in Japanese patients: a randomized phase II/III study.</t>
+  </si>
+  <si>
+    <t>Kumada et al.</t>
+  </si>
+  <si>
+    <t>H. Kumada, Y. Suzuki, Y. Karino, K. Chayama, N. Kawada, T. Okanoue, Y. Itoh, S. Mochida, H. Toyoda, H. Yoshiji, S. Takaki, N. Yatsuzuka, E. Yodoya, T. Iwasa, G. Fujimoto, M. N. Robertson, S. Black, L. Caro and J. Wahl</t>
+  </si>
+  <si>
+    <t>J. Gastroenterol.</t>
+  </si>
+  <si>
+    <t>520-533</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00535-016-1285-y</t>
+  </si>
+  <si>
+    <t>Elbasvir-Grazoprevir to Treat Hepatitis C Virus Infection in Persons Receiving Opioid Agonist Therapy: A Randomized Trial.</t>
+  </si>
+  <si>
+    <t>Dore et al.</t>
+  </si>
+  <si>
+    <t>G. J. Dore, F. Altice, A. H. Litwin, O. Dalgard, E. J. Gane, O. Shibolet, A. Luetkemeyer, R. Nahass, C. Y. Peng, B. Conway, J. Grebely, A. Y. Howe, I. N. Gendrano, E. Chen, H. C. Huang, F. J. Dutko, D. C. Nickle, B. Y. Nguyen, J. Wahl, E. Barr, M. N. Robertson, H. L. Platt and C-EDGE CO-STAR Study Group</t>
+  </si>
+  <si>
+    <t>Ann. Intern. Med.</t>
+  </si>
+  <si>
+    <t>625-634</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7326/M16-0816</t>
+  </si>
+  <si>
+    <t>Regulatory Analysis of Effects of Hepatitis C Virus NS5A Polymorphisms on Efficacy of Elbasvir and Grazoprevir.</t>
+  </si>
+  <si>
+    <t>Komatsu et al.</t>
+  </si>
+  <si>
+    <t>T. E. Komatsu, S. Boyd, A. Sherwat, L. Tracy, L. K. Naeger, J. J. O'Rear and P. R. Harrington</t>
+  </si>
+  <si>
+    <t>586-597</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1053/j.gastro.2016.10.017</t>
+  </si>
+  <si>
+    <t>Effectiveness of Elbasvir and Grazoprevir Combination, With or Without Ribavirin, for Treatment-Experienced Patients With Chronic Hepatitis C Infection.</t>
+  </si>
+  <si>
+    <t>P. Kwo, E. J. Gane, C. Y. Peng, B. Pearlman, J. M. Vierling, L. Serfaty, M. Buti, S. Shafran, P. Stryszak, L. Lin, J. Gress, S. Black, F. J. Dutko, M. Robertson, J. Wahl, L. Lupinacci, E. Barr and B. Haber</t>
+  </si>
+  <si>
+    <t>164-175.e4</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1053/j.gastro.2016.09.045</t>
+  </si>
+  <si>
+    <t>The Combination of Grazoprevir, a Hepatitis C Virus (HCV) NS3/4A Protease Inhibitor, and Elbasvir, an HCV NS5A Inhibitor, Demonstrates a High Genetic Barrier to Resistance in HCV Genotype 1a Replicons.</t>
+  </si>
+  <si>
+    <t>Lahser et al.</t>
+  </si>
+  <si>
+    <t>F. C. Lahser, K. Bystol, S. Curry, P. McMonagle, E. Xia, P. Ingravallo, R. Chase, R. Liu, T. Black, D. Hazuda, A. Y. Howe and E. Asante-Appiah</t>
+  </si>
+  <si>
+    <t>2954-64</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AAC.00051-16</t>
+  </si>
+  <si>
+    <t>Efficacy and safety of grazoprevir (MK-5172) and elbasvir (MK-8742) in patients with hepatitis C virus and HIV co-infection (C-EDGE CO-INFECTION): a non-randomised, open-label trial.</t>
+  </si>
+  <si>
+    <t>Rockstroh et al.</t>
+  </si>
+  <si>
+    <t>J. K. Rockstroh, M. Nelson, C. Katlama, J. Lalezari, J. Mallolas, M. Bloch, G. V. Matthews, M. S. Saag, P. J. Zamor, C. Orkin, J. Gress, S. Klopfer, M. Shaughnessy, J. Wahl, B. Y. Nguyen, E. Barr, H. L. Platt, M. N. Robertson and M. Sulkowski</t>
+  </si>
+  <si>
+    <t>Lancet HIV</t>
+  </si>
+  <si>
+    <t>e319-27</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S2352-3018(15)00114-9</t>
+  </si>
+  <si>
+    <t>Grazoprevir, Elbasvir, and Ribavirin for Chronic Hepatitis C Virus Genotype 1 Infection After Failure of Pegylated Interferon and Ribavirin With an Earlier-Generation Protease Inhibitor: Final 24-Week Results From C-SALVAGE.</t>
+  </si>
+  <si>
+    <t>Buti et al.</t>
+  </si>
+  <si>
+    <t>M. Buti, S. C. Gordon, E. Zuckerman, E. Lawitz, J. L. Calleja, H. Hofer, C. Gilbert, J. Palcza, A. Y. Howe, M. J. DiNubile, M. N. Robertson, J. Wahl, E. Barr and X. Forns</t>
+  </si>
+  <si>
+    <t>32-6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/cid/civ722</t>
+  </si>
+  <si>
+    <t>Susceptibilities of genotype 1a, 1b, and 3 hepatitis C virus variants to the NS5A inhibitor elbasvir.</t>
+  </si>
+  <si>
+    <t>Liu et al.</t>
+  </si>
+  <si>
+    <t>R. Liu, S. Curry, P. McMonagle, W. W. Yeh, S. W. Ludmerer, P. A. Jumes, W. L. Marshall, S. Kong, P. Ingravallo, S. Black, I. Pak, M. J. DiNubile and A. Y. Howe</t>
+  </si>
+  <si>
+    <t>6922-9</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AAC.01390-15</t>
+  </si>
+  <si>
+    <t>Efficacy and safety of 12 weeks versus 18 weeks of treatment with grazoprevir (MK-5172) and elbasvir (MK-8742) with or without ribavirin for hepatitis C virus genotype 1 infection in previously untreated patients with cirrhosis and patients with previous null response with or without cirrhosis (C-WORTHY): a randomised, open-label phase 2 trial.</t>
+  </si>
+  <si>
+    <t>E. Lawitz, E. Gane, B. Pearlman, E. Tam, W. Ghesquiere, D. Guyader, L. Alric, J. P. Bronowicki, L. Lester, W. Sievert, R. Ghalib, L. Balart, F. Sund, M. Lagging, F. Dutko, M. Shaughnessy, P. Hwang, A. Y. Howe, J. Wahl, M. Robertson, E. Barr and B. Haber</t>
+  </si>
+  <si>
+    <t>1075-86</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0140-6736(14)61795-5</t>
+  </si>
+  <si>
+    <t>Efficacy and safety of 8 weeks versus 12 weeks of treatment with grazoprevir (MK-5172) and elbasvir (MK-8742) with or without ribavirin in patients with hepatitis C virus genotype 1 mono-infection and HIV/hepatitis C virus co-infection (C-WORTHY): a randomised, open-label phase 2 trial.</t>
+  </si>
+  <si>
+    <t>Sulkowski et al.</t>
+  </si>
+  <si>
+    <t>M. Sulkowski, C. Hezode, J. Gerstoft, J. M. Vierling, J. Mallolas, S. Pol, M. Kugelmas, A. Murillo, N. Weis, R. Nahass, O. Shibolet, L. Serfaty, M. Bourliere, E. DeJesus, E. Zuckerman, F. Dutko, M. Shaughnessy, P. Hwang, A. Y. Howe, J. Wahl, M. Robertson, E. Barr and B. Haber</t>
+  </si>
+  <si>
+    <t>1087-97</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0140-6736(14)61793-1</t>
+  </si>
+  <si>
+    <t>Discovery of MK-8742: an HCV NS5A inhibitor with broad genotype activity.</t>
+  </si>
+  <si>
+    <t>Coburn et al.</t>
+  </si>
+  <si>
+    <t>C. A. Coburn, P. T. Meinke, W. Chang, C. M. Fandozzi, D. J. Graham, B. Hu, Q. Huang, S. Kargman, J. Kozlowski, R. Liu, J. A. McCauley, A. A. Nomeir, R. M. Soll, J. P. Vacca, D. Wang, H. Wu, B. Zhong, D. B. Olsen and S. W. Ludmerer</t>
+  </si>
+  <si>
+    <t>ChemMedChem</t>
+  </si>
+  <si>
+    <t>1930-40</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/cmdc.201300343</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -792,10 +1059,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Monaco"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -818,9 +1092,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1098,1481 +1373,2048 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="97.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="97.83203125" style="2" customWidth="1"/>
+    <col min="3" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="19.6640625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="16.6640625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>2017</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>66</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>2013</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>58</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>2017</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>66</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>2017</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>66</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>2016</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>64</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>2017</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>66</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>2015</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>62</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>29504692</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>2018</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>29454794</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>2018</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>154</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>8</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>29453451</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>2018</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>8</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>3199</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>29425396</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>2018</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>29404477</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>2017</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>6</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>29274866</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>2018</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>154</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>5</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>29221887</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>2018</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>68</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>5</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>29152781</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>2018</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>67</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>4</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>29146520</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>2018</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>154</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <v>4</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>29084747</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>2018</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>62</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>1</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>28984067</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>2018</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>25</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>2</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>28783119</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>2017</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>9</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <v>8</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>28595606</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>2017</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>14</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <v>1</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <v>106</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>28564569</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>2017</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>376</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="2">
         <v>22</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>28498551</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>2017</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>66</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="2">
         <v>4</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>28412293</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>2017</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>67</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="2">
         <v>2</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>28332272</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>2017</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>47</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <v>12</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>28193664</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>2017</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>61</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="2">
         <v>5</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>28128852</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>2017</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <v>66</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="2">
         <v>2</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28105744</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>2017</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <v>37</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="2">
         <v>4</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27923693</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>2017</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <v>66</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="2">
         <v>4</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27453546</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>2016</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <v>151</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="2">
         <v>5</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27353271</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>2016</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <v>60</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="2">
         <v>9</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>27351341</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>2016</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <v>64</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="2">
         <v>4</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>26778412</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>2016</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <v>36</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="2">
         <v>8</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>26603202</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>2016</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>213</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2">
         <v>8</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>26575258</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>2015</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <v>373</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="2">
         <v>27</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>26569658</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>2015</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <v>373</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <v>27</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>26521268</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>2016</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <v>62</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="2">
         <v>3</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>26196665</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>2015</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="2">
         <v>373</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="2">
         <v>8</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>26196502</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>2015</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <v>373</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="2">
         <v>8</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>25847509</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>2015</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <v>62</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="2">
         <v>1</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>25659285</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>2015</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <v>385</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="2">
         <v>9973</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>25322962</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>2015</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <v>61</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="2">
         <v>3</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>25266287</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <v>2014</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="2">
         <v>59</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="2">
         <v>12</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>24795201</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>2014</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="2">
         <v>370</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="2">
         <v>21</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>24154738</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <v>2014</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="2">
         <v>209</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="2">
         <v>5</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>22430955</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <v>2012</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="2">
         <v>56</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="2">
         <v>6</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="2" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>30107485</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>29473975</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E48" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="2">
+        <v>67</v>
+      </c>
+      <c r="H48" s="2">
+        <v>6</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>29461687</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49" s="2">
+        <v>38</v>
+      </c>
+      <c r="H49" s="2">
+        <v>9</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>28576451</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E50" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G50" s="2">
+        <v>2</v>
+      </c>
+      <c r="H50" s="2">
+        <v>8</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>28470815</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G51" s="2">
+        <v>24</v>
+      </c>
+      <c r="H51" s="2">
+        <v>10</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>28416549</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" s="2">
+        <v>61</v>
+      </c>
+      <c r="H52" s="2">
+        <v>7</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>28193518</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E53" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G53" s="2">
+        <v>152</v>
+      </c>
+      <c r="H53" s="2">
+        <v>6</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>27873094</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E54" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G54" s="2">
+        <v>52</v>
+      </c>
+      <c r="H54" s="2">
+        <v>4</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>27537841</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E55" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G55" s="2">
+        <v>165</v>
+      </c>
+      <c r="H55" s="2">
+        <v>9</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>27773808</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E56" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" s="2">
+        <v>152</v>
+      </c>
+      <c r="H56" s="2">
+        <v>3</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>27720838</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E57" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G57" s="2">
+        <v>152</v>
+      </c>
+      <c r="H57" s="2">
+        <v>1</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>26926625</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E58" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G58" s="2">
+        <v>60</v>
+      </c>
+      <c r="H58" s="2">
+        <v>5</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>26423374</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E59" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G59" s="2">
+        <v>2</v>
+      </c>
+      <c r="H59" s="2">
+        <v>8</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>26371152</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E60" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G60" s="2">
+        <v>62</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>26303801</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G61" s="2">
+        <v>59</v>
+      </c>
+      <c r="H61" s="2">
+        <v>11</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>25467591</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E62" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G62" s="2">
+        <v>385</v>
+      </c>
+      <c r="H62" s="2">
+        <v>9973</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>25467560</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E63" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G63" s="2">
+        <v>385</v>
+      </c>
+      <c r="H63" s="2">
+        <v>9973</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>24127258</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E64" s="2">
+        <v>2013</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G64" s="2">
+        <v>8</v>
+      </c>
+      <c r="H64" s="2">
+        <v>12</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/contributed/publications.xlsx
+++ b/tabular/contributed/publications.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="phdr_publications_1" localSheetId="0">Sheet1!$A$1:$K$99</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -26,8 +29,20 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="phdr_publications" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/joshsinger/gitrepos_ssh/PHE-HCV-DRUG-RESISTANCE/tabular/formatted/phdr_publications.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="510">
   <si>
     <t>id</t>
   </si>
@@ -62,9 +77,6 @@
     <t>S500</t>
   </si>
   <si>
-    <t>Pooled resistance analysis in HCV genotype 1–6-infected patients treated with glecaprevir/pibrentasvir in phase 2 and 3 clinical trials</t>
-  </si>
-  <si>
     <t>Krishnan et al.</t>
   </si>
   <si>
@@ -116,9 +128,6 @@
     <t>Sarrazin et al.</t>
   </si>
   <si>
-    <t>C. Sarrazin, C.L. Cooper, M.P. Manns, R.K. Reddy, K. Kowdley, H. Dvory-Sobol, E. Svarovskia, R. Martin, B.P. Doehle, G. Camus, L.M. Stamm, R.H. Hyland, D.M. Brainard, H. Mo, S.C. Gordon, M. Bourlière, S. Zeuzem and S.L. Flamm</t>
-  </si>
-  <si>
     <t>https://www.journal-of-hepatology.eu/article/S0168-8278(17)30915-7/pdf</t>
   </si>
   <si>
@@ -128,9 +137,6 @@
     <t>EASL_2017_Abs_THU-257</t>
   </si>
   <si>
-    <t>No impact of RASs on the high efficacy of SOF/VEL/VOX for 8 weeks in DAA-naïve patients: an integrated resistance analysis of the POLARIS-2 and POLARIS-3 studies</t>
-  </si>
-  <si>
     <t>S303</t>
   </si>
   <si>
@@ -200,9 +206,6 @@
     <t>Dvory-Sobol et al.</t>
   </si>
   <si>
-    <t>H. Dvory-Sobol, B. Han, J. Lu, B. Parhy, D. Hsieh, E. Zhou, M. Bourlière, I. Jacobson, L. M. Stamm, G. Camus, R. Martin, E. S. Svarovskaia and H. Mo</t>
-  </si>
-  <si>
     <t>https://onlinelibrary.wiley.com/doi/full/10.1002/hep.29501</t>
   </si>
   <si>
@@ -347,9 +350,6 @@
     <t>Ng et al.</t>
   </si>
   <si>
-    <t>Bourlière et al.</t>
-  </si>
-  <si>
     <t>Gane et al.</t>
   </si>
   <si>
@@ -383,9 +383,6 @@
     <t>HCV Genotype 6a Escape From and Resistance to Velpatasvir, Pibrentasvir, and Sofosbuvir in Robust Infectious Cell Culture Models.</t>
   </si>
   <si>
-    <t>L. V. Pham, S. Ramirez, J. M. Gottwein, U. Fahnøe, Y. P. Li, J. Pedersen and J. Bukh</t>
-  </si>
-  <si>
     <t>2194-2208.e12</t>
   </si>
   <si>
@@ -437,18 +434,12 @@
     <t>C. Hezode, N. Reau, E. S. Svarovskaia, B. P. Doehle, R. Shanmugam, H. Dvory-Sobol, C. Hedskog, J. McNally, A. Osinusi, D. M. Brainard, M. D. Miller, H. Mo, S. K. Roberts, J. G. O'Leary, S. D. Shafran and S. Zeuzem</t>
   </si>
   <si>
-    <t>F. Poordad, S. Pol, A. Asatryan, M. Buti, D. Shaw, C. Hézode, F. Felizarta, R. W. Reindollar, S. C. Gordon, S. Pianko, M. W. Fried, D. E. Bernstein, J. Gallant, C. W. Lin, Y. Lei, T. I. Ng, P. Krishnan, S. Kopecky-Bromberg, J. Kort and F. J. Mensa</t>
-  </si>
-  <si>
     <t>Patterns of Resistance-Associated Substitutions in Patients With Chronic HCV Infection Following Treatment With Direct-Acting Antivirals.</t>
   </si>
   <si>
     <t>Dietz et al.</t>
   </si>
   <si>
-    <t>J. Dietz, S. Susser, J. Vermehren, K. H. Peiffer, G. Grammatikos, A. Berger, P. Ferenci, M. Buti, B. Müllhaupt, B. Hunyady, H. Hinrichsen, S. Mauss, J. Petersen, P. Buggisch, G. Felten, D. Hüppe, G. Knecht, T. Lutz, E. Schott, C. Berg, U. Spengler, T. von Hahn, T. Berg, S. Zeuzem, C. Sarrazin and European HCV Resistance Study Group</t>
-  </si>
-  <si>
     <t>976-988.e4</t>
   </si>
   <si>
@@ -500,18 +491,12 @@
     <t>Walker et al.</t>
   </si>
   <si>
-    <t>A. Walker, S. Filke, N. Lübke, M. Obermeier, R. Kaiser, D. Häussinger, J. Timm and H. H. Bock</t>
-  </si>
-  <si>
     <t>Virol. J.</t>
   </si>
   <si>
     <t>https://doi.org/10.1186/s12985-017-0779-4</t>
   </si>
   <si>
-    <t>M. Bourlière, S. C. Gordon, S. L. Flamm, C. L. Cooper, A. Ramji, M. Tong, N. Ravendhran, J. M. Vierling, T. T. Tran, S. Pianko, M. B. Bansal, V. de Lédinghen, R. H. Hyland, L. M. Stamm, H. Dvory-Sobol, E. Svarovskaia, J. Zhang, K. C. Huang, G. M. Subramanian, D. M. Brainard, J. G. McHutchison, E. C. Verna, P. Buggisch, C. S. Landis, Z. H. Younes, M. P. Curry, S. I. Strasser, E. R. Schiff, K. R. Reddy, M. P. Manns, K. V. Kowdley, S. Zeuzem and POLARIS-1 and POLARIS-4 Investigators</t>
-  </si>
-  <si>
     <t>E. J. Gane, M. L. Shiffman, K. Etzkorn, G. Morelli, C. A. M. Stedman, M. N. Davis, F. Hinestrosa, H. Dvory-Sobol, K. C. Huang, A. Osinusi, J. McNally, D. M. Brainard, J. G. McHutchison, A. J. Thompson, M. S. Sulkowski and GS-US-342-1553 Investigators</t>
   </si>
   <si>
@@ -548,9 +533,6 @@
     <t>Di Maio et al.</t>
   </si>
   <si>
-    <t>V. C. Di Maio, V. Cento, I. Lenci, M. Aragri, P. Rossi, S. Barbaliscia, M. Melis, G. Verucchi, C. F. Magni, E. Teti, A. Bertoli, F. Antonucci, M. C. Bellocchi, V. Micheli, C. Masetti, S. Landonio, S. Francioso, F. Santopaolo, A. M. Pellicelli, V. Calvaruso, L. Gianserra, M. Siciliano, D. Romagnoli, R. Cozzolongo, A. Grieco, J. Vecchiet, F. Morisco, M. Merli, G. Brancaccio, A. Di Biagio, E. Loggi, C. M. Mastroianni, V. Pace Palitti, P. Tarquini, M. Puoti, G. Taliani, L. Sarmati, A. Picciotto, V. Vullo, N. Caporaso, M. Paoloni, C. Pasquazzi, G. Rizzardini, G. Parruti, A. Craxì, S. Babudieri, M. Andreoni, M. Angelico, C. F. Perno, F. Ceccherini-Silberstein and HCV Italian Resistance Network Study Group</t>
-  </si>
-  <si>
     <t>514-528</t>
   </si>
   <si>
@@ -626,9 +608,6 @@
     <t>https://doi.org/10.1093/infdis/jiv564</t>
   </si>
   <si>
-    <t>G. R. Foster, N. Afdhal, S. K. Roberts, N. Bräu, E. J. Gane, S. Pianko, E. Lawitz, A. Thompson, M. L. Shiffman, C. Cooper, W. J. Towner, B. Conway, P. Ruane, M. Bourlière, T. Asselah, T. Berg, S. Zeuzem, W. Rosenberg, K. Agarwal, C. A. Stedman, H. Mo, H. Dvory-Sobol, L. Han, J. Wang, J. McNally, A. Osinusi, D. M. Brainard, J. G. McHutchison, F. Mazzotta, T. T. Tran, S. C. Gordon, K. Patel, N. Reau, A. Mangia, M. Sulkowski, ASTRAL-2  Investigators and ASTRAL-3 Investigators</t>
-  </si>
-  <si>
     <t>M. P. Curry, J. G. O'Leary, N. Bzowej, A. J. Muir, K. M. Korenblat, J. M. Fenkel, K. R. Reddy, E. Lawitz, S. L. Flamm, T. Schiano, L. Teperman, R. Fontana, E. Schiff, M. Fried, B. Doehle, D. An, J. McNally, A. Osinusi, D. M. Brainard, J. G. McHutchison, R. S. Brown, M. Charlton and ASTRAL-4 Investigators</t>
   </si>
   <si>
@@ -656,9 +635,6 @@
     <t>Naggie et al.</t>
   </si>
   <si>
-    <t>S. Naggie, C. Cooper, M. Saag, K. Workowski, P. Ruane, W. J. Towner, K. Marks, A. Luetkemeyer, R. P. Baden, P. E. Sax, E. Gane, J. Santana-Bagur, L. M. Stamm, J. C. Yang, P. German, H. Dvory-Sobol, L. Ni, P. S. Pang, J. G. McHutchison, C. A. Stedman, J. O. Morales-Ramirez, N. Bräu, D. Jayaweera, A. E. Colson, P. Tebas, D. K. Wong, D. Dieterich, M. Sulkowski and ION-4 Investigators</t>
-  </si>
-  <si>
     <t>705-13</t>
   </si>
   <si>
@@ -740,9 +716,6 @@
     <t>Zeuzem et al.</t>
   </si>
   <si>
-    <t>S. Zeuzem, G. M. Dusheiko, R. Salupere, A. Mangia, R. Flisiak, R. H. Hyland, A. Illeperuma, E. Svarovskaia, D. M. Brainard, W. T. Symonds, G. M. Subramanian, J. G. McHutchison, O. Weiland, H. W. Reesink, P. Ferenci, C. Hézode, R. Esteban and VALENCE Investigators</t>
-  </si>
-  <si>
     <t>1993-2001</t>
   </si>
   <si>
@@ -755,9 +728,6 @@
     <t>Tong et al.</t>
   </si>
   <si>
-    <t>X. Tong, S. Le Pogam, L. Li, K. Haines, K. Piso, V. Baronas, J. M. Yan, S. S. So, K. Klumpp and I. Nájera</t>
-  </si>
-  <si>
     <t>668-75</t>
   </si>
   <si>
@@ -785,9 +755,6 @@
     <t>Braun et al.</t>
   </si>
   <si>
-    <t xml:space="preserve">D. L. Braun, B. Hampel, R. Kouyos, H. Nguyen, C. Shah, M. Flepp, M. Stöckle, A. Conen, C. Béguelin, P. Künzler-Heule, D. Nicca, P. Schmid, J. Delaloye, M. Rougemont, E. Bernasconi, A. Rauch, H. F. Günthard, J. Böni, J. S. Fehr and Swiss HIV Cohort Study </t>
-  </si>
-  <si>
     <t>https://doi.org/10.1093/cid/ciy547</t>
   </si>
   <si>
@@ -824,9 +791,6 @@
     <t>Bruchfeld et al.</t>
   </si>
   <si>
-    <t>A. Bruchfeld, D. Roth, P. Martin, D. R. Nelson, S. Pol, M. C. Londoño, H. Monsour, M. Silva, P. Hwang, J. M. Arduino, M. Robertson, B. Y. Nguyen, J. Wahl, E. Barr and W. Greaves</t>
-  </si>
-  <si>
     <t>Lancet Gastroenterol Hepatol</t>
   </si>
   <si>
@@ -836,9 +800,6 @@
     <t>https://doi.org/10.1016/S2468-1253(17)30116-4</t>
   </si>
   <si>
-    <t>Efficacy of 12 or 18 weeks of elbasvir plus grazoprevir with ribavirin in treatment-naïve, noncirrhotic HCV genotype 3-infected patients.</t>
-  </si>
-  <si>
     <t>E. Gane, R. Nahass, V. Luketic, E. Asante-Appiah, P. Hwang, M. Robertson, J. Wahl, E. Barr and B. Haber</t>
   </si>
   <si>
@@ -866,9 +827,6 @@
     <t>Jacobson et al.</t>
   </si>
   <si>
-    <t>I. M. Jacobson, E. Lawitz, P. Y. Kwo, C. Hézode, C. Y. Peng, A. Y. M. Howe, P. Hwang, J. Wahl, M. Robertson, E. Barr and B. A. Haber</t>
-  </si>
-  <si>
     <t>1372-1382.e2</t>
   </si>
   <si>
@@ -1044,6 +1002,576 @@
   </si>
   <si>
     <t>https://doi.org/10.1002/cmdc.201300343</t>
+  </si>
+  <si>
+    <t>Pooled resistance analysis in HCV genotype 1‚Äì6-infected patients treated with glecaprevir/pibrentasvir in phase 2 and 3 clinical trials</t>
+  </si>
+  <si>
+    <t>C. Sarrazin, C.L. Cooper, M.P. Manns, R.K. Reddy, K. Kowdley, H. Dvory-Sobol, E. Svarovskia, R. Martin, B.P. Doehle, G. Camus, L.M. Stamm, R.H. Hyland, D.M. Brainard, H. Mo, S.C. Gordon, M. BourlieÃÄre, S. Zeuzem and S.L. Flamm</t>
+  </si>
+  <si>
+    <t>No impact of RASs on the high efficacy of SOF/VEL/VOX for 8 weeks in DAA-na√Øve patients: an integrated resistance analysis of the POLARIS-2 and POLARIS-3 studies</t>
+  </si>
+  <si>
+    <t>H. Dvory-Sobol, B. Han, J. Lu, B. Parhy, D. Hsieh, E. Zhou, M. Bourli√®re, I. Jacobson, L. M. Stamm, G. Camus, R. Martin, E. S. Svarovskaia and H. Mo</t>
+  </si>
+  <si>
+    <t>L. V. Pham, S. Ramirez, J. M. Gottwein, U. Fahn√∏e, Y. P. Li, J. Pedersen and J. Bukh</t>
+  </si>
+  <si>
+    <t>F. Poordad, S. Pol, A. Asatryan, M. Buti, D. Shaw, C. H√©zode, F. Felizarta, R. W. Reindollar, S. C. Gordon, S. Pianko, M. W. Fried, D. E. Bernstein, J. Gallant, C. W. Lin, Y. Lei, T. I. Ng, P. Krishnan, S. Kopecky-Bromberg, J. Kort and F. J. Mensa</t>
+  </si>
+  <si>
+    <t>J. Dietz, S. Susser, J. Vermehren, K. H. Peiffer, G. Grammatikos, A. Berger, P. Ferenci, M. Buti, B. M√ºllhaupt, B. Hunyady, H. Hinrichsen, S. Mauss, J. Petersen, P. Buggisch, G. Felten, D. H√ºppe, G. Knecht, T. Lutz, E. Schott, C. Berg, U. Spengler, T. von Hahn, T. Berg, S. Zeuzem, C. Sarrazin and European HCV Resistance Study Group</t>
+  </si>
+  <si>
+    <t>A. Walker, S. Filke, N. L√ºbke, M. Obermeier, R. Kaiser, D. H√§ussinger, J. Timm and H. H. Bock</t>
+  </si>
+  <si>
+    <t>Bourli√®re et al.</t>
+  </si>
+  <si>
+    <t>M. Bourli√®re, S. C. Gordon, S. L. Flamm, C. L. Cooper, A. Ramji, M. Tong, N. Ravendhran, J. M. Vierling, T. T. Tran, S. Pianko, M. B. Bansal, V. de L√©dinghen, R. H. Hyland, L. M. Stamm, H. Dvory-Sobol, E. Svarovskaia, J. Zhang, K. C. Huang, G. M. Subramanian, D. M. Brainard, J. G. McHutchison, E. C. Verna, P. Buggisch, C. S. Landis, Z. H. Younes, M. P. Curry, S. I. Strasser, E. R. Schiff, K. R. Reddy, M. P. Manns, K. V. Kowdley, S. Zeuzem and POLARIS-1 and POLARIS-4 Investigators</t>
+  </si>
+  <si>
+    <t>V. C. Di Maio, V. Cento, I. Lenci, M. Aragri, P. Rossi, S. Barbaliscia, M. Melis, G. Verucchi, C. F. Magni, E. Teti, A. Bertoli, F. Antonucci, M. C. Bellocchi, V. Micheli, C. Masetti, S. Landonio, S. Francioso, F. Santopaolo, A. M. Pellicelli, V. Calvaruso, L. Gianserra, M. Siciliano, D. Romagnoli, R. Cozzolongo, A. Grieco, J. Vecchiet, F. Morisco, M. Merli, G. Brancaccio, A. Di Biagio, E. Loggi, C. M. Mastroianni, V. Pace Palitti, P. Tarquini, M. Puoti, G. Taliani, L. Sarmati, A. Picciotto, V. Vullo, N. Caporaso, M. Paoloni, C. Pasquazzi, G. Rizzardini, G. Parruti, A. Crax√¨, S. Babudieri, M. Andreoni, M. Angelico, C. F. Perno, F. Ceccherini-Silberstein and HCV Italian Resistance Network Study Group</t>
+  </si>
+  <si>
+    <t>G. R. Foster, N. Afdhal, S. K. Roberts, N. Br√§u, E. J. Gane, S. Pianko, E. Lawitz, A. Thompson, M. L. Shiffman, C. Cooper, W. J. Towner, B. Conway, P. Ruane, M. Bourli√®re, T. Asselah, T. Berg, S. Zeuzem, W. Rosenberg, K. Agarwal, C. A. Stedman, H. Mo, H. Dvory-Sobol, L. Han, J. Wang, J. McNally, A. Osinusi, D. M. Brainard, J. G. McHutchison, F. Mazzotta, T. T. Tran, S. C. Gordon, K. Patel, N. Reau, A. Mangia, M. Sulkowski, ASTRAL-2  Investigators and ASTRAL-3 Investigators</t>
+  </si>
+  <si>
+    <t>S. Naggie, C. Cooper, M. Saag, K. Workowski, P. Ruane, W. J. Towner, K. Marks, A. Luetkemeyer, R. P. Baden, P. E. Sax, E. Gane, J. Santana-Bagur, L. M. Stamm, J. C. Yang, P. German, H. Dvory-Sobol, L. Ni, P. S. Pang, J. G. McHutchison, C. A. Stedman, J. O. Morales-Ramirez, N. Br√§u, D. Jayaweera, A. E. Colson, P. Tebas, D. K. Wong, D. Dieterich, M. Sulkowski and ION-4 Investigators</t>
+  </si>
+  <si>
+    <t>S. Zeuzem, G. M. Dusheiko, R. Salupere, A. Mangia, R. Flisiak, R. H. Hyland, A. Illeperuma, E. Svarovskaia, D. M. Brainard, W. T. Symonds, G. M. Subramanian, J. G. McHutchison, O. Weiland, H. W. Reesink, P. Ferenci, C. H√©zode, R. Esteban and VALENCE Investigators</t>
+  </si>
+  <si>
+    <t>X. Tong, S. Le Pogam, L. Li, K. Haines, K. Piso, V. Baronas, J. M. Yan, S. S. So, K. Klumpp and I. N√°jera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. L. Braun, B. Hampel, R. Kouyos, H. Nguyen, C. Shah, M. Flepp, M. St√∂ckle, A. Conen, C. B√©guelin, P. K√ºnzler-Heule, D. Nicca, P. Schmid, J. Delaloye, M. Rougemont, E. Bernasconi, A. Rauch, H. F. G√ºnthard, J. B√∂ni, J. S. Fehr and Swiss HIV Cohort Study </t>
+  </si>
+  <si>
+    <t>A. Bruchfeld, D. Roth, P. Martin, D. R. Nelson, S. Pol, M. C. Londo√±o, H. Monsour, M. Silva, P. Hwang, J. M. Arduino, M. Robertson, B. Y. Nguyen, J. Wahl, E. Barr and W. Greaves</t>
+  </si>
+  <si>
+    <t>Efficacy of 12 or 18 weeks of elbasvir plus grazoprevir with ribavirin in treatment-na√Øve, noncirrhotic HCV genotype 3-infected patients.</t>
+  </si>
+  <si>
+    <t>I. M. Jacobson, E. Lawitz, P. Y. Kwo, C. H√©zode, C. Y. Peng, A. Y. M. Howe, P. Hwang, J. Wahl, M. Robertson, E. Barr and B. A. Haber</t>
+  </si>
+  <si>
+    <t>Frequent Antiviral Treatment Failures in Patients Infected With Hepatitis C Virus Genotype 4, Subtype 4r.</t>
+  </si>
+  <si>
+    <t>Fourati et al.</t>
+  </si>
+  <si>
+    <t>S. Fourati, C. Rodriguez, C. H√©zode, A. Soulier, I. Ruiz, L. Poiteau, S. Chevaliez and J. M. Pawlotsky</t>
+  </si>
+  <si>
+    <t>513-523</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/hep.30225</t>
+  </si>
+  <si>
+    <t>Daclatasvir plus asunaprevir in treatment-na√Øve patients with hepatitis C virus genotype 1b infection.</t>
+  </si>
+  <si>
+    <t>Wei et al.</t>
+  </si>
+  <si>
+    <t>L. Wei, F. S. Wang, M. X. Zhang, J. D. Jia, A. A. Yakovlev, W. Xie, E. Burnevich, J. Q. Niu, Y. J. Jung, X. J. Jiang, M. Xu, X. Y. Chen, Q. Xie, J. Li, J. L. Hou, H. Tang, X. G. Dou, Y. Gandhi, W. H. Hu, F. McPhee, S. Noviello, M. Treitel, L. Mo and J. Deng</t>
+  </si>
+  <si>
+    <t>World J. Gastroenterol.</t>
+  </si>
+  <si>
+    <t>1361-1372</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3748/wjg.v24.i12.1361</t>
+  </si>
+  <si>
+    <t>Viral kinetics analysis and virological characterization of treatment failures in patients with chronic hepatitis C treated with sofosbuvir and an NS5A inhibitor.</t>
+  </si>
+  <si>
+    <t>S. Fourati, J. Guedj, S. Chevaliez, T. H. T. Nguyen, F. Roudot-Thoraval, I. Ruiz, A. Soulier, G. Scoazec, A. Varaut, L. Poiteau, M. Francois, A. Mallat, C. H√©zode and J. M. Pawlotsky</t>
+  </si>
+  <si>
+    <t>Aliment. Pharmacol. Ther.</t>
+  </si>
+  <si>
+    <t>665-673</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/apt.14478</t>
+  </si>
+  <si>
+    <t>Long-term follow-up of clinical trial patients treated for chronic HCV infection with daclatasvir-based regimens.</t>
+  </si>
+  <si>
+    <t>Reddy et al.</t>
+  </si>
+  <si>
+    <t>K. R. Reddy, S. Pol, P. J. Thuluvath, H. Kumada, J. Toyota, K. Chayama, J. Levin, E. J. Lawitz, A. Gadano, W. Ghesquiere, G. Gerken, M. R. Brunetto, C. Y. Peng, M. Silva, S. I. Strasser, J. Heo, F. McPhee, Z. Liu, R. Yang, M. Linaberry and S. Noviello</t>
+  </si>
+  <si>
+    <t>821-833</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/liv.13596</t>
+  </si>
+  <si>
+    <t>Sofosbuvir-Daclatasvir-Simeprevir Plus Ribavirin in Direct-Acting Antiviral-Experienced Patients With Hepatitis C.</t>
+  </si>
+  <si>
+    <t>H√©zode et al.</t>
+  </si>
+  <si>
+    <t>C. H√©zode, S. Fourati, S. Chevaliez, G. Scoazec, A. Soulier, A. Varaut, M. Fran√ßois, I. Ruiz, F. Roudot-Thoraval, A. Mallat and J. M. Pawlotsky</t>
+  </si>
+  <si>
+    <t>1615-1618</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/cid/cix214</t>
+  </si>
+  <si>
+    <t>New resistance-associated substitutions and failure of dual oral therapy with daclatasvir and asunaprevir.</t>
+  </si>
+  <si>
+    <t>Mawatari et al.</t>
+  </si>
+  <si>
+    <t>S. Mawatari, K. Oda, K. Tabu, S. Ijuin, K. Kumagai, Y. Inada, H. Uto, Y. Hiramine, T. Kure, K. Fujisaki, M. Hashiguchi, T. Hori, A. Oshige, D. Imanaka, A. Saishoji, O. Taniyama, H. Sakae, T. Tamai, A. Moriuchi and A. Ido</t>
+  </si>
+  <si>
+    <t>855-867</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00535-016-1303-0</t>
+  </si>
+  <si>
+    <t>Characterization of NS5A polymorphisms and their impact on response rates in patients with HCV genotype 2 treated with daclatasvir-based regimens.</t>
+  </si>
+  <si>
+    <t>Zhou et al.</t>
+  </si>
+  <si>
+    <t>N. Zhou, Z. Han, S. Hartman-Neumann, B. DeGray, J. Ueland, V. Vellucci, D. Hernandez and F. McPhee</t>
+  </si>
+  <si>
+    <t>J. Antimicrob. Chemother.</t>
+  </si>
+  <si>
+    <t>3495-3505</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/jac/dkw336</t>
+  </si>
+  <si>
+    <t>Effectiveness and safety of daclatasvir plus asunaprevir for hepatitis C virus genotype 1b: Systematic review and meta-analysis.</t>
+  </si>
+  <si>
+    <t>H. L. Wang, X. Lu, X. Yang and N. Xu</t>
+  </si>
+  <si>
+    <t>J. Gastroenterol. Hepatol.</t>
+  </si>
+  <si>
+    <t>45-52</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/jgh.13587</t>
+  </si>
+  <si>
+    <t>Efficacy of daclatasvir/asunaprevir according to resistance-associated variants in chronic hepatitis C with genotype 1.</t>
+  </si>
+  <si>
+    <t>E. Iio, N. Shimada, H. Abe, M. Atsukawa, K. Yoshizawa, K. Takaguchi, Y. Eguchi, H. Nomura, T. Kuramitsu, J. H. Kang, T. Matsui, N. Hirashima, A. Tsubota, A. Kusakabe, I. Hasegawa, T. Miyaki, N. Shinkai, K. Fujiwara, S. Nojiri and Y. Tanaka</t>
+  </si>
+  <si>
+    <t>94-103</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00535-016-1225-x</t>
+  </si>
+  <si>
+    <t>All-oral daclatasvir plus asunaprevir for chronic hepatitis C virus (HCV) genotype 1b infection: a sub-analysis in Asian patients from the HALLMARK DUAL study.</t>
+  </si>
+  <si>
+    <t>Kao et al.</t>
+  </si>
+  <si>
+    <t>J. H. Kao, Y. J. Lee, J. Heo, S. H. Ahn, Y. S. Lim, C. Y. Peng, T. T. Chang, A. Torbeyns, E. Hughes, R. Bhore and S. Noviello</t>
+  </si>
+  <si>
+    <t>1433-41</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/liv.13128</t>
+  </si>
+  <si>
+    <t>A phase 3, open-label study of daclatasvir plus asunaprevir in Asian patients with chronic hepatitis C virus genotype 1b infection who are ineligible for or intolerant to interferon alfa therapies with or without ribavirin.</t>
+  </si>
+  <si>
+    <t>L. Wei, M. Zhang, M. Xu, W. L. Chuang, W. Lu, W. Xie, Z. Jia, G. Gong, Y. Li, S. H. Bae, Y. F. Yang, Q. Xie, S. Lin, X. Chen, J. Niu, J. Jia, T. Garimella, A. Torbeyns, F. McPhee, M. Treitel, P. D. Yin and L. Mo</t>
+  </si>
+  <si>
+    <t>1860-1867</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/jgh.13379</t>
+  </si>
+  <si>
+    <t>Development of rare resistance-associated variants that are extremely tolerant against NS5A inhibitors during daclatasvir/asunaprevir therapy by a two-hit mechanism.</t>
+  </si>
+  <si>
+    <t>Uchida et al.</t>
+  </si>
+  <si>
+    <t>Y. Uchida, J. I. Kouyama, K. Naiki, K. Sugawara, M. Inao, Y. Imai, N. Nakayama and S. Mochida</t>
+  </si>
+  <si>
+    <t>1234-1246</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/hepr.12673</t>
+  </si>
+  <si>
+    <t>Daclatasvir, sofosbuvir, and ribavirin for hepatitis C virus genotype 3 and advanced liver disease: A randomized phase III study (ALLY-3+).</t>
+  </si>
+  <si>
+    <t>Leroy et al.</t>
+  </si>
+  <si>
+    <t>V. Leroy, P. Angus, J. P. Bronowicki, G. J. Dore, C. Hezode, S. Pianko, S. Pol, K. Stuart, E. Tse, F. McPhee, R. Bhore, M. J. Jimenez-Exposito and A. J. Thompson</t>
+  </si>
+  <si>
+    <t>1430-41</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/hep.28473</t>
+  </si>
+  <si>
+    <t>Daclatasvir plus simeprevir with or without ribavirin for the treatment of chronic hepatitis C virus genotype 1 infection.</t>
+  </si>
+  <si>
+    <t>S. Zeuzem, C. H√©zode, J. P. Bronowicki, V. Loustaud-Ratti, F. Gea, M. Buti, A. Olveira, T. Banyai, M. T. Al-Assi, J. Petersen, D. Thabut, A. Gadano, R. Pruitt, M. Makara, M. Bourli√®re, S. Pol, M. Beumont-Mauviel, S. Ouwerkerk-Mahadevan, G. Picchio, M. Bifano, F. McPhee, N. Boparai, K. Cheung, E. A. Hughes, S. Noviello and LEAGUE-1 Study Team</t>
+  </si>
+  <si>
+    <t>292-300</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jhep.2015.09.024</t>
+  </si>
+  <si>
+    <t>NS5A Sequence Heterogeneity and Mechanisms of Daclatasvir Resistance in Hepatitis C Virus Genotype 4 Infection.</t>
+  </si>
+  <si>
+    <t>N. Zhou, D. Hernandez, J. Ueland, X. Yang, F. Yu, K. Sims, P. D. Yin and F. McPhee</t>
+  </si>
+  <si>
+    <t>206-15</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/infdis/jiv379</t>
+  </si>
+  <si>
+    <t>Comparison of daclatasvir resistance barriers on NS5A from hepatitis C virus genotypes 1 to 6: implications for cross-genotype activity.</t>
+  </si>
+  <si>
+    <t>C. Wang, L. Jia, D. R. O'Boyle, J. H. Sun, K. Rigat, L. Valera, P. Nower, X. Huang, B. Kienzle, S. Roberts, M. Gao and R. A. Fridell</t>
+  </si>
+  <si>
+    <t>5155-63</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AAC.02788-14</t>
+  </si>
+  <si>
+    <t>Virological escape in HCV genotype-1-infected patients receiving daclatasvir plus ribavirin and peginterferon alfa-2a or alfa-2b.</t>
+  </si>
+  <si>
+    <t>McPhee et al.</t>
+  </si>
+  <si>
+    <t>F. McPhee, D. Hernandez, N. Zhou, F. Yu, J. Ueland, A. Monikowski, K. Chayama, J. Toyota, N. Izumi, O. Yokosuka, N. Kawada, Y. Osaki, E. A. Hughes, H. Watanabe, H. Ishikawa and H. Kumada</t>
+  </si>
+  <si>
+    <t>Antivir. Ther. (Lond.)</t>
+  </si>
+  <si>
+    <t>479-90</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3851/IMP2729</t>
+  </si>
+  <si>
+    <t>Randomized trial of daclatasvir and asunaprevir with or without PegIFN/RBV for hepatitis C virus genotype 1 null responders.</t>
+  </si>
+  <si>
+    <t>Lok et al.</t>
+  </si>
+  <si>
+    <t>A. S. Lok, D. F. Gardiner, C. H√©zode, E. J. Lawitz, M. Bourli√®re, G. T. Everson, P. Marcellin, M. Rodriguez-Torres, S. Pol, L. Serfaty, T. Eley, S. P. Huang, J. Li, M. Wind-Rotolo, F. Yu, F. McPhee, D. M. Grasela and C. Pasquinelli</t>
+  </si>
+  <si>
+    <t>490-9</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jhep.2013.10.019</t>
+  </si>
+  <si>
+    <t>Natural prevalence of NS5A polymorphisms in subjects infected with hepatitis C virus genotype 3 and their effects on the antiviral activity of NS5A inhibitors.</t>
+  </si>
+  <si>
+    <t>Hernandez et al.</t>
+  </si>
+  <si>
+    <t>D. Hernandez, N. Zhou, J. Ueland, A. Monikowski and F. McPhee</t>
+  </si>
+  <si>
+    <t>J. Clin. Virol.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jcv.2012.12.020</t>
+  </si>
+  <si>
+    <t>In vitro activity of daclatasvir on hepatitis C virus genotype 3 NS5A.</t>
+  </si>
+  <si>
+    <t>C. Wang, L. Valera, L. Jia, M. J. Kirk, M. Gao and R. A. Fridell</t>
+  </si>
+  <si>
+    <t>611-3</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AAC.01874-12</t>
+  </si>
+  <si>
+    <t>Effect on hepatitis C virus replication of combinations of direct-acting antivirals, including NS5A inhibitor daclatasvir.</t>
+  </si>
+  <si>
+    <t>Pelosi et al.</t>
+  </si>
+  <si>
+    <t>L. A. Pelosi, S. Voss, M. Liu, M. Gao and J. A. Lemm</t>
+  </si>
+  <si>
+    <t>5230-9</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AAC.01209-12</t>
+  </si>
+  <si>
+    <t>Preliminary study of two antiviral agents for hepatitis C genotype 1.</t>
+  </si>
+  <si>
+    <t>A. S. Lok, D. F. Gardiner, E. Lawitz, C. Martorell, G. T. Everson, R. Ghalib, R. Reindollar, V. Rustgi, F. McPhee, M. Wind-Rotolo, A. Persson, K. Zhu, D. I. Dimitrova, T. Eley, T. Guo, D. M. Grasela and C. Pasquinelli</t>
+  </si>
+  <si>
+    <t>216-24</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1056/NEJMoa1104430</t>
+  </si>
+  <si>
+    <t>Impact of a baseline polymorphism on the emergence of resistance to the hepatitis C virus nonstructural protein 5A replication complex inhibitor, BMS-790052.</t>
+  </si>
+  <si>
+    <t>Sun et al.</t>
+  </si>
+  <si>
+    <t>J. H. Sun, D. R. O'Boyle Ii, Y. Zhang, C. Wang, P. Nower, L. Valera, S. Roberts, R. E. Nettles, R. A. Fridell and M. Gao</t>
+  </si>
+  <si>
+    <t>1692-9</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/hep.25581</t>
+  </si>
+  <si>
+    <t>Hepatitis C virus RNA elimination and development of resistance in replicon cells treated with BMS-790052.</t>
+  </si>
+  <si>
+    <t>C. Wang, H. Huang, L. Valera, J. H. Sun, D. R. O'Boyle, P. T. Nower, L. Jia, D. Qiu, X. Huang, A. Altaf, M. Gao and R. A. Fridell</t>
+  </si>
+  <si>
+    <t>1350-8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AAC.05977-11</t>
+  </si>
+  <si>
+    <t>In vitro activity of BMS-790052 on hepatitis C virus genotype 4 NS5A.</t>
+  </si>
+  <si>
+    <t>C. Wang, L. Jia, H. Huang, D. Qiu, L. Valera, X. Huang, J. H. Sun, P. T. Nower, D. R. O'Boyle, M. Gao and R. A. Fridell</t>
+  </si>
+  <si>
+    <t>1588-90</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AAC.06169-11</t>
+  </si>
+  <si>
+    <t>Genotypic and phenotypic analysis of variants resistant to hepatitis C virus nonstructural protein 5A replication complex inhibitor BMS-790052 in humans: in vitro and in vivo correlations.</t>
+  </si>
+  <si>
+    <t>Fridell et al.</t>
+  </si>
+  <si>
+    <t>R. A. Fridell, C. Wang, J. H. Sun, D. R. O'Boyle, P. Nower, L. Valera, D. Qiu, S. Roberts, X. Huang, B. Kienzle, M. Bifano, R. E. Nettles and M. Gao</t>
+  </si>
+  <si>
+    <t>1924-35</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/hep.24594</t>
+  </si>
+  <si>
+    <t>Distinct functions of NS5A in hepatitis C virus RNA replication uncovered by studies with the NS5A inhibitor BMS-790052.</t>
+  </si>
+  <si>
+    <t>R. A. Fridell, D. Qiu, L. Valera, C. Wang, R. E. Rose and M. Gao</t>
+  </si>
+  <si>
+    <t>J. Virol.</t>
+  </si>
+  <si>
+    <t>7312-20</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/JVI.00253-11</t>
+  </si>
+  <si>
+    <t>Resistance analysis of the hepatitis C virus NS5A inhibitor BMS-790052 in an in vitro replicon system.</t>
+  </si>
+  <si>
+    <t>R. A. Fridell, D. Qiu, C. Wang, L. Valera and M. Gao</t>
+  </si>
+  <si>
+    <t>3641-50</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AAC.00556-10</t>
+  </si>
+  <si>
+    <t>Chemical genetics strategy identifies an HCV NS5A inhibitor with a potent clinical effect.</t>
+  </si>
+  <si>
+    <t>Gao et al.</t>
+  </si>
+  <si>
+    <t>M. Gao, R. E. Nettles, M. Belema, L. B. Snyder, V. N. Nguyen, R. A. Fridell, M. H. Serrano-Wu, D. R. Langley, J. H. Sun, D. R. O'Boyle, J. A. Lemm, C. Wang, J. O. Knipe, C. Chien, R. J. Colonno, D. M. Grasela, N. A. Meanwell and L. G. Hamann</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>96-100</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/nature08960</t>
+  </si>
+  <si>
+    <t>12 Weeks of Daclatasvir in Combination With Sofosbuvir for HIV-HCV Coinfection (ALLY-2 Study): Efficacy and Safety by HIV Combination Antiretroviral Regimens.</t>
+  </si>
+  <si>
+    <t>Luetkemeyer et al.</t>
+  </si>
+  <si>
+    <t>A. F. Luetkemeyer, C. McDonald, M. Ramgopal, S. Noviello, R. Bhore, P. Ackerman, A. F. Luetkemeyer, C. McDonald, M. Ramgopal, S. Noviello, R. Bhore and P. Ackerman</t>
+  </si>
+  <si>
+    <t>1489-96</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/cid/ciw163</t>
+  </si>
+  <si>
+    <t>569-576</t>
+  </si>
+  <si>
+    <t>802-809</t>
+  </si>
+  <si>
+    <t>Nonstructural protein 5A/P32 deletion after failure of ledipasvir/sofosbuvir in hepatitis C virus genotype 1b infection.</t>
+  </si>
+  <si>
+    <t>Doi et al.</t>
+  </si>
+  <si>
+    <t>A. Doi, H. Hikita, R. Sakamori, Y. Tahata, Y. Kai, R. Yamada, T. Yakushijin, E. Mita, K. Ohkawa, Y. Imai, K. Furuta, T. Kodama, T. Tatsumi and T. Takehara</t>
+  </si>
+  <si>
+    <t>380-383</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/hep.29836</t>
+  </si>
+  <si>
+    <t>The presence of multiple NS5A RASs is associated with the outcome of sofosbuvir and ledipasvir therapy in NS5A inhibitor-na√Øve patients with chronic HCV genotype 1b infection in a real-world cohort.</t>
+  </si>
+  <si>
+    <t>Kozuka et al.</t>
+  </si>
+  <si>
+    <t>R. Kozuka, H. Hai, H. Motoyama, A. Hagihara, H. Fujii, S. Uchida-Kobayashi, H. Morikawa, M. Enomoto, Y. Murakami, N. Kawada and A. Tamori</t>
+  </si>
+  <si>
+    <t>535-542</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/jvh.12850</t>
+  </si>
+  <si>
+    <t>Ledipasvir/sofosbuvir for treatment of hepatitis C virus in sofosbuvir-experienced, NS5A treatment-na√Øve patients: Findings from two randomized trials.</t>
+  </si>
+  <si>
+    <t>Tam et al.</t>
+  </si>
+  <si>
+    <t>E. Tam, A. F. Luetkemeyer, P. S. Mantry, S. K. Satapathy, P. Ghali, M. Kang, R. Haubrich, X. Shen, L. Ni, G. Camus, A. Copans, L. Rossaro, B. Guyer, R. S. Brown and RESCUE and ACTG A5348 study investigators</t>
+  </si>
+  <si>
+    <t>1010-1021</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/liv.13616</t>
+  </si>
+  <si>
+    <t>Response to DAA therapy in the NHS England Early Access Programme for rare HCV subtypes from low and middle income countries.</t>
+  </si>
+  <si>
+    <t>da Silva Filipe et al.</t>
+  </si>
+  <si>
+    <t>A. da Silva Filipe, V. Sreenu, J. Hughes, E. Aranday-Cortes, W. L. Irving, G. R. Foster, K. Agarwal, W. Rosenberg, D. Macdonald, P. Richardson, M. A. Aldersley, M. Wiselka, A. Ustianowski, J. McLauchlan and E. C. Thomson</t>
+  </si>
+  <si>
+    <t>1348-1350</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jhep.2017.06.035</t>
+  </si>
+  <si>
+    <t>All-oral 12-week treatment with daclatasvir plus sofosbuvir in patients with hepatitis C virus genotype 3 infection: ALLY-3 phase III study.</t>
+  </si>
+  <si>
+    <t>Nelson et al.</t>
+  </si>
+  <si>
+    <t>D. R. Nelson, J. N. Cooper, J. P. Lalezari, E. Lawitz, P. J. Pockros, N. Gitlin, B. F. Freilich, Z. H. Younes, W. Harlan, R. Ghalib, G. Oguchi, P. J. Thuluvath, G. Ortiz-Lasanta, M. Rabinovitz, D. Bernstein, M. Bennett, T. Hawkins, N. Ravendhran, A. M. Sheikh, P. Varunok, K. V. Kowdley, D. Hennicken, F. McPhee, K. Rana, E. A. Hughes and ALLY-3 Study Team</t>
+  </si>
+  <si>
+    <t>1127-35</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/hep.27726</t>
   </si>
 </sst>
 </file>
@@ -1092,10 +1620,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1108,6 +1637,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="phdr_publications_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1373,21 +1906,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="97.83203125" style="2" customWidth="1"/>
-    <col min="3" max="5" width="10.83203125" style="2"/>
-    <col min="6" max="6" width="19.6640625" style="2" customWidth="1"/>
-    <col min="7" max="9" width="10.83203125" style="2"/>
-    <col min="10" max="10" width="16.6640625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="49.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="77.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1398,7 +1936,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -1422,7 +1960,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1430,19 +1968,19 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2">
         <v>2017</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2">
         <v>66</v>
@@ -1454,65 +1992,65 @@
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2">
         <v>2013</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G3" s="2">
         <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>321</v>
       </c>
       <c r="E4" s="2">
         <v>2017</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G4" s="2">
         <v>66</v>
@@ -1521,33 +2059,33 @@
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="E5" s="2">
         <v>2017</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G5" s="2">
         <v>66</v>
@@ -1556,33 +2094,33 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2">
         <v>2016</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2">
         <v>64</v>
@@ -1591,65 +2129,65 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>323</v>
       </c>
       <c r="E7" s="2">
         <v>2017</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2">
         <v>66</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2">
         <v>2015</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G8" s="2">
         <v>62</v>
@@ -1658,166 +2196,184 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>29504692</v>
+        <v>30125371</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>112</v>
+        <v>339</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>113</v>
+        <v>340</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>114</v>
+        <v>341</v>
       </c>
       <c r="E9" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>115</v>
+        <v>39</v>
+      </c>
+      <c r="G9" s="2">
+        <v>69</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>116</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>29454794</v>
+        <v>30107485</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>118</v>
+        <v>335</v>
       </c>
       <c r="E10" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="G10" s="2">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="H10" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>119</v>
+        <v>483</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>87</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>29453451</v>
+        <v>29599611</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>120</v>
+        <v>344</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>121</v>
+        <v>345</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>122</v>
+        <v>346</v>
       </c>
       <c r="E11" s="2">
         <v>2018</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>123</v>
+        <v>347</v>
       </c>
       <c r="G11" s="2">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
-        <v>3199</v>
+        <v>12</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>124</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>29425396</v>
+        <v>29504692</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E12" s="2">
         <v>2018</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>110</v>
+      </c>
+      <c r="G12" s="2">
+        <v>48</v>
+      </c>
+      <c r="H12" s="2">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>484</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>29404477</v>
+        <v>29473975</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="E13" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="G13" s="2">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="H13" s="2">
         <v>6</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>132</v>
+        <v>240</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>133</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>29274866</v>
+        <v>29461687</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>242</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>102</v>
+        <v>243</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>134</v>
+        <v>244</v>
       </c>
       <c r="E14" s="2">
         <v>2018</v>
@@ -1826,1595 +2382,2715 @@
         <v>71</v>
       </c>
       <c r="G14" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="H14" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>88</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>29221887</v>
+        <v>29454794</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>135</v>
+        <v>324</v>
       </c>
       <c r="E15" s="2">
         <v>2018</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G15" s="2">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="H15" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>29152781</v>
+        <v>29453451</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E16" s="2">
         <v>2018</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="G16" s="2">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="H16" s="2">
-        <v>4</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>78</v>
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>3199</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>29146520</v>
+        <v>29425404</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>137</v>
+        <v>485</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>138</v>
+        <v>486</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>139</v>
+        <v>487</v>
       </c>
       <c r="E17" s="2">
         <v>2018</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="G17" s="2">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="H17" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>140</v>
+        <v>488</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>141</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>29084747</v>
+        <v>29425396</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E18" s="2">
         <v>2018</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="2">
-        <v>62</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>28984067</v>
+        <v>29404477</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E19" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="G19" s="2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>28783119</v>
+        <v>29274866</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="E20" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="G20" s="2">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="H20" s="2">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>28595606</v>
+        <v>29274188</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>155</v>
+        <v>490</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>156</v>
+        <v>491</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>157</v>
+        <v>492</v>
       </c>
       <c r="E21" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G21" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2">
-        <v>106</v>
+        <v>5</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>493</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>159</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>28564569</v>
+        <v>29271114</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>350</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>106</v>
+        <v>340</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>160</v>
+        <v>351</v>
       </c>
       <c r="E22" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="G22" s="2">
-        <v>376</v>
+        <v>47</v>
       </c>
       <c r="H22" s="2">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>92</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>28498551</v>
+        <v>29221887</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="E23" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="G23" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H23" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>28412293</v>
+        <v>29152781</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>162</v>
+        <v>325</v>
       </c>
       <c r="E24" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G24" s="2">
         <v>67</v>
       </c>
       <c r="H24" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>28332272</v>
+        <v>29146520</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>165</v>
+        <v>326</v>
       </c>
       <c r="E25" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="G25" s="2">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="H25" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>28193664</v>
+        <v>29091342</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>168</v>
+        <v>495</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>105</v>
+        <v>496</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>169</v>
+        <v>497</v>
       </c>
       <c r="E26" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G26" s="2">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="H26" s="2">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>95</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>28128852</v>
+        <v>29084747</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="E27" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="G27" s="2">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H27" s="2">
-        <v>2</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>28105744</v>
+        <v>28984067</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="E28" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="G28" s="2">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H28" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>27923693</v>
+        <v>28941023</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>176</v>
+        <v>355</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>177</v>
+        <v>356</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>178</v>
+        <v>357</v>
       </c>
       <c r="E29" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G29" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="H29" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>179</v>
+        <v>358</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>180</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>27453546</v>
+        <v>28789880</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>181</v>
+        <v>500</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>182</v>
+        <v>501</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>183</v>
+        <v>502</v>
       </c>
       <c r="E30" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G30" s="2">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="H30" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>184</v>
+        <v>503</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>185</v>
+        <v>504</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>27353271</v>
+        <v>28783119</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="E31" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="G31" s="2">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="H31" s="2">
-        <v>9</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>27351341</v>
+        <v>28595606</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>189</v>
+        <v>327</v>
       </c>
       <c r="E32" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="G32" s="2">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H32" s="2">
-        <v>4</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>190</v>
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>106</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>26778412</v>
+        <v>28576451</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>247</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>192</v>
+        <v>336</v>
       </c>
       <c r="E33" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="G33" s="2">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="H33" s="2">
         <v>8</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>84</v>
+        <v>250</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>98</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>26603202</v>
+        <v>28564569</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>194</v>
+        <v>328</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>195</v>
+        <v>329</v>
       </c>
       <c r="E34" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="G34" s="2">
-        <v>213</v>
+        <v>376</v>
       </c>
       <c r="H34" s="2">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>198</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>26575258</v>
+        <v>28498551</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="E35" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="G35" s="2">
-        <v>373</v>
+        <v>66</v>
       </c>
       <c r="H35" s="2">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>26569658</v>
+        <v>28470815</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>60</v>
+        <v>337</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="E36" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="G36" s="2">
-        <v>373</v>
+        <v>24</v>
       </c>
       <c r="H36" s="2">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>86</v>
+        <v>253</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>100</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>26521268</v>
+        <v>28416549</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="E37" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="G37" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H37" s="2">
-        <v>3</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>26196665</v>
+        <v>28412293</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>207</v>
+        <v>61</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="E38" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G38" s="2">
-        <v>373</v>
+        <v>67</v>
       </c>
       <c r="H38" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>211</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>26196502</v>
+        <v>28369411</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>212</v>
+        <v>360</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>177</v>
+        <v>361</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>213</v>
+        <v>362</v>
       </c>
       <c r="E39" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="G39" s="2">
-        <v>373</v>
+        <v>64</v>
       </c>
       <c r="H39" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>214</v>
+        <v>363</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>215</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>25847509</v>
+        <v>28332272</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>216</v>
+        <v>153</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>218</v>
+        <v>155</v>
       </c>
       <c r="E40" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="G40" s="2">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="H40" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>25659285</v>
+        <v>28193664</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>222</v>
+        <v>101</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="E41" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>224</v>
+        <v>69</v>
       </c>
       <c r="G41" s="2">
-        <v>385</v>
+        <v>61</v>
       </c>
       <c r="H41" s="2">
-        <v>9973</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>225</v>
+        <v>5</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>226</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>25322962</v>
+        <v>28193518</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>44</v>
+        <v>260</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
       <c r="E42" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="G42" s="2">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="H42" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>25266287</v>
+        <v>28128852</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>231</v>
+        <v>60</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="E43" s="2">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="G43" s="2">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H43" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>234</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>24795201</v>
+        <v>28105744</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>237</v>
+        <v>330</v>
       </c>
       <c r="E44" s="2">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G44" s="2">
-        <v>370</v>
+        <v>37</v>
       </c>
       <c r="H44" s="2">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>239</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>24154738</v>
+        <v>28078469</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>240</v>
+        <v>365</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>241</v>
+        <v>366</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>242</v>
+        <v>367</v>
       </c>
       <c r="E45" s="2">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="G45" s="2">
-        <v>209</v>
+        <v>52</v>
       </c>
       <c r="H45" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>243</v>
+        <v>368</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>244</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>22430955</v>
+      <c r="A46" s="2">
+        <v>27923693</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>246</v>
+        <v>166</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>247</v>
+        <v>167</v>
       </c>
       <c r="E46" s="2">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G46" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H46" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>248</v>
+        <v>168</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>249</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>30107485</v>
+        <v>27873094</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E47" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>204</v>
+        <v>266</v>
+      </c>
+      <c r="G47" s="2">
+        <v>52</v>
+      </c>
+      <c r="H47" s="2">
+        <v>4</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>29473975</v>
+        <v>27537841</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>109</v>
+        <v>270</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="E48" s="2">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>42</v>
+        <v>272</v>
       </c>
       <c r="G48" s="2">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="H48" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>29461687</v>
+        <v>27773808</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="E49" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G49" s="2">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="H49" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>28576451</v>
+        <v>27720838</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>264</v>
+        <v>103</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="E50" s="2">
         <v>2017</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>266</v>
+        <v>67</v>
       </c>
       <c r="G50" s="2">
-        <v>2</v>
+        <v>152</v>
       </c>
       <c r="H50" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>28470815</v>
+        <v>27605597</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>269</v>
+        <v>370</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>107</v>
+        <v>371</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>270</v>
+        <v>372</v>
       </c>
       <c r="E51" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>147</v>
+        <v>373</v>
       </c>
       <c r="G51" s="2">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="H51" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>271</v>
+        <v>374</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>272</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>28416549</v>
+        <v>27597318</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>273</v>
+        <v>376</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>274</v>
+        <v>115</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>275</v>
+        <v>377</v>
       </c>
       <c r="E52" s="2">
         <v>2017</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>73</v>
+        <v>378</v>
       </c>
       <c r="G52" s="2">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="H52" s="2">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>276</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>28193518</v>
+        <v>27453546</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>277</v>
+        <v>170</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>278</v>
+        <v>171</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>279</v>
+        <v>172</v>
       </c>
       <c r="E53" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G53" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H53" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>281</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>27873094</v>
+        <v>27353271</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>282</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>283</v>
+        <v>41</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>284</v>
+        <v>175</v>
       </c>
       <c r="E54" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="G54" s="2">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H54" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>287</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>27537841</v>
+        <v>27351341</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>288</v>
+        <v>176</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>289</v>
+        <v>177</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>290</v>
+        <v>178</v>
       </c>
       <c r="E55" s="2">
         <v>2016</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>291</v>
+        <v>39</v>
       </c>
       <c r="G55" s="2">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="H55" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>292</v>
+        <v>179</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>293</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>27773808</v>
+        <v>27236547</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>294</v>
+        <v>381</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>295</v>
+        <v>154</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>296</v>
+        <v>382</v>
       </c>
       <c r="E56" s="2">
         <v>2017</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>71</v>
+        <v>266</v>
       </c>
       <c r="G56" s="2">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="H56" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>297</v>
+        <v>383</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>298</v>
+        <v>384</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>27720838</v>
+        <v>27025835</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>299</v>
+        <v>478</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>108</v>
+        <v>479</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="E57" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="G57" s="2">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="H57" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>301</v>
+        <v>481</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>302</v>
+        <v>482</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>26926625</v>
+        <v>27009831</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>303</v>
+        <v>385</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>304</v>
+        <v>386</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>305</v>
+        <v>387</v>
       </c>
       <c r="E58" s="2">
         <v>2016</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G58" s="2">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H58" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>306</v>
+        <v>388</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>307</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>26423374</v>
+        <v>27003037</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>308</v>
+        <v>390</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>310</v>
+        <v>391</v>
       </c>
       <c r="E59" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="G59" s="2">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="H59" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>312</v>
+        <v>392</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>313</v>
+        <v>393</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>26371152</v>
+        <v>26926625</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="E60" s="2">
         <v>2016</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="G60" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H60" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>26303801</v>
+        <v>26878268</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>320</v>
+        <v>395</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>321</v>
+        <v>396</v>
       </c>
       <c r="E61" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="G61" s="2">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H61" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>322</v>
+        <v>397</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>323</v>
+        <v>398</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>25467591</v>
+        <v>26822022</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>324</v>
+        <v>399</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>325</v>
+        <v>401</v>
       </c>
       <c r="E62" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>224</v>
+        <v>39</v>
       </c>
       <c r="G62" s="2">
-        <v>385</v>
+        <v>63</v>
       </c>
       <c r="H62" s="2">
-        <v>9973</v>
+        <v>5</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>326</v>
+        <v>402</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>327</v>
+        <v>403</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>25467560</v>
+        <v>26778412</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>328</v>
+        <v>58</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>329</v>
+        <v>100</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>330</v>
+        <v>181</v>
       </c>
       <c r="E63" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>224</v>
+        <v>71</v>
       </c>
       <c r="G63" s="2">
-        <v>385</v>
+        <v>36</v>
       </c>
       <c r="H63" s="2">
-        <v>9973</v>
+        <v>8</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>332</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
+        <v>26603202</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E64" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G64" s="2">
+        <v>213</v>
+      </c>
+      <c r="H64" s="2">
+        <v>8</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>26575258</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E65" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G65" s="2">
+        <v>373</v>
+      </c>
+      <c r="H65" s="2">
+        <v>27</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>26569658</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E66" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66" s="2">
+        <v>373</v>
+      </c>
+      <c r="H66" s="2">
+        <v>27</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>26521268</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E67" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G67" s="2">
+        <v>62</v>
+      </c>
+      <c r="H67" s="2">
+        <v>3</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>26453968</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E68" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G68" s="2">
+        <v>64</v>
+      </c>
+      <c r="H68" s="2">
+        <v>2</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>26423374</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G69" s="2">
+        <v>2</v>
+      </c>
+      <c r="H69" s="2">
+        <v>8</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>26371152</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E70" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G70" s="2">
+        <v>62</v>
+      </c>
+      <c r="H70" s="2">
+        <v>1</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>26303801</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E71" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G71" s="2">
+        <v>59</v>
+      </c>
+      <c r="H71" s="2">
+        <v>11</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>26196665</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E72" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G72" s="2">
+        <v>373</v>
+      </c>
+      <c r="H72" s="2">
+        <v>8</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>26196502</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E73" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G73" s="2">
+        <v>373</v>
+      </c>
+      <c r="H73" s="2">
+        <v>8</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>26170396</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E74" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G74" s="2">
+        <v>213</v>
+      </c>
+      <c r="H74" s="2">
+        <v>2</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>25847509</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E75" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G75" s="2">
+        <v>62</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>25659285</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E76" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G76" s="2">
+        <v>385</v>
+      </c>
+      <c r="H76" s="2">
+        <v>9973</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>25614962</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E77" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G77" s="2">
+        <v>61</v>
+      </c>
+      <c r="H77" s="2">
+        <v>4</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>25467591</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E78" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G78" s="2">
+        <v>385</v>
+      </c>
+      <c r="H78" s="2">
+        <v>9973</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>25467560</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E79" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G79" s="2">
+        <v>385</v>
+      </c>
+      <c r="H79" s="2">
+        <v>9973</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>25322962</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E80" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G80" s="2">
+        <v>61</v>
+      </c>
+      <c r="H80" s="2">
+        <v>3</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>25266287</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E81" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G81" s="2">
+        <v>59</v>
+      </c>
+      <c r="H81" s="2">
+        <v>12</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>24936600</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E82" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G82" s="2">
+        <v>58</v>
+      </c>
+      <c r="H82" s="2">
+        <v>9</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>24795201</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E83" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G83" s="2">
+        <v>370</v>
+      </c>
+      <c r="H83" s="2">
+        <v>21</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>24448487</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E84" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G84" s="2">
+        <v>19</v>
+      </c>
+      <c r="H84" s="2">
+        <v>5</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>24444658</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E85" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G85" s="2">
+        <v>60</v>
+      </c>
+      <c r="H85" s="2">
+        <v>3</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>24154738</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E86" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G86" s="2">
+        <v>209</v>
+      </c>
+      <c r="H86" s="2">
+        <v>5</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
         <v>24127258</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E64" s="2">
+      <c r="B87" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E87" s="2">
         <v>2013</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="G64" s="2">
+      <c r="F87" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G87" s="2">
         <v>8</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H87" s="2">
         <v>12</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>338</v>
+      <c r="I87" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>23384816</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E88" s="2">
+        <v>2013</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G88" s="2">
+        <v>57</v>
+      </c>
+      <c r="H88" s="2">
+        <v>1</v>
+      </c>
+      <c r="I88" s="3">
+        <v>43690</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>23089758</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E89" s="2">
+        <v>2013</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G89" s="2">
+        <v>57</v>
+      </c>
+      <c r="H89" s="2">
+        <v>1</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>22850513</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E90" s="2">
+        <v>2012</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G90" s="2">
+        <v>56</v>
+      </c>
+      <c r="H90" s="2">
+        <v>10</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>22430955</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E91" s="2">
+        <v>2012</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G91" s="2">
+        <v>56</v>
+      </c>
+      <c r="H91" s="2">
+        <v>6</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>22256805</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E92" s="2">
+        <v>2012</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G92" s="2">
+        <v>366</v>
+      </c>
+      <c r="H92" s="2">
+        <v>3</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>22234905</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E93" s="2">
+        <v>2012</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G93" s="2">
+        <v>55</v>
+      </c>
+      <c r="H93" s="2">
+        <v>6</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>22214777</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E94" s="2">
+        <v>2012</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G94" s="2">
+        <v>56</v>
+      </c>
+      <c r="H94" s="2">
+        <v>3</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>22203595</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E95" s="2">
+        <v>2012</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G95" s="2">
+        <v>56</v>
+      </c>
+      <c r="H95" s="2">
+        <v>3</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>21809362</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E96" s="2">
+        <v>2011</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G96" s="2">
+        <v>54</v>
+      </c>
+      <c r="H96" s="2">
+        <v>6</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>21593143</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E97" s="2">
+        <v>2011</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G97" s="2">
+        <v>85</v>
+      </c>
+      <c r="H97" s="2">
+        <v>14</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>20585111</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E98" s="2">
+        <v>2010</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G98" s="2">
+        <v>54</v>
+      </c>
+      <c r="H98" s="2">
+        <v>9</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>20410884</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E99" s="2">
+        <v>2010</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="G99" s="2">
+        <v>465</v>
+      </c>
+      <c r="H99" s="2">
+        <v>7294</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>477</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/contributed/publications.xlsx
+++ b/tabular/contributed/publications.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="phdr_publications_1" localSheetId="0">Sheet1!$A$1:$K$99</definedName>
+    <definedName name="phdr_publications" localSheetId="0">Sheet1!$A$1:$K$128</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="648">
   <si>
     <t>id</t>
   </si>
@@ -1484,9 +1484,6 @@
     <t>Luetkemeyer et al.</t>
   </si>
   <si>
-    <t>A. F. Luetkemeyer, C. McDonald, M. Ramgopal, S. Noviello, R. Bhore, P. Ackerman, A. F. Luetkemeyer, C. McDonald, M. Ramgopal, S. Noviello, R. Bhore and P. Ackerman</t>
-  </si>
-  <si>
     <t>1489-96</t>
   </si>
   <si>
@@ -1572,6 +1569,423 @@
   </si>
   <si>
     <t>https://doi.org/10.1002/hep.27726</t>
+  </si>
+  <si>
+    <t>EASL_2016_Abs_LBP503</t>
+  </si>
+  <si>
+    <t>Effect of baseline resistance-associated variatns on SVR with the 3D regimen with and without RBV in Gt1a and Gt1b-infected patients</t>
+  </si>
+  <si>
+    <t>C. Sarrazin, M.S. Sulkowski, P. Krishnan, R. Tripathi, G. Schnell, Y. Xie, D.E. Cohen, R. Trinh, L. Rodrigues-Jr., Y. Luo, N. S. Shulman, T. Pilot-Matias and C. Collins</t>
+  </si>
+  <si>
+    <t>Supplement 2</t>
+  </si>
+  <si>
+    <t>S214</t>
+  </si>
+  <si>
+    <t>https://www.journal-of-hepatology.eu/article/S0168-8278(16)00180-X/pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0168-8278(16)00180-X</t>
+  </si>
+  <si>
+    <t>A. F. Luetkemeyer, C. McDonald, M. Ramgopal, S. Noviello, R. Bhore and P. Ackerman</t>
+  </si>
+  <si>
+    <t>An open-label, randomized, active control trial of 8 versus 12 weeks of elbasvir/grazoprevir for treatment-na√Øve chronic hepatitis C genotype 1b patients with mild fibrosis (EGALITE): Impact of baseline viral loads and NS5A resistance-associated substitution.</t>
+  </si>
+  <si>
+    <t>Huang et al.</t>
+  </si>
+  <si>
+    <t>C. F. Huang, C. H. Hung, P. N. Cheng, M. J. Bair, Y. H. Huang, J. H. Kao, S. J. Hsu, P. L. Lee, J. J. Chen, R. N. Chien, C. Y. Peng, C. Y. Lin, T. Y. Hsieh, C. H. Cheng, C. Y. Dai, J. F. Huang, W. L. Chuang and M. L. Yu</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/infdis/jiz154</t>
+  </si>
+  <si>
+    <t>Characterization of hepatitis C virus resistance to grazoprevir reveals complex patterns of mutations following on-treatment breakthrough that are not observed at relapse.</t>
+  </si>
+  <si>
+    <t>Bonsall et al.</t>
+  </si>
+  <si>
+    <t>D. Bonsall, S. Black, A. Y. Howe, R. Chase, P. Ingravallo, I. Pak, A. Brown, D. A. Smith, R. Bowden and E. Barnes</t>
+  </si>
+  <si>
+    <t>Infect Drug Resist</t>
+  </si>
+  <si>
+    <t>1119-1135</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2147/IDR.S156581</t>
+  </si>
+  <si>
+    <t>Unraveling the structural basis of grazoprevir potency against clinically relevant substitutions in hepatitis C virus NS3/4A protease from genotype 1a.</t>
+  </si>
+  <si>
+    <t>Guo et al.</t>
+  </si>
+  <si>
+    <t>Z. Guo, S. Black, Y. Hu, P. McMonagle, P. Ingravallo, R. Chase, S. Curry and E. Asante-Appiah</t>
+  </si>
+  <si>
+    <t>J. Biol. Chem.</t>
+  </si>
+  <si>
+    <t>6202-6212</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1074/jbc.M116.772996</t>
+  </si>
+  <si>
+    <t>Efficacy and safety of grazoprevir + ribavirin for 12 or 24 weeks in treatment-na√Øve patients with hepatitis C virus genotype 1 infection.</t>
+  </si>
+  <si>
+    <t>E. Gane, Z. Ben Ari, L. Mollison, E. Zuckerman, R. Bruck, Y. Baruch, A. Y. Howe, J. Wahl, S. Bhanja, P. Hwang, Y. Zhao and M. N. Robertson</t>
+  </si>
+  <si>
+    <t>789-97</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/jvh.12552</t>
+  </si>
+  <si>
+    <t>Virologic resistance analysis from a phase 2 study of MK-5172 combined with pegylated interferon/ribavirin in treatment-naive patients with hepatitis C virus genotype 1 infection.</t>
+  </si>
+  <si>
+    <t>Howe et al.</t>
+  </si>
+  <si>
+    <t>A. Y. Howe, S. Black, S. Curry, S. W. Ludmerer, R. Liu, R. J. Barnard, W. Newhard, P. M. Hwang, D. Nickle, C. Gilbert, L. Caro, M. J. DiNubile and N. Mobashery</t>
+  </si>
+  <si>
+    <t>1657-65</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/cid/ciu696</t>
+  </si>
+  <si>
+    <t>Evolutionary Pathways to Persistence of Highly Fit and Resistant Hepatitis C Virus Protease Inhibitor Escape Variants.</t>
+  </si>
+  <si>
+    <t>Jensen et al.</t>
+  </si>
+  <si>
+    <t>S. B. Jensen, U. Fahn√∏e, L. V. Pham, S. B. N. Serre, Q. Tang, L. Ghanem, M. S. Pedersen, S. Ramirez, D. Humes, A. F. Pihl, J. Filskov, C. S. S√∏lund, J. Dietz, S. Fourati, J. M. Pawlotsky, C. Sarrazin, N. Weis, K. Sch√∏nning, H. Krarup, J. Bukh and J. M. Gottwein</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/hep.30647</t>
+  </si>
+  <si>
+    <t>Hepatitis C Genotype 4 Virus Nonstructural 3 and Nonstructural 5A Resistance-associated Substitutions in a 16-year-old Adolescent Failing Ombitasvir/Paritaprevir/Ritonavir Plus Ribavirin.</t>
+  </si>
+  <si>
+    <t>Serranti et al.</t>
+  </si>
+  <si>
+    <t>D. Serranti, G. Indolfi, C. Caudai, E. Bartolini, S. Trapani, M. Zazzi and M. Resti</t>
+  </si>
+  <si>
+    <t>Pediatr. Infect. Dis. J.</t>
+  </si>
+  <si>
+    <t>e72-e74</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1097/INF.0000000000002137</t>
+  </si>
+  <si>
+    <t>Impact of Preexisting Hepatitis C Virus Genotype 6 NS3, NS5A, and NS5B Polymorphisms on the</t>
+  </si>
+  <si>
+    <t>F. McPhee, J. Ueland, V. Vellucci, S. Bowden, W. Sievert and N. Zhou</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AAC.02205-18</t>
+  </si>
+  <si>
+    <t>Efficacy and safety of ombitasvir/paritaprevir/ritonavir and ribavirin for chronic hepatitis patients infected with genotype 2a in Japan.</t>
+  </si>
+  <si>
+    <t>Atsukawa et al.</t>
+  </si>
+  <si>
+    <t>M. Atsukawa, A. Tsubota, H. Toyoda, K. Takaguchi, M. Nakamuta, T. Watanabe, T. Tada, A. Tsutsui, H. Ikeda, H. Abe, K. Kato, H. Uojima, T. Ikegami, T. Asano, C. Kondo, M. Koeda, T. Okubo, T. Arai, A. Iwashita-Nakagawa, N. Itokawa, T. Kumada and K. Iwakiri</t>
+  </si>
+  <si>
+    <t>369-376</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/hepr.13292</t>
+  </si>
+  <si>
+    <t>HCV genotype 1-6 NS3 residue 80 substitutions impact protease inhibitor activity and promote viral escape.</t>
+  </si>
+  <si>
+    <t>L. V. Pham, S. B. Jensen, U. Fahn√∏e, M. S. Pedersen, Q. Tang, L. Ghanem, S. Ramirez, D. Humes, S. B. N. Serre, K. Sch√∏nning, J. Bukh and J. M. Gottwein</t>
+  </si>
+  <si>
+    <t>388-397</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jhep.2018.10.031</t>
+  </si>
+  <si>
+    <t>Real-life 3D therapy failure: Analysis of NS5A 93H RAS plus 108 K polymorphism in complex with ombitasvir by molecular modeling.</t>
+  </si>
+  <si>
+    <t>Marascio et al.</t>
+  </si>
+  <si>
+    <t>N. Marascio, G. Pavia, I. Romeo, C. Talarico, S. Di Salvo, M. Reale, V. Marano, G. S. Barreca, F. Fabiani, N. Perrotti, M. De Siena, F. Giancotti, T. Gravina, S. Alcaro, A. Artese, C. Torti, M. C. Liberto and A. Foc√†</t>
+  </si>
+  <si>
+    <t>J. Med. Virol.</t>
+  </si>
+  <si>
+    <t>1257-1263</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jmv.25073</t>
+  </si>
+  <si>
+    <t>Ombitasvir, paritaprevir, and ritonavir plus dasabuvir for 8 weeks in previously untreated patients with hepatitis C virus genotype 1b infection without cirrhosis (GARNET): a single-arm, open-label, phase 3b trial.</t>
+  </si>
+  <si>
+    <t>Welzel et al.</t>
+  </si>
+  <si>
+    <t>T. M. Welzel, T. Asselah, E. O. Dumas, S. Zeuzem, D. Shaw, R. Hazzan, X. Forns, T. Pilot-Matias, W. Lu, D. E. Cohen and J. J. Feld</t>
+  </si>
+  <si>
+    <t>494-500</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S2468-1253(17)30071-7</t>
+  </si>
+  <si>
+    <t>Ombitasvir, paritaprevir, and ritonavir plus ribavirin in adults with hepatitis C virus genotype 4 infection and cirrhosis (AGATE-I): a multicentre, phase 3, randomised open-label trial.</t>
+  </si>
+  <si>
+    <t>T. Asselah, C. H√©zode, R. B. Qaqish, M. ElKhashab, T. Hassanein, G. Papatheodoridis, J. J. Feld, C. Moreno, S. Zeuzem, P. Ferenci, Y. Yu, R. Redman, T. Pilot-Matias and N. Mobashery</t>
+  </si>
+  <si>
+    <t>25-35</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S2468-1253(16)30001-2</t>
+  </si>
+  <si>
+    <t>HCV Resistance Profile Evolution in a GT1b, DAA-Naive Patient Before, On, and After Failing Triple DAA Therapy.</t>
+  </si>
+  <si>
+    <t>Knops et al.</t>
+  </si>
+  <si>
+    <t>E. Knops, N. Sch√ºbel, E. Heger, M. Neumann-Fraune, R. Kaiser, S. Inden, P. Kalaghatgi and S. Sierra</t>
+  </si>
+  <si>
+    <t>Clin. Gastroenterol. Hepatol.</t>
+  </si>
+  <si>
+    <t>307-309</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.cgh.2016.09.139</t>
+  </si>
+  <si>
+    <t>Hepatitis C Virus Genotype 1 to 6 Protease Inhibitor Escape Variants: In Vitro Selection, Fitness, and Resistance Patterns in the Context of the Infectious Viral Life Cycle.</t>
+  </si>
+  <si>
+    <t>Serre et al.</t>
+  </si>
+  <si>
+    <t>S. B. Serre, S. B. Jensen, L. Ghanem, D. G. Humes, S. Ramirez, Y. P. Li, H. Krarup, J. Bukh and J. M. Gottwein</t>
+  </si>
+  <si>
+    <t>3563-78</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AAC.02929-15</t>
+  </si>
+  <si>
+    <t>Analysis of Hepatitis C Virus Genotype 1b Resistance Variants in Japanese Patients Treated with Paritaprevir-Ritonavir and Ombitasvir.</t>
+  </si>
+  <si>
+    <t>P. Krishnan, G. Schnell, R. Tripathi, J. Beyer, T. Reisch, X. Zhang, C. Setze, L. Rodrigues, M. Burroughs, R. Redman, K. Chayama, H. Kumada, C. Collins and T. Pilot-Matias</t>
+  </si>
+  <si>
+    <t>1106-13</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AAC.02606-15</t>
+  </si>
+  <si>
+    <t>Substitutions at NS3 Residue 155, 156, or 168 of Hepatitis C Virus Genotypes 2 to 6 Induce Complex Patterns of Protease Inhibitor Resistance.</t>
+  </si>
+  <si>
+    <t>S. B. Jensen, S. B. Serre, D. G. Humes, S. Ramirez, Y. P. Li, J. Bukh and J. M. Gottwein</t>
+  </si>
+  <si>
+    <t>7426-36</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AAC.01953-15</t>
+  </si>
+  <si>
+    <t>Hepatitis C virus genotype 4 resistance and subtype demographic characterization of patients treated with ombitasvir plus paritaprevir/ritonavir.</t>
+  </si>
+  <si>
+    <t>Schnell et al.</t>
+  </si>
+  <si>
+    <t>G. Schnell, R. Tripathi, J. Beyer, T. Reisch, P. Krishnan, L. Lu, T. Dekhtyar, C. Hall, R. A. Vilchez, T. Pilot-Matias and C. Collins</t>
+  </si>
+  <si>
+    <t>6807-15</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AAC.01229-15</t>
+  </si>
+  <si>
+    <t>Efficacy and Safety of Ombitasvir, Paritaprevir, and Ritonavir in an Open-Label Study of Patients With Genotype 1b Chronic Hepatitis C Virus Infection With and Without Cirrhosis.</t>
+  </si>
+  <si>
+    <t>E. Lawitz, M. Makara, U. S. Akarca, P. J. Thuluvath, L. L. Preotescu, P. Varunok, R. M. Morillas, C. Hall, N. Mobashery, R. Redman, T. Pilot-Matias, R. A. Vilchez and C. H√©zode</t>
+  </si>
+  <si>
+    <t>971-80.e1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1053/j.gastro.2015.07.001</t>
+  </si>
+  <si>
+    <t>Resistance analysis of baseline and treatment-emergent variants in hepatitis C virus genotype 1 in the AVIATOR study with paritaprevir-ritonavir, ombitasvir, and dasabuvir.</t>
+  </si>
+  <si>
+    <t>P. Krishnan, R. Tripathi, G. Schnell, T. Reisch, J. Beyer, M. Irvin, W. Xie, L. Larsen, D. Cohen, T. Podsadecki, T. Pilot-Matias and C. Collins</t>
+  </si>
+  <si>
+    <t>5445-54</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AAC.00998-15</t>
+  </si>
+  <si>
+    <t>Ombitasvir, paritaprevir co-dosed with ritonavir, dasabuvir, and ribavirin for hepatitis C in patients co-infected with HIV-1: a randomized trial.</t>
+  </si>
+  <si>
+    <t>M. S. Sulkowski, J. J. Eron, D. Wyles, R. Trinh, J. Lalezari, C. Wang, J. Slim, L. Bhatti, J. Gathe, P. J. Ruane, R. Elion, F. Bredeek, R. Brennan, G. Blick, A. Khatri, K. Gibbons, Y. B. Hu, L. Fredrick, G. Schnell, T. Pilot-Matias, R. Tripathi, B. Da Silva-Tillmann, B. McGovern, A. L. Campbell and T. Podsadecki</t>
+  </si>
+  <si>
+    <t>JAMA</t>
+  </si>
+  <si>
+    <t>1223-31</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1001/jama.2015.1328</t>
+  </si>
+  <si>
+    <t>Randomized trial of interferon- and ribavirin-free ombitasvir/paritaprevir/ritonavir in treatment-experienced hepatitis C virus-infected patients.</t>
+  </si>
+  <si>
+    <t>Chayama et al.</t>
+  </si>
+  <si>
+    <t>K. Chayama, K. Notsumata, M. Kurosaki, K. Sato, L. Rodrigues, C. Setze, P. Badri, T. Pilot-Matias, R. A. Vilchez and H. Kumada</t>
+  </si>
+  <si>
+    <t>1523-32</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/hep.27705</t>
+  </si>
+  <si>
+    <t>In vitro activity and resistance profile of dasabuvir, a nonnucleoside hepatitis C virus polymerase inhibitor.</t>
+  </si>
+  <si>
+    <t>Kati et al.</t>
+  </si>
+  <si>
+    <t>W. Kati, G. Koev, M. Irvin, J. Beyer, Y. Liu, P. Krishnan, T. Reisch, R. Mondal, R. Wagner, A. Molla, C. Maring and C. Collins</t>
+  </si>
+  <si>
+    <t>1505-11</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AAC.04619-14</t>
+  </si>
+  <si>
+    <t>In vitro and in vivo antiviral activity and resistance profile of ombitasvir, an inhibitor of hepatitis C virus NS5A.</t>
+  </si>
+  <si>
+    <t>P. Krishnan, J. Beyer, N. Mistry, G. Koev, T. Reisch, D. DeGoey, W. Kati, A. Campbell, L. Williams, W. Xie, C. Setze, A. Molla, C. Collins and T. Pilot-Matias</t>
+  </si>
+  <si>
+    <t>979-87</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AAC.04226-14</t>
+  </si>
+  <si>
+    <t>In vitro and in vivo antiviral activity and resistance profile of the hepatitis C virus NS3/4A protease inhibitor ABT-450.</t>
+  </si>
+  <si>
+    <t>Pilot-Matias et al.</t>
+  </si>
+  <si>
+    <t>T. Pilot-Matias, R. Tripathi, D. Cohen, I. Gaultier, T. Dekhtyar, L. Lu, T. Reisch, M. Irvin, T. Hopkins, R. Pithawalla, T. Middleton, T. Ng, K. McDaniel, Y. S. Or, R. Menon, D. Kempf, A. Molla and C. Collins</t>
+  </si>
+  <si>
+    <t>988-97</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1128/AAC.04227-14</t>
+  </si>
+  <si>
+    <t>ABT-450/r-ombitasvir and dasabuvir with or without ribavirin for HCV.</t>
+  </si>
+  <si>
+    <t>Ferenci et al.</t>
+  </si>
+  <si>
+    <t>P. Ferenci, D. Bernstein, J. Lalezari, D. Cohen, Y. Luo, C. Cooper, E. Tam, R. T. Marinho, N. Tsai, A. Nyberg, T. D. Box, Z. Younes, P. Enayati, S. Green, Y. Baruch, B. R. Bhandari, F. A. Caruntu, T. Sepe, V. Chulanov, E. Janczewska, G. Rizzardini, J. Gervain, R. Planas, C. Moreno, T. Hassanein, W. Xie, M. King, T. Podsadecki, K. R. Reddy, PEARL-III Study and PEARL-IV Study</t>
+  </si>
+  <si>
+    <t>1983-92</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1056/NEJMoa1402338</t>
+  </si>
+  <si>
+    <t>ABT-450/r-ombitasvir and dasabuvir with ribavirin for hepatitis C with cirrhosis.</t>
+  </si>
+  <si>
+    <t>F. Poordad, C. Hezode, R. Trinh, K. V. Kowdley, S. Zeuzem, K. Agarwal, M. L. Shiffman, H. Wedemeyer, T. Berg, E. M. Yoshida, X. Forns, S. S. Lovell, B. Da Silva-Tillmann, C. A. Collins, A. L. Campbell, T. Podsadecki and B. Bernstein</t>
+  </si>
+  <si>
+    <t>1973-82</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1056/NEJMoa1402869</t>
+  </si>
+  <si>
+    <t>Retreatment of HCV with ABT-450/r-ombitasvir and dasabuvir with ribavirin.</t>
+  </si>
+  <si>
+    <t>S. Zeuzem, I. M. Jacobson, T. Baykal, R. T. Marinho, F. Poordad, M. Bourli√®re, M. S. Sulkowski, H. Wedemeyer, E. Tam, P. Desmond, D. M. Jensen, A. M. Di Bisceglie, P. Varunok, T. Hassanein, J. Xiong, T. Pilot-Matias, B. DaSilva-Tillmann, L. Larsen, T. Podsadecki and B. Bernstein</t>
+  </si>
+  <si>
+    <t>1604-14</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1056/NEJMoa1401561</t>
   </si>
 </sst>
 </file>
@@ -1640,7 +2054,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="phdr_publications_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="phdr_publications" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1906,10 +2320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1918,11 +2332,10 @@
     <col min="2" max="2" width="80.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="80.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="74" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="77.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="48.5" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="2"/>
@@ -2203,305 +2616,308 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>30125371</v>
+      <c r="A9" s="1" t="s">
+        <v>509</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>339</v>
+        <v>510</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>340</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>341</v>
+        <v>511</v>
       </c>
       <c r="E9" s="2">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="G9" s="2">
-        <v>69</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2</v>
+        <v>64</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>512</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>342</v>
+        <v>513</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>514</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>343</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>30107485</v>
+        <v>30125371</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>235</v>
+        <v>339</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>236</v>
+        <v>340</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="E10" s="2">
         <v>2019</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H10" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>483</v>
+        <v>342</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>29599611</v>
+        <v>30107485</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>344</v>
+        <v>235</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>345</v>
+        <v>236</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="E11" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>347</v>
+        <v>192</v>
       </c>
       <c r="G11" s="2">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="H11" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>348</v>
+        <v>482</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>349</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>29504692</v>
+        <v>29599611</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>107</v>
+        <v>344</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>108</v>
+        <v>345</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>109</v>
+        <v>346</v>
       </c>
       <c r="E12" s="2">
         <v>2018</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>110</v>
+        <v>347</v>
       </c>
       <c r="G12" s="2">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="H12" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>484</v>
+        <v>348</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>111</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>29473975</v>
+        <v>29504692</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>238</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>239</v>
+        <v>109</v>
       </c>
       <c r="E13" s="2">
         <v>2018</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="G13" s="2">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H13" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>240</v>
+        <v>483</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>241</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>29461687</v>
+        <v>29473975</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>243</v>
+        <v>104</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E14" s="2">
         <v>2018</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="G14" s="2">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="H14" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>29454794</v>
+        <v>29461687</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>112</v>
+        <v>242</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
+        <v>243</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>324</v>
+        <v>244</v>
       </c>
       <c r="E15" s="2">
         <v>2018</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G15" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="H15" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>29453451</v>
+        <v>29454794</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>116</v>
+        <v>324</v>
       </c>
       <c r="E16" s="2">
         <v>2018</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="G16" s="2">
+        <v>154</v>
+      </c>
+      <c r="H16" s="2">
         <v>8</v>
       </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
-        <v>3199</v>
+      <c r="I16" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>29425404</v>
+        <v>29453451</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>485</v>
+        <v>114</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>486</v>
+        <v>115</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>487</v>
+        <v>116</v>
       </c>
       <c r="E17" s="2">
         <v>2018</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="G17" s="2">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>488</v>
+      <c r="I17" s="2">
+        <v>3199</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>489</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>29425396</v>
+        <v>29425404</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>119</v>
+        <v>484</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>120</v>
+        <v>485</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>121</v>
+        <v>486</v>
       </c>
       <c r="E18" s="2">
         <v>2018</v>
@@ -2509,1002 +2925,1002 @@
       <c r="F18" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="G18" s="2">
+        <v>68</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>487</v>
+      </c>
       <c r="K18" s="2" t="s">
-        <v>122</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>29404477</v>
+        <v>29425396</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E19" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2">
-        <v>6</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>29274866</v>
+        <v>29404477</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E20" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G20" s="2">
-        <v>154</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>29274188</v>
+        <v>29274866</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>490</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>491</v>
+        <v>98</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>492</v>
+        <v>128</v>
       </c>
       <c r="E21" s="2">
         <v>2018</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="G21" s="2">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="H21" s="2">
         <v>5</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>493</v>
+        <v>72</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>494</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>29271114</v>
+        <v>29274188</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>350</v>
+        <v>489</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>340</v>
+        <v>490</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>351</v>
+        <v>491</v>
       </c>
       <c r="E22" s="2">
         <v>2018</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>352</v>
+        <v>139</v>
       </c>
       <c r="G22" s="2">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="H22" s="2">
         <v>5</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>353</v>
+        <v>492</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>354</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>29221887</v>
+        <v>29271114</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>99</v>
+        <v>340</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>129</v>
+        <v>351</v>
       </c>
       <c r="E23" s="2">
         <v>2018</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>68</v>
+        <v>352</v>
       </c>
       <c r="G23" s="2">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="H23" s="2">
         <v>5</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>73</v>
+        <v>353</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>85</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>29152781</v>
+        <v>29221887</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>325</v>
+        <v>129</v>
       </c>
       <c r="E24" s="2">
         <v>2018</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="G24" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H24" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>29146520</v>
+        <v>29152781</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E25" s="2">
         <v>2018</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="2">
         <v>67</v>
-      </c>
-      <c r="G25" s="2">
-        <v>154</v>
       </c>
       <c r="H25" s="2">
         <v>4</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>29091342</v>
+        <v>29146520</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>495</v>
+        <v>130</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>496</v>
+        <v>131</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>497</v>
+        <v>326</v>
       </c>
       <c r="E26" s="2">
         <v>2018</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G26" s="2">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="H26" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>498</v>
+        <v>132</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>499</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>29084747</v>
+        <v>29091342</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>134</v>
+        <v>494</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>101</v>
+        <v>495</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>135</v>
+        <v>496</v>
       </c>
       <c r="E27" s="2">
         <v>2018</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G27" s="2">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="H27" s="2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>87</v>
+        <v>498</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>28984067</v>
+        <v>29084747</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E28" s="2">
         <v>2018</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="G28" s="2">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H28" s="2">
-        <v>2</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>28941023</v>
+        <v>28984067</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>356</v>
+        <v>137</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>357</v>
+        <v>138</v>
       </c>
       <c r="E29" s="2">
         <v>2018</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="G29" s="2">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H29" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>358</v>
+        <v>140</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>359</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>28789880</v>
+        <v>28941023</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>500</v>
+        <v>355</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>501</v>
+        <v>356</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>502</v>
+        <v>357</v>
       </c>
       <c r="E30" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G30" s="2">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="H30" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>503</v>
+        <v>358</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>504</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>28783119</v>
+        <v>28789880</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>142</v>
+        <v>499</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>143</v>
+        <v>500</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>144</v>
+        <v>501</v>
       </c>
       <c r="E31" s="2">
         <v>2017</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="G31" s="2">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="H31" s="2">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>146</v>
+        <v>503</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>28595606</v>
+        <v>28783119</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>327</v>
+        <v>144</v>
       </c>
       <c r="E32" s="2">
         <v>2017</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G32" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H32" s="2">
-        <v>1</v>
-      </c>
-      <c r="I32" s="2">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>28576451</v>
+        <v>28595606</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>247</v>
+        <v>147</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>248</v>
+        <v>148</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E33" s="2">
         <v>2017</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="G33" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H33" s="2">
-        <v>8</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>250</v>
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
+        <v>106</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>251</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>28564569</v>
+        <v>28576451</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>247</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>328</v>
+        <v>248</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E34" s="2">
         <v>2017</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="G34" s="2">
-        <v>376</v>
+        <v>2</v>
       </c>
       <c r="H34" s="2">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>28498551</v>
+        <v>28564569</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>102</v>
+        <v>328</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>151</v>
+        <v>329</v>
       </c>
       <c r="E35" s="2">
         <v>2017</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="G35" s="2">
-        <v>66</v>
+        <v>376</v>
       </c>
       <c r="H35" s="2">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>28470815</v>
+        <v>28498551</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>337</v>
+        <v>62</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>252</v>
+        <v>151</v>
       </c>
       <c r="E36" s="2">
         <v>2017</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="G36" s="2">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="H36" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>254</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>28416549</v>
+        <v>28470815</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>255</v>
+        <v>337</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>256</v>
+        <v>102</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E37" s="2">
         <v>2017</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="G37" s="2">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="H37" s="2">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>28412293</v>
+        <v>28416549</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>103</v>
+        <v>256</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="E38" s="2">
         <v>2017</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G38" s="2">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H38" s="2">
-        <v>2</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>90</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>28369411</v>
+        <v>28412293</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>360</v>
+        <v>61</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>361</v>
+        <v>103</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>362</v>
+        <v>152</v>
       </c>
       <c r="E39" s="2">
         <v>2017</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="G39" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H39" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>363</v>
+        <v>77</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>364</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>28332272</v>
+        <v>28369411</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>153</v>
+        <v>360</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>154</v>
+        <v>361</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>155</v>
+        <v>362</v>
       </c>
       <c r="E40" s="2">
         <v>2017</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="G40" s="2">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H40" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>156</v>
+        <v>363</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>157</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>28193664</v>
+        <v>28332272</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E41" s="2">
         <v>2017</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="G41" s="2">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H41" s="2">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>28193518</v>
+        <v>28193664</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>259</v>
+        <v>158</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>260</v>
+        <v>101</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>338</v>
+        <v>159</v>
       </c>
       <c r="E42" s="2">
         <v>2017</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G42" s="2">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="H42" s="2">
-        <v>6</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>261</v>
+        <v>5</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>262</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>28128852</v>
+        <v>28193518</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>60</v>
+        <v>259</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>160</v>
+        <v>338</v>
       </c>
       <c r="E43" s="2">
         <v>2017</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G43" s="2">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="H43" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>92</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>28105744</v>
+        <v>28128852</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="E44" s="2">
         <v>2017</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="G44" s="2">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="H44" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>28078469</v>
+        <v>28105744</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>365</v>
+        <v>161</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>366</v>
+        <v>162</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="E45" s="2">
         <v>2017</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>266</v>
+        <v>71</v>
       </c>
       <c r="G45" s="2">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H45" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>368</v>
+        <v>163</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>369</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>27923693</v>
+        <v>28078469</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>165</v>
+        <v>365</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>166</v>
+        <v>366</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="E46" s="2">
         <v>2017</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c r="G46" s="2">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H46" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>168</v>
+        <v>368</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>169</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>27873094</v>
+        <v>27923693</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>264</v>
+        <v>166</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>265</v>
+        <v>167</v>
       </c>
       <c r="E47" s="2">
         <v>2017</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>266</v>
+        <v>68</v>
       </c>
       <c r="G47" s="2">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H47" s="2">
         <v>4</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>267</v>
+        <v>168</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>268</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>27537841</v>
+        <v>27873094</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E48" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G48" s="2">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="H48" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>27773808</v>
+        <v>27537841</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E49" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="G49" s="2">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="H49" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>27720838</v>
+        <v>27773808</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>103</v>
+        <v>276</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E50" s="2">
         <v>2017</v>
@@ -3516,507 +3932,507 @@
         <v>152</v>
       </c>
       <c r="H50" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>27605597</v>
+        <v>27720838</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>371</v>
+        <v>103</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>372</v>
+        <v>281</v>
       </c>
       <c r="E51" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>373</v>
+        <v>67</v>
       </c>
       <c r="G51" s="2">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="H51" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>374</v>
+        <v>282</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>375</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>27597318</v>
+        <v>27605597</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>115</v>
+        <v>371</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E52" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G52" s="2">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="H52" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>27453546</v>
+        <v>27597318</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>170</v>
+        <v>376</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>172</v>
+        <v>377</v>
       </c>
       <c r="E53" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>67</v>
+        <v>378</v>
       </c>
       <c r="G53" s="2">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="H53" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>173</v>
+        <v>379</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>174</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>27353271</v>
+        <v>27453546</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E54" s="2">
         <v>2016</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G54" s="2">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="H54" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>27351341</v>
+        <v>27353271</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>177</v>
+        <v>41</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E55" s="2">
         <v>2016</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="G55" s="2">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H55" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>27236547</v>
+        <v>27351341</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>381</v>
+        <v>176</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>382</v>
+        <v>178</v>
       </c>
       <c r="E56" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>266</v>
+        <v>39</v>
       </c>
       <c r="G56" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H56" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>383</v>
+        <v>179</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>384</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>27025835</v>
+        <v>27236547</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>478</v>
+        <v>381</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>479</v>
+        <v>154</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>480</v>
+        <v>382</v>
       </c>
       <c r="E57" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>192</v>
+        <v>266</v>
       </c>
       <c r="G57" s="2">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H57" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>481</v>
+        <v>383</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>482</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>27009831</v>
+        <v>27025835</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>385</v>
+        <v>478</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>386</v>
+        <v>479</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>387</v>
+        <v>516</v>
       </c>
       <c r="E58" s="2">
         <v>2016</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="G58" s="2">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="H58" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>388</v>
+        <v>480</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>389</v>
+        <v>481</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>27003037</v>
+        <v>27009831</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E59" s="2">
         <v>2016</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>378</v>
+        <v>71</v>
       </c>
       <c r="G59" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H59" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>26926625</v>
+        <v>27003037</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>284</v>
+        <v>390</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>286</v>
+        <v>391</v>
       </c>
       <c r="E60" s="2">
         <v>2016</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>69</v>
+        <v>378</v>
       </c>
       <c r="G60" s="2">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="H60" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>287</v>
+        <v>392</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>288</v>
+        <v>393</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>26878268</v>
+        <v>26926625</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>394</v>
+        <v>284</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>395</v>
+        <v>285</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>396</v>
+        <v>286</v>
       </c>
       <c r="E61" s="2">
         <v>2016</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="G61" s="2">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H61" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>397</v>
+        <v>287</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>398</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>26822022</v>
+        <v>26878268</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E62" s="2">
         <v>2016</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="G62" s="2">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="H62" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>26778412</v>
+        <v>26822022</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>58</v>
+        <v>399</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>181</v>
+        <v>401</v>
       </c>
       <c r="E63" s="2">
         <v>2016</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="G63" s="2">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="H63" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>80</v>
+        <v>402</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>94</v>
+        <v>403</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>26603202</v>
+        <v>26778412</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E64" s="2">
         <v>2016</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="G64" s="2">
-        <v>213</v>
+        <v>36</v>
       </c>
       <c r="H64" s="2">
         <v>8</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>187</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>26575258</v>
+        <v>26603202</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>331</v>
+        <v>184</v>
       </c>
       <c r="E65" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="G65" s="2">
-        <v>373</v>
+        <v>213</v>
       </c>
       <c r="H65" s="2">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>26569658</v>
+        <v>26575258</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>188</v>
+        <v>331</v>
       </c>
       <c r="E66" s="2">
         <v>2015</v>
@@ -4031,216 +4447,216 @@
         <v>27</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>26521268</v>
+        <v>26569658</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>189</v>
+        <v>56</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E67" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>192</v>
+        <v>70</v>
       </c>
       <c r="G67" s="2">
-        <v>62</v>
+        <v>373</v>
       </c>
       <c r="H67" s="2">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>194</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>26453968</v>
+        <v>26521268</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>404</v>
+        <v>189</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>405</v>
+        <v>191</v>
       </c>
       <c r="E68" s="2">
         <v>2016</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="G68" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H68" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>406</v>
+        <v>193</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>407</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>26423374</v>
+        <v>26453968</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>289</v>
+        <v>404</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>291</v>
+        <v>405</v>
       </c>
       <c r="E69" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>292</v>
+        <v>68</v>
       </c>
       <c r="G69" s="2">
+        <v>64</v>
+      </c>
+      <c r="H69" s="2">
         <v>2</v>
       </c>
-      <c r="H69" s="2">
-        <v>8</v>
-      </c>
       <c r="I69" s="2" t="s">
-        <v>293</v>
+        <v>406</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>294</v>
+        <v>407</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>26371152</v>
+        <v>26423374</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E70" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>192</v>
+        <v>292</v>
       </c>
       <c r="G70" s="2">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="H70" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>26303801</v>
+        <v>26371152</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E71" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="G71" s="2">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H71" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>26196665</v>
+        <v>26303801</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>195</v>
+        <v>300</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>196</v>
+        <v>301</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="E72" s="2">
         <v>2015</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G72" s="2">
-        <v>373</v>
+        <v>59</v>
       </c>
       <c r="H72" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>197</v>
+        <v>303</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>198</v>
+        <v>304</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>26196502</v>
+        <v>26196665</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>200</v>
+        <v>332</v>
       </c>
       <c r="E73" s="2">
         <v>2015</v>
@@ -4255,184 +4671,184 @@
         <v>8</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>26170396</v>
+        <v>26196502</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>408</v>
+        <v>199</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>371</v>
+        <v>166</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>409</v>
+        <v>200</v>
       </c>
       <c r="E74" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="G74" s="2">
-        <v>213</v>
+        <v>373</v>
       </c>
       <c r="H74" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>410</v>
+        <v>201</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>411</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>25847509</v>
+        <v>26170396</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>203</v>
+        <v>408</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>204</v>
+        <v>371</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>205</v>
+        <v>409</v>
       </c>
       <c r="E75" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="G75" s="2">
-        <v>62</v>
+        <v>213</v>
       </c>
       <c r="H75" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>206</v>
+        <v>410</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>207</v>
+        <v>411</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>25659285</v>
+        <v>25847509</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E76" s="2">
         <v>2015</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="G76" s="2">
-        <v>385</v>
+        <v>62</v>
       </c>
       <c r="H76" s="2">
-        <v>9973</v>
+        <v>1</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>25614962</v>
+        <v>25659285</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>505</v>
+        <v>208</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>506</v>
+        <v>209</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>507</v>
+        <v>210</v>
       </c>
       <c r="E77" s="2">
         <v>2015</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="G77" s="2">
-        <v>61</v>
+        <v>385</v>
       </c>
       <c r="H77" s="2">
-        <v>4</v>
+        <v>9973</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>508</v>
+        <v>212</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>509</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>25467591</v>
+        <v>25614962</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>305</v>
+        <v>504</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>41</v>
+        <v>505</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>306</v>
+        <v>506</v>
       </c>
       <c r="E78" s="2">
         <v>2015</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="G78" s="2">
-        <v>385</v>
+        <v>61</v>
       </c>
       <c r="H78" s="2">
-        <v>9973</v>
+        <v>4</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>307</v>
+        <v>507</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>308</v>
+        <v>508</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>25467560</v>
+        <v>25467591</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>310</v>
+        <v>41</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E79" s="2">
         <v>2015</v>
@@ -4447,318 +4863,318 @@
         <v>9973</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>25322962</v>
+        <v>25467560</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>214</v>
+        <v>309</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>41</v>
+        <v>310</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>215</v>
+        <v>311</v>
       </c>
       <c r="E80" s="2">
         <v>2015</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="G80" s="2">
-        <v>61</v>
+        <v>385</v>
       </c>
       <c r="H80" s="2">
-        <v>3</v>
+        <v>9973</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>217</v>
+        <v>313</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>25266287</v>
+        <v>25322962</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E81" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="G81" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H81" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>24936600</v>
+        <v>25266287</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>412</v>
+        <v>218</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>413</v>
+        <v>219</v>
       </c>
       <c r="E82" s="2">
         <v>2014</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="G82" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H82" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>414</v>
+        <v>220</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>415</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>24795201</v>
+        <v>24936600</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>222</v>
+        <v>412</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>333</v>
+        <v>413</v>
       </c>
       <c r="E83" s="2">
         <v>2014</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G83" s="2">
-        <v>370</v>
+        <v>58</v>
       </c>
       <c r="H83" s="2">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>224</v>
+        <v>414</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>225</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>24448487</v>
+        <v>24795201</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>416</v>
+        <v>222</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>417</v>
+        <v>223</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>418</v>
+        <v>333</v>
       </c>
       <c r="E84" s="2">
         <v>2014</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>419</v>
+        <v>70</v>
       </c>
       <c r="G84" s="2">
-        <v>19</v>
+        <v>370</v>
       </c>
       <c r="H84" s="2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>420</v>
+        <v>224</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>421</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>24444658</v>
+        <v>24448487</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E85" s="2">
         <v>2014</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>68</v>
+        <v>419</v>
       </c>
       <c r="G85" s="2">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="H85" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>24154738</v>
+        <v>24444658</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>226</v>
+        <v>422</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>227</v>
+        <v>423</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>334</v>
+        <v>424</v>
       </c>
       <c r="E86" s="2">
         <v>2014</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="G86" s="2">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="H86" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>228</v>
+        <v>425</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>229</v>
+        <v>426</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>24127258</v>
+        <v>24154738</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>314</v>
+        <v>226</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>315</v>
+        <v>227</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="E87" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c r="G87" s="2">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="H87" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>318</v>
+        <v>228</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>319</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>23384816</v>
+        <v>24127258</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>427</v>
+        <v>314</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>428</v>
+        <v>315</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>429</v>
+        <v>316</v>
       </c>
       <c r="E88" s="2">
         <v>2013</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>430</v>
+        <v>317</v>
       </c>
       <c r="G88" s="2">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="H88" s="2">
-        <v>1</v>
-      </c>
-      <c r="I88" s="3">
-        <v>43690</v>
+        <v>12</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>431</v>
+        <v>319</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>23089758</v>
+        <v>23384816</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>115</v>
+        <v>428</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E89" s="2">
         <v>2013</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>69</v>
+        <v>430</v>
       </c>
       <c r="G89" s="2">
         <v>57</v>
@@ -4766,57 +5182,57 @@
       <c r="H89" s="2">
         <v>1</v>
       </c>
-      <c r="I89" s="2" t="s">
-        <v>434</v>
+      <c r="I89" s="3">
+        <v>43690</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>22850513</v>
+        <v>23089758</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>437</v>
+        <v>115</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E90" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G90" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H90" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>22430955</v>
+        <v>22850513</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>230</v>
+        <v>436</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>231</v>
+        <v>437</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>232</v>
+        <v>438</v>
       </c>
       <c r="E91" s="2">
         <v>2012</v>
@@ -4828,123 +5244,123 @@
         <v>56</v>
       </c>
       <c r="H91" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>233</v>
+        <v>439</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>234</v>
+        <v>440</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>22256805</v>
+        <v>22430955</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>441</v>
+        <v>230</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>423</v>
+        <v>231</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>442</v>
+        <v>232</v>
       </c>
       <c r="E92" s="2">
         <v>2012</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G92" s="2">
-        <v>366</v>
+        <v>56</v>
       </c>
       <c r="H92" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>443</v>
+        <v>233</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>444</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>22234905</v>
+        <v>22256805</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E93" s="2">
         <v>2012</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="G93" s="2">
-        <v>55</v>
+        <v>366</v>
       </c>
       <c r="H93" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>22214777</v>
+        <v>22234905</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>115</v>
+        <v>446</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E94" s="2">
         <v>2012</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G94" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H94" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>22203595</v>
+        <v>22214777</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E95" s="2">
         <v>2012</v>
@@ -4959,138 +5375,1042 @@
         <v>3</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>21809362</v>
+        <v>22203595</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>459</v>
+        <v>115</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E96" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="G96" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H96" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>21593143</v>
+        <v>21809362</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>459</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E97" s="2">
         <v>2011</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>465</v>
+        <v>39</v>
       </c>
       <c r="G97" s="2">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="H97" s="2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>20585111</v>
+        <v>21593143</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>459</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E98" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>69</v>
+        <v>465</v>
       </c>
       <c r="G98" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H98" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>20410884</v>
+        <v>20585111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E99" s="2">
         <v>2010</v>
       </c>
       <c r="F99" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G99" s="2">
+        <v>54</v>
+      </c>
+      <c r="H99" s="2">
+        <v>9</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>20410884</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E100" s="2">
+        <v>2010</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G100" s="2">
         <v>465</v>
       </c>
-      <c r="H99" s="2">
+      <c r="H100" s="2">
         <v>7294</v>
       </c>
-      <c r="I99" s="2" t="s">
+      <c r="I100" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="K99" s="2" t="s">
+      <c r="K100" s="2" t="s">
         <v>477</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>30957170</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E101" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>30127629</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E102" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="G102" s="2">
+        <v>11</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>28228479</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E103" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="G103" s="2">
+        <v>292</v>
+      </c>
+      <c r="H103" s="2">
+        <v>15</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>27291249</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E104" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G104" s="2">
+        <v>23</v>
+      </c>
+      <c r="H104" s="2">
+        <v>10</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>25266289</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E105" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G105" s="2">
+        <v>59</v>
+      </c>
+      <c r="H105" s="2">
+        <v>12</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>30964552</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E106" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>30882744</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E107" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="G107" s="2">
+        <v>38</v>
+      </c>
+      <c r="H107" s="2">
+        <v>4</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>30718256</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E108" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G108" s="2">
+        <v>63</v>
+      </c>
+      <c r="H108" s="2">
+        <v>4</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>30485638</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E109" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G109" s="2">
+        <v>49</v>
+      </c>
+      <c r="H109" s="2">
+        <v>4</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>30395912</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E110" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G110" s="2">
+        <v>70</v>
+      </c>
+      <c r="H110" s="2">
+        <v>3</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>29575060</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E111" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G111" s="2">
+        <v>90</v>
+      </c>
+      <c r="H111" s="2">
+        <v>7</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>28416221</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E112" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G112" s="2">
+        <v>2</v>
+      </c>
+      <c r="H112" s="2">
+        <v>7</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>28404108</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E113" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G113" s="2">
+        <v>1</v>
+      </c>
+      <c r="H113" s="2">
+        <v>1</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>27670383</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="E114" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="G114" s="2">
+        <v>15</v>
+      </c>
+      <c r="H114" s="2">
+        <v>2</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>27021330</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E115" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G115" s="2">
+        <v>60</v>
+      </c>
+      <c r="H115" s="2">
+        <v>6</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>26643326</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E116" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G116" s="2">
+        <v>60</v>
+      </c>
+      <c r="H116" s="2">
+        <v>2</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>26392503</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E117" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G117" s="2">
+        <v>59</v>
+      </c>
+      <c r="H117" s="2">
+        <v>12</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>26282418</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="E118" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G118" s="2">
+        <v>59</v>
+      </c>
+      <c r="H118" s="2">
+        <v>11</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>26170136</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E119" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G119" s="2">
+        <v>149</v>
+      </c>
+      <c r="H119" s="2">
+        <v>4</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>26100711</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="E120" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G120" s="2">
+        <v>59</v>
+      </c>
+      <c r="H120" s="2">
+        <v>9</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>25706092</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E121" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="G121" s="2">
+        <v>313</v>
+      </c>
+      <c r="H121" s="2">
+        <v>12</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>25644279</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E122" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G122" s="2">
+        <v>61</v>
+      </c>
+      <c r="H122" s="2">
+        <v>5</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>25534735</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E123" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G123" s="2">
+        <v>59</v>
+      </c>
+      <c r="H123" s="2">
+        <v>3</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>25451055</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="E124" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G124" s="2">
+        <v>59</v>
+      </c>
+      <c r="H124" s="2">
+        <v>2</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>25451053</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="E125" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G125" s="2">
+        <v>59</v>
+      </c>
+      <c r="H125" s="2">
+        <v>2</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>24795200</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="E126" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G126" s="2">
+        <v>370</v>
+      </c>
+      <c r="H126" s="2">
+        <v>21</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>24725237</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E127" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G127" s="2">
+        <v>370</v>
+      </c>
+      <c r="H127" s="2">
+        <v>21</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>24720679</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="E128" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G128" s="2">
+        <v>370</v>
+      </c>
+      <c r="H128" s="2">
+        <v>17</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/contributed/publications.xlsx
+++ b/tabular/contributed/publications.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9500" yWindow="2600" windowWidth="40260" windowHeight="22460" tabRatio="500"/>
+    <workbookView xWindow="1380" yWindow="1780" windowWidth="46540" windowHeight="22460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="phdr_publications" localSheetId="0">Sheet1!$A$1:$K$128</definedName>
+    <definedName name="phdr_publications_1" localSheetId="0">Sheet1!$A$1:$K$128</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,8 +32,18 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="phdr_publications" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/joshsinger/gitrepos_ssh/PHE-HCV-DRUG-RESISTANCE/tabular/formatted/phdr_publications.txt">
-      <textFields>
+    <textPr codePage="65001" sourceFile="/Users/joshsinger/gitrepos_ssh/PHE-HCV-DRUG-RESISTANCE/tabular/formatted/phdr_publications.txt">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
         <textField/>
       </textFields>
     </textPr>
@@ -42,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="649">
   <si>
     <t>id</t>
   </si>
@@ -1004,81 +1014,18 @@
     <t>https://doi.org/10.1002/cmdc.201300343</t>
   </si>
   <si>
-    <t>Pooled resistance analysis in HCV genotype 1‚Äì6-infected patients treated with glecaprevir/pibrentasvir in phase 2 and 3 clinical trials</t>
-  </si>
-  <si>
-    <t>C. Sarrazin, C.L. Cooper, M.P. Manns, R.K. Reddy, K. Kowdley, H. Dvory-Sobol, E. Svarovskia, R. Martin, B.P. Doehle, G. Camus, L.M. Stamm, R.H. Hyland, D.M. Brainard, H. Mo, S.C. Gordon, M. BourlieÃÄre, S. Zeuzem and S.L. Flamm</t>
-  </si>
-  <si>
-    <t>No impact of RASs on the high efficacy of SOF/VEL/VOX for 8 weeks in DAA-na√Øve patients: an integrated resistance analysis of the POLARIS-2 and POLARIS-3 studies</t>
-  </si>
-  <si>
-    <t>H. Dvory-Sobol, B. Han, J. Lu, B. Parhy, D. Hsieh, E. Zhou, M. Bourli√®re, I. Jacobson, L. M. Stamm, G. Camus, R. Martin, E. S. Svarovskaia and H. Mo</t>
-  </si>
-  <si>
-    <t>L. V. Pham, S. Ramirez, J. M. Gottwein, U. Fahn√∏e, Y. P. Li, J. Pedersen and J. Bukh</t>
-  </si>
-  <si>
-    <t>F. Poordad, S. Pol, A. Asatryan, M. Buti, D. Shaw, C. H√©zode, F. Felizarta, R. W. Reindollar, S. C. Gordon, S. Pianko, M. W. Fried, D. E. Bernstein, J. Gallant, C. W. Lin, Y. Lei, T. I. Ng, P. Krishnan, S. Kopecky-Bromberg, J. Kort and F. J. Mensa</t>
-  </si>
-  <si>
-    <t>J. Dietz, S. Susser, J. Vermehren, K. H. Peiffer, G. Grammatikos, A. Berger, P. Ferenci, M. Buti, B. M√ºllhaupt, B. Hunyady, H. Hinrichsen, S. Mauss, J. Petersen, P. Buggisch, G. Felten, D. H√ºppe, G. Knecht, T. Lutz, E. Schott, C. Berg, U. Spengler, T. von Hahn, T. Berg, S. Zeuzem, C. Sarrazin and European HCV Resistance Study Group</t>
-  </si>
-  <si>
-    <t>A. Walker, S. Filke, N. L√ºbke, M. Obermeier, R. Kaiser, D. H√§ussinger, J. Timm and H. H. Bock</t>
-  </si>
-  <si>
-    <t>Bourli√®re et al.</t>
-  </si>
-  <si>
-    <t>M. Bourli√®re, S. C. Gordon, S. L. Flamm, C. L. Cooper, A. Ramji, M. Tong, N. Ravendhran, J. M. Vierling, T. T. Tran, S. Pianko, M. B. Bansal, V. de L√©dinghen, R. H. Hyland, L. M. Stamm, H. Dvory-Sobol, E. Svarovskaia, J. Zhang, K. C. Huang, G. M. Subramanian, D. M. Brainard, J. G. McHutchison, E. C. Verna, P. Buggisch, C. S. Landis, Z. H. Younes, M. P. Curry, S. I. Strasser, E. R. Schiff, K. R. Reddy, M. P. Manns, K. V. Kowdley, S. Zeuzem and POLARIS-1 and POLARIS-4 Investigators</t>
-  </si>
-  <si>
-    <t>V. C. Di Maio, V. Cento, I. Lenci, M. Aragri, P. Rossi, S. Barbaliscia, M. Melis, G. Verucchi, C. F. Magni, E. Teti, A. Bertoli, F. Antonucci, M. C. Bellocchi, V. Micheli, C. Masetti, S. Landonio, S. Francioso, F. Santopaolo, A. M. Pellicelli, V. Calvaruso, L. Gianserra, M. Siciliano, D. Romagnoli, R. Cozzolongo, A. Grieco, J. Vecchiet, F. Morisco, M. Merli, G. Brancaccio, A. Di Biagio, E. Loggi, C. M. Mastroianni, V. Pace Palitti, P. Tarquini, M. Puoti, G. Taliani, L. Sarmati, A. Picciotto, V. Vullo, N. Caporaso, M. Paoloni, C. Pasquazzi, G. Rizzardini, G. Parruti, A. Crax√¨, S. Babudieri, M. Andreoni, M. Angelico, C. F. Perno, F. Ceccherini-Silberstein and HCV Italian Resistance Network Study Group</t>
-  </si>
-  <si>
-    <t>G. R. Foster, N. Afdhal, S. K. Roberts, N. Br√§u, E. J. Gane, S. Pianko, E. Lawitz, A. Thompson, M. L. Shiffman, C. Cooper, W. J. Towner, B. Conway, P. Ruane, M. Bourli√®re, T. Asselah, T. Berg, S. Zeuzem, W. Rosenberg, K. Agarwal, C. A. Stedman, H. Mo, H. Dvory-Sobol, L. Han, J. Wang, J. McNally, A. Osinusi, D. M. Brainard, J. G. McHutchison, F. Mazzotta, T. T. Tran, S. C. Gordon, K. Patel, N. Reau, A. Mangia, M. Sulkowski, ASTRAL-2  Investigators and ASTRAL-3 Investigators</t>
-  </si>
-  <si>
-    <t>S. Naggie, C. Cooper, M. Saag, K. Workowski, P. Ruane, W. J. Towner, K. Marks, A. Luetkemeyer, R. P. Baden, P. E. Sax, E. Gane, J. Santana-Bagur, L. M. Stamm, J. C. Yang, P. German, H. Dvory-Sobol, L. Ni, P. S. Pang, J. G. McHutchison, C. A. Stedman, J. O. Morales-Ramirez, N. Br√§u, D. Jayaweera, A. E. Colson, P. Tebas, D. K. Wong, D. Dieterich, M. Sulkowski and ION-4 Investigators</t>
-  </si>
-  <si>
-    <t>S. Zeuzem, G. M. Dusheiko, R. Salupere, A. Mangia, R. Flisiak, R. H. Hyland, A. Illeperuma, E. Svarovskaia, D. M. Brainard, W. T. Symonds, G. M. Subramanian, J. G. McHutchison, O. Weiland, H. W. Reesink, P. Ferenci, C. H√©zode, R. Esteban and VALENCE Investigators</t>
-  </si>
-  <si>
-    <t>X. Tong, S. Le Pogam, L. Li, K. Haines, K. Piso, V. Baronas, J. M. Yan, S. S. So, K. Klumpp and I. N√°jera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. L. Braun, B. Hampel, R. Kouyos, H. Nguyen, C. Shah, M. Flepp, M. St√∂ckle, A. Conen, C. B√©guelin, P. K√ºnzler-Heule, D. Nicca, P. Schmid, J. Delaloye, M. Rougemont, E. Bernasconi, A. Rauch, H. F. G√ºnthard, J. B√∂ni, J. S. Fehr and Swiss HIV Cohort Study </t>
-  </si>
-  <si>
-    <t>A. Bruchfeld, D. Roth, P. Martin, D. R. Nelson, S. Pol, M. C. Londo√±o, H. Monsour, M. Silva, P. Hwang, J. M. Arduino, M. Robertson, B. Y. Nguyen, J. Wahl, E. Barr and W. Greaves</t>
-  </si>
-  <si>
-    <t>Efficacy of 12 or 18 weeks of elbasvir plus grazoprevir with ribavirin in treatment-na√Øve, noncirrhotic HCV genotype 3-infected patients.</t>
-  </si>
-  <si>
-    <t>I. M. Jacobson, E. Lawitz, P. Y. Kwo, C. H√©zode, C. Y. Peng, A. Y. M. Howe, P. Hwang, J. Wahl, M. Robertson, E. Barr and B. A. Haber</t>
-  </si>
-  <si>
     <t>Frequent Antiviral Treatment Failures in Patients Infected With Hepatitis C Virus Genotype 4, Subtype 4r.</t>
   </si>
   <si>
     <t>Fourati et al.</t>
   </si>
   <si>
-    <t>S. Fourati, C. Rodriguez, C. H√©zode, A. Soulier, I. Ruiz, L. Poiteau, S. Chevaliez and J. M. Pawlotsky</t>
-  </si>
-  <si>
     <t>513-523</t>
   </si>
   <si>
     <t>https://doi.org/10.1002/hep.30225</t>
   </si>
   <si>
-    <t>Daclatasvir plus asunaprevir in treatment-na√Øve patients with hepatitis C virus genotype 1b infection.</t>
-  </si>
-  <si>
     <t>Wei et al.</t>
   </si>
   <si>
@@ -1097,9 +1044,6 @@
     <t>Viral kinetics analysis and virological characterization of treatment failures in patients with chronic hepatitis C treated with sofosbuvir and an NS5A inhibitor.</t>
   </si>
   <si>
-    <t>S. Fourati, J. Guedj, S. Chevaliez, T. H. T. Nguyen, F. Roudot-Thoraval, I. Ruiz, A. Soulier, G. Scoazec, A. Varaut, L. Poiteau, M. Francois, A. Mallat, C. H√©zode and J. M. Pawlotsky</t>
-  </si>
-  <si>
     <t>Aliment. Pharmacol. Ther.</t>
   </si>
   <si>
@@ -1127,12 +1071,6 @@
     <t>Sofosbuvir-Daclatasvir-Simeprevir Plus Ribavirin in Direct-Acting Antiviral-Experienced Patients With Hepatitis C.</t>
   </si>
   <si>
-    <t>H√©zode et al.</t>
-  </si>
-  <si>
-    <t>C. H√©zode, S. Fourati, S. Chevaliez, G. Scoazec, A. Soulier, A. Varaut, M. Fran√ßois, I. Ruiz, F. Roudot-Thoraval, A. Mallat and J. M. Pawlotsky</t>
-  </si>
-  <si>
     <t>1615-1618</t>
   </si>
   <si>
@@ -1259,9 +1197,6 @@
     <t>Daclatasvir plus simeprevir with or without ribavirin for the treatment of chronic hepatitis C virus genotype 1 infection.</t>
   </si>
   <si>
-    <t>S. Zeuzem, C. H√©zode, J. P. Bronowicki, V. Loustaud-Ratti, F. Gea, M. Buti, A. Olveira, T. Banyai, M. T. Al-Assi, J. Petersen, D. Thabut, A. Gadano, R. Pruitt, M. Makara, M. Bourli√®re, S. Pol, M. Beumont-Mauviel, S. Ouwerkerk-Mahadevan, G. Picchio, M. Bifano, F. McPhee, N. Boparai, K. Cheung, E. A. Hughes, S. Noviello and LEAGUE-1 Study Team</t>
-  </si>
-  <si>
     <t>292-300</t>
   </si>
   <si>
@@ -1316,9 +1251,6 @@
     <t>Lok et al.</t>
   </si>
   <si>
-    <t>A. S. Lok, D. F. Gardiner, C. H√©zode, E. J. Lawitz, M. Bourli√®re, G. T. Everson, P. Marcellin, M. Rodriguez-Torres, S. Pol, L. Serfaty, T. Eley, S. P. Huang, J. Li, M. Wind-Rotolo, F. Yu, F. McPhee, D. M. Grasela and C. Pasquinelli</t>
-  </si>
-  <si>
     <t>490-9</t>
   </si>
   <si>
@@ -1511,9 +1443,6 @@
     <t>https://doi.org/10.1002/hep.29836</t>
   </si>
   <si>
-    <t>The presence of multiple NS5A RASs is associated with the outcome of sofosbuvir and ledipasvir therapy in NS5A inhibitor-na√Øve patients with chronic HCV genotype 1b infection in a real-world cohort.</t>
-  </si>
-  <si>
     <t>Kozuka et al.</t>
   </si>
   <si>
@@ -1526,9 +1455,6 @@
     <t>https://doi.org/10.1111/jvh.12850</t>
   </si>
   <si>
-    <t>Ledipasvir/sofosbuvir for treatment of hepatitis C virus in sofosbuvir-experienced, NS5A treatment-na√Øve patients: Findings from two randomized trials.</t>
-  </si>
-  <si>
     <t>Tam et al.</t>
   </si>
   <si>
@@ -1574,9 +1500,6 @@
     <t>EASL_2016_Abs_LBP503</t>
   </si>
   <si>
-    <t>Effect of baseline resistance-associated variatns on SVR with the 3D regimen with and without RBV in Gt1a and Gt1b-infected patients</t>
-  </si>
-  <si>
     <t>C. Sarrazin, M.S. Sulkowski, P. Krishnan, R. Tripathi, G. Schnell, Y. Xie, D.E. Cohen, R. Trinh, L. Rodrigues-Jr., Y. Luo, N. S. Shulman, T. Pilot-Matias and C. Collins</t>
   </si>
   <si>
@@ -1595,9 +1518,6 @@
     <t>A. F. Luetkemeyer, C. McDonald, M. Ramgopal, S. Noviello, R. Bhore and P. Ackerman</t>
   </si>
   <si>
-    <t>An open-label, randomized, active control trial of 8 versus 12 weeks of elbasvir/grazoprevir for treatment-na√Øve chronic hepatitis C genotype 1b patients with mild fibrosis (EGALITE): Impact of baseline viral loads and NS5A resistance-associated substitution.</t>
-  </si>
-  <si>
     <t>Huang et al.</t>
   </si>
   <si>
@@ -1643,9 +1563,6 @@
     <t>https://doi.org/10.1074/jbc.M116.772996</t>
   </si>
   <si>
-    <t>Efficacy and safety of grazoprevir + ribavirin for 12 or 24 weeks in treatment-na√Øve patients with hepatitis C virus genotype 1 infection.</t>
-  </si>
-  <si>
     <t>E. Gane, Z. Ben Ari, L. Mollison, E. Zuckerman, R. Bruck, Y. Baruch, A. Y. Howe, J. Wahl, S. Bhanja, P. Hwang, Y. Zhao and M. N. Robertson</t>
   </si>
   <si>
@@ -1676,9 +1593,6 @@
     <t>Jensen et al.</t>
   </si>
   <si>
-    <t>S. B. Jensen, U. Fahn√∏e, L. V. Pham, S. B. N. Serre, Q. Tang, L. Ghanem, M. S. Pedersen, S. Ramirez, D. Humes, A. F. Pihl, J. Filskov, C. S. S√∏lund, J. Dietz, S. Fourati, J. M. Pawlotsky, C. Sarrazin, N. Weis, K. Sch√∏nning, H. Krarup, J. Bukh and J. M. Gottwein</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1002/hep.30647</t>
   </si>
   <si>
@@ -1727,9 +1641,6 @@
     <t>HCV genotype 1-6 NS3 residue 80 substitutions impact protease inhibitor activity and promote viral escape.</t>
   </si>
   <si>
-    <t>L. V. Pham, S. B. Jensen, U. Fahn√∏e, M. S. Pedersen, Q. Tang, L. Ghanem, S. Ramirez, D. Humes, S. B. N. Serre, K. Sch√∏nning, J. Bukh and J. M. Gottwein</t>
-  </si>
-  <si>
     <t>388-397</t>
   </si>
   <si>
@@ -1742,9 +1653,6 @@
     <t>Marascio et al.</t>
   </si>
   <si>
-    <t>N. Marascio, G. Pavia, I. Romeo, C. Talarico, S. Di Salvo, M. Reale, V. Marano, G. S. Barreca, F. Fabiani, N. Perrotti, M. De Siena, F. Giancotti, T. Gravina, S. Alcaro, A. Artese, C. Torti, M. C. Liberto and A. Foc√†</t>
-  </si>
-  <si>
     <t>J. Med. Virol.</t>
   </si>
   <si>
@@ -1772,9 +1680,6 @@
     <t>Ombitasvir, paritaprevir, and ritonavir plus ribavirin in adults with hepatitis C virus genotype 4 infection and cirrhosis (AGATE-I): a multicentre, phase 3, randomised open-label trial.</t>
   </si>
   <si>
-    <t>T. Asselah, C. H√©zode, R. B. Qaqish, M. ElKhashab, T. Hassanein, G. Papatheodoridis, J. J. Feld, C. Moreno, S. Zeuzem, P. Ferenci, Y. Yu, R. Redman, T. Pilot-Matias and N. Mobashery</t>
-  </si>
-  <si>
     <t>25-35</t>
   </si>
   <si>
@@ -1787,9 +1692,6 @@
     <t>Knops et al.</t>
   </si>
   <si>
-    <t>E. Knops, N. Sch√ºbel, E. Heger, M. Neumann-Fraune, R. Kaiser, S. Inden, P. Kalaghatgi and S. Sierra</t>
-  </si>
-  <si>
     <t>Clin. Gastroenterol. Hepatol.</t>
   </si>
   <si>
@@ -1856,9 +1758,6 @@
     <t>Efficacy and Safety of Ombitasvir, Paritaprevir, and Ritonavir in an Open-Label Study of Patients With Genotype 1b Chronic Hepatitis C Virus Infection With and Without Cirrhosis.</t>
   </si>
   <si>
-    <t>E. Lawitz, M. Makara, U. S. Akarca, P. J. Thuluvath, L. L. Preotescu, P. Varunok, R. M. Morillas, C. Hall, N. Mobashery, R. Redman, T. Pilot-Matias, R. A. Vilchez and C. H√©zode</t>
-  </si>
-  <si>
     <t>971-80.e1</t>
   </si>
   <si>
@@ -1979,13 +1878,127 @@
     <t>Retreatment of HCV with ABT-450/r-ombitasvir and dasabuvir with ribavirin.</t>
   </si>
   <si>
-    <t>S. Zeuzem, I. M. Jacobson, T. Baykal, R. T. Marinho, F. Poordad, M. Bourli√®re, M. S. Sulkowski, H. Wedemeyer, E. Tam, P. Desmond, D. M. Jensen, A. M. Di Bisceglie, P. Varunok, T. Hassanein, J. Xiong, T. Pilot-Matias, B. DaSilva-Tillmann, L. Larsen, T. Podsadecki and B. Bernstein</t>
-  </si>
-  <si>
     <t>1604-14</t>
   </si>
   <si>
     <t>https://doi.org/10.1056/NEJMoa1401561</t>
+  </si>
+  <si>
+    <t>Pooled resistance analysis in HCV genotype 1–6-infected patients treated with glecaprevir/pibrentasvir in phase 2 and 3 clinical trials</t>
+  </si>
+  <si>
+    <t>No impact of RASs on the high efficacy of SOF/VEL/VOX for 8 weeks in DAA-naïve patients: an integrated resistance analysis of the POLARIS-2 and POLARIS-3 studies</t>
+  </si>
+  <si>
+    <t>Effect of baseline resistance-associated variants on SVR with the 3D regimen with and without RBV in Gt1a and Gt1b-infected patients</t>
+  </si>
+  <si>
+    <t>H. Dvory-Sobol, B. Han, J. Lu, B. Parhy, D. Hsieh, E. Zhou, M. Bourlière, I. Jacobson, L. M. Stamm, G. Camus, R. Martin, E. S. Svarovskaia and H. Mo</t>
+  </si>
+  <si>
+    <t>C. Sarrazin, C.L. Cooper, M.P. Manns, R.K. Reddy, K. Kowdley, H. Dvory-Sobol, E. Svarovskia, R. Martin, B.P. Doehle, G. Camus, L.M. Stamm, R.H. Hyland, D.M. Brainard, H. Mo, S.C. Gordon, M. Bourlière S. Zeuzem and S.L. Flamm</t>
+  </si>
+  <si>
+    <t>1861-1872</t>
+  </si>
+  <si>
+    <t>S. B. Jensen, U. Fahnøe, L. V. Pham, S. B. N. Serre, Q. Tang, L. Ghanem, M. S. Pedersen, S. Ramirez, D. Humes, A. F. Pihl, J. Filskov, C. S. Sølund, J. Dietz, S. Fourati, J. M. Pawlotsky, C. Sarrazin, N. Weis, K. Schønning, H. Krarup, J. Bukh and J. M. Gottwein</t>
+  </si>
+  <si>
+    <t>An open-label, randomized, active control trial of 8 versus 12 weeks of elbasvir/grazoprevir for treatment-naïve chronic hepatitis C genotype 1b patients with mild fibrosis (EGALITE): Impact of baseline viral loads and NS5A resistance-associated substitution.</t>
+  </si>
+  <si>
+    <t>L. V. Pham, S. B. Jensen, U. Fahnøe, M. S. Pedersen, Q. Tang, L. Ghanem, S. Ramirez, D. Humes, S. B. N. Serre, K. Schønning, J. Bukh and J. M. Gottwein</t>
+  </si>
+  <si>
+    <t>S. Fourati, C. Rodriguez, C. Hézode, A. Soulier, I. Ruiz, L. Poiteau, S. Chevaliez and J. M. Pawlotsky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. L. Braun, B. Hampel, R. Kouyos, H. Nguyen, C. Shah, M. Flepp, M. Stöckle, A. Conen, C. Béguelin, P. Künzler-Heule, D. Nicca, P. Schmid, J. Delaloye, M. Rougemont, E. Bernasconi, A. Rauch, H. F. Günthard, J. Böni, J. S. Fehr and Swiss HIV Cohort Study </t>
+  </si>
+  <si>
+    <t>Daclatasvir plus asunaprevir in treatment-naïve patients with hepatitis C virus genotype 1b infection.</t>
+  </si>
+  <si>
+    <t>N. Marascio, G. Pavia, I. Romeo, C. Talarico, S. Di Salvo, M. Reale, V. Marano, G. S. Barreca, F. Fabiani, N. Perrotti, M. De Siena, F. Giancotti, T. Gravina, S. Alcaro, A. Artese, C. Torti, M. C. Liberto and A. Focà</t>
+  </si>
+  <si>
+    <t>L. V. Pham, S. Ramirez, J. M. Gottwein, U. Fahnøe, Y. P. Li, J. Pedersen and J. Bukh</t>
+  </si>
+  <si>
+    <t>The presence of multiple NS5A RASs is associated with the outcome of sofosbuvir and ledipasvir therapy in NS5A inhibitor-naïve patients with chronic HCV genotype 1b infection in a real-world cohort.</t>
+  </si>
+  <si>
+    <t>S. Fourati, J. Guedj, S. Chevaliez, T. H. T. Nguyen, F. Roudot-Thoraval, I. Ruiz, A. Soulier, G. Scoazec, A. Varaut, L. Poiteau, M. Francois, A. Mallat, C. Hézode and J. M. Pawlotsky</t>
+  </si>
+  <si>
+    <t>F. Poordad, S. Pol, A. Asatryan, M. Buti, D. Shaw, C. Hézode, F. Felizarta, R. W. Reindollar, S. C. Gordon, S. Pianko, M. W. Fried, D. E. Bernstein, J. Gallant, C. W. Lin, Y. Lei, T. I. Ng, P. Krishnan, S. Kopecky-Bromberg, J. Kort and F. J. Mensa</t>
+  </si>
+  <si>
+    <t>J. Dietz, S. Susser, J. Vermehren, K. H. Peiffer, G. Grammatikos, A. Berger, P. Ferenci, M. Buti, B. Müllhaupt, B. Hunyady, H. Hinrichsen, S. Mauss, J. Petersen, P. Buggisch, G. Felten, D. Hüppe, G. Knecht, T. Lutz, E. Schott, C. Berg, U. Spengler, T. von Hahn, T. Berg, S. Zeuzem, C. Sarrazin and European HCV Resistance Study Group</t>
+  </si>
+  <si>
+    <t>Ledipasvir/sofosbuvir for treatment of hepatitis C virus in sofosbuvir-experienced, NS5A treatment-naïve patients: Findings from two randomized trials.</t>
+  </si>
+  <si>
+    <t>A. Walker, S. Filke, N. Lübke, M. Obermeier, R. Kaiser, D. Häussinger, J. Timm and H. H. Bock</t>
+  </si>
+  <si>
+    <t>A. Bruchfeld, D. Roth, P. Martin, D. R. Nelson, S. Pol, M. C. Londoño, H. Monsour, M. Silva, P. Hwang, J. M. Arduino, M. Robertson, B. Y. Nguyen, J. Wahl, E. Barr and W. Greaves</t>
+  </si>
+  <si>
+    <t>Bourlière et al.</t>
+  </si>
+  <si>
+    <t>M. Bourlière, S. C. Gordon, S. L. Flamm, C. L. Cooper, A. Ramji, M. Tong, N. Ravendhran, J. M. Vierling, T. T. Tran, S. Pianko, M. B. Bansal, V. de Lédinghen, R. H. Hyland, L. M. Stamm, H. Dvory-Sobol, E. Svarovskaia, J. Zhang, K. C. Huang, G. M. Subramanian, D. M. Brainard, J. G. McHutchison, E. C. Verna, P. Buggisch, C. S. Landis, Z. H. Younes, M. P. Curry, S. I. Strasser, E. R. Schiff, K. R. Reddy, M. P. Manns, K. V. Kowdley, S. Zeuzem and POLARIS-1 and POLARIS-4 Investigators</t>
+  </si>
+  <si>
+    <t>Efficacy of 12 or 18 weeks of elbasvir plus grazoprevir with ribavirin in treatment-naïve, noncirrhotic HCV genotype 3-infected patients.</t>
+  </si>
+  <si>
+    <t>T. Asselah, C. Hézode, R. B. Qaqish, M. ElKhashab, T. Hassanein, G. Papatheodoridis, J. J. Feld, C. Moreno, S. Zeuzem, P. Ferenci, Y. Yu, R. Redman, T. Pilot-Matias and N. Mobashery</t>
+  </si>
+  <si>
+    <t>Hézode et al.</t>
+  </si>
+  <si>
+    <t>C. Hézode, S. Fourati, S. Chevaliez, G. Scoazec, A. Soulier, A. Varaut, M. François, I. Ruiz, F. Roudot-Thoraval, A. Mallat and J. M. Pawlotsky</t>
+  </si>
+  <si>
+    <t>I. M. Jacobson, E. Lawitz, P. Y. Kwo, C. Hézode, C. Y. Peng, A. Y. M. Howe, P. Hwang, J. Wahl, M. Robertson, E. Barr and B. A. Haber</t>
+  </si>
+  <si>
+    <t>V. C. Di Maio, V. Cento, I. Lenci, M. Aragri, P. Rossi, S. Barbaliscia, M. Melis, G. Verucchi, C. F. Magni, E. Teti, A. Bertoli, F. Antonucci, M. C. Bellocchi, V. Micheli, C. Masetti, S. Landonio, S. Francioso, F. Santopaolo, A. M. Pellicelli, V. Calvaruso, L. Gianserra, M. Siciliano, D. Romagnoli, R. Cozzolongo, A. Grieco, J. Vecchiet, F. Morisco, M. Merli, G. Brancaccio, A. Di Biagio, E. Loggi, C. M. Mastroianni, V. Pace Palitti, P. Tarquini, M. Puoti, G. Taliani, L. Sarmati, A. Picciotto, V. Vullo, N. Caporaso, M. Paoloni, C. Pasquazzi, G. Rizzardini, G. Parruti, A. Craxì, S. Babudieri, M. Andreoni, M. Angelico, C. F. Perno, F. Ceccherini-Silberstein and HCV Italian Resistance Network Study Group</t>
+  </si>
+  <si>
+    <t>E. Knops, N. Schübel, E. Heger, M. Neumann-Fraune, R. Kaiser, S. Inden, P. Kalaghatgi and S. Sierra</t>
+  </si>
+  <si>
+    <t>Efficacy and safety of grazoprevir + ribavirin for 12 or 24 weeks in treatment-naïve patients with hepatitis C virus genotype 1 infection.</t>
+  </si>
+  <si>
+    <t>G. R. Foster, N. Afdhal, S. K. Roberts, N. Bräu, E. J. Gane, S. Pianko, E. Lawitz, A. Thompson, M. L. Shiffman, C. Cooper, W. J. Towner, B. Conway, P. Ruane, M. Bourlière, T. Asselah, T. Berg, S. Zeuzem, W. Rosenberg, K. Agarwal, C. A. Stedman, H. Mo, H. Dvory-Sobol, L. Han, J. Wang, J. McNally, A. Osinusi, D. M. Brainard, J. G. McHutchison, F. Mazzotta, T. T. Tran, S. C. Gordon, K. Patel, N. Reau, A. Mangia, M. Sulkowski, ASTRAL-2  Investigators and ASTRAL-3 Investigators</t>
+  </si>
+  <si>
+    <t>S. Zeuzem, C. Hézode, J. P. Bronowicki, V. Loustaud-Ratti, F. Gea, M. Buti, A. Olveira, T. Banyai, M. T. Al-Assi, J. Petersen, D. Thabut, A. Gadano, R. Pruitt, M. Makara, M. Bourlière, S. Pol, M. Beumont-Mauviel, S. Ouwerkerk-Mahadevan, G. Picchio, M. Bifano, F. McPhee, N. Boparai, K. Cheung, E. A. Hughes, S. Noviello and LEAGUE-1 Study Team</t>
+  </si>
+  <si>
+    <t>S. Naggie, C. Cooper, M. Saag, K. Workowski, P. Ruane, W. J. Towner, K. Marks, A. Luetkemeyer, R. P. Baden, P. E. Sax, E. Gane, J. Santana-Bagur, L. M. Stamm, J. C. Yang, P. German, H. Dvory-Sobol, L. Ni, P. S. Pang, J. G. McHutchison, C. A. Stedman, J. O. Morales-Ramirez, N. Bräu, D. Jayaweera, A. E. Colson, P. Tebas, D. K. Wong, D. Dieterich, M. Sulkowski and ION-4 Investigators</t>
+  </si>
+  <si>
+    <t>E. Lawitz, M. Makara, U. S. Akarca, P. J. Thuluvath, L. L. Preotescu, P. Varunok, R. M. Morillas, C. Hall, N. Mobashery, R. Redman, T. Pilot-Matias, R. A. Vilchez and C. Hézode</t>
+  </si>
+  <si>
+    <t>S. Zeuzem, G. M. Dusheiko, R. Salupere, A. Mangia, R. Flisiak, R. H. Hyland, A. Illeperuma, E. Svarovskaia, D. M. Brainard, W. T. Symonds, G. M. Subramanian, J. G. McHutchison, O. Weiland, H. W. Reesink, P. Ferenci, C. Hézode, R. Esteban and VALENCE Investigators</t>
+  </si>
+  <si>
+    <t>S. Zeuzem, I. M. Jacobson, T. Baykal, R. T. Marinho, F. Poordad, M. Bourlière, M. S. Sulkowski, H. Wedemeyer, E. Tam, P. Desmond, D. M. Jensen, A. M. Di Bisceglie, P. Varunok, T. Hassanein, J. Xiong, T. Pilot-Matias, B. DaSilva-Tillmann, L. Larsen, T. Podsadecki and B. Bernstein</t>
+  </si>
+  <si>
+    <t>A. S. Lok, D. F. Gardiner, C. Hézode, E. J. Lawitz, M. Bourlière, G. T. Everson, P. Marcellin, M. Rodriguez-Torres, S. Pol, L. Serfaty, T. Eley, S. P. Huang, J. Li, M. Wind-Rotolo, F. Yu, F. McPhee, D. M. Grasela and C. Pasquinelli</t>
+  </si>
+  <si>
+    <t>X. Tong, S. Le Pogam, L. Li, K. Haines, K. Piso, V. Baronas, J. M. Yan, S. S. So, K. Klumpp and I. Nájera</t>
   </si>
 </sst>
 </file>
@@ -2054,7 +2067,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="phdr_publications" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="phdr_publications_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2322,23 +2335,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="43" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="80.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="80.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="74" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="77.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="48.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="77.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="43" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2381,7 +2395,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>320</v>
+        <v>610</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -2457,7 +2471,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>321</v>
+        <v>614</v>
       </c>
       <c r="E4" s="2">
         <v>2017</v>
@@ -2486,7 +2500,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>322</v>
+        <v>611</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
@@ -2559,7 +2573,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>323</v>
+        <v>613</v>
       </c>
       <c r="E7" s="2">
         <v>2017</v>
@@ -2617,16 +2631,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>509</v>
+        <v>481</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>510</v>
+        <v>612</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>511</v>
+        <v>482</v>
       </c>
       <c r="E9" s="2">
         <v>2016</v>
@@ -2638,30 +2652,30 @@
         <v>64</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>512</v>
+        <v>483</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>513</v>
+        <v>484</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>514</v>
+        <v>485</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>515</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>30125371</v>
+        <v>30964552</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>339</v>
+        <v>511</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>340</v>
+        <v>512</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>341</v>
+        <v>616</v>
       </c>
       <c r="E10" s="2">
         <v>2019</v>
@@ -2669,909 +2683,900 @@
       <c r="F10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="2">
-        <v>69</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>343</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>30107485</v>
+        <v>30957170</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>235</v>
+        <v>617</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>236</v>
+        <v>488</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>335</v>
+        <v>489</v>
       </c>
       <c r="E11" s="2">
         <v>2019</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" s="2">
-        <v>68</v>
-      </c>
-      <c r="H11" s="2">
-        <v>4</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>482</v>
+        <v>185</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>237</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>29599611</v>
+        <v>30882744</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>344</v>
+        <v>514</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>345</v>
+        <v>515</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>346</v>
+        <v>516</v>
       </c>
       <c r="E12" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>347</v>
+        <v>517</v>
       </c>
       <c r="G12" s="2">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H12" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>348</v>
+        <v>518</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>349</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>29504692</v>
+        <v>30718256</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>107</v>
+        <v>520</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>108</v>
+        <v>392</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>109</v>
+        <v>521</v>
       </c>
       <c r="E13" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="G13" s="2">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H13" s="2">
-        <v>10</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>483</v>
+        <v>4</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>111</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>29473975</v>
+        <v>30485638</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>238</v>
+        <v>523</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>104</v>
+        <v>524</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>239</v>
+        <v>525</v>
       </c>
       <c r="E14" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="G14" s="2">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H14" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>240</v>
+        <v>526</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>241</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>29461687</v>
+        <v>30395912</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>242</v>
+        <v>528</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>243</v>
+        <v>97</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>244</v>
+        <v>618</v>
       </c>
       <c r="E15" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G15" s="2">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="H15" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>245</v>
+        <v>529</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>246</v>
+        <v>530</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>29454794</v>
+        <v>30127629</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>112</v>
+        <v>491</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>97</v>
+        <v>492</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>324</v>
+        <v>493</v>
       </c>
       <c r="E16" s="2">
         <v>2018</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>67</v>
+        <v>494</v>
       </c>
       <c r="G16" s="2">
-        <v>154</v>
-      </c>
-      <c r="H16" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>113</v>
+        <v>495</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>83</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>29453451</v>
+        <v>30125371</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>114</v>
+        <v>320</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>115</v>
+        <v>321</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>116</v>
+        <v>619</v>
       </c>
       <c r="E17" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="G17" s="2">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
-        <v>3199</v>
+        <v>2</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>118</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>29425404</v>
+        <v>30107485</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>484</v>
+        <v>235</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>485</v>
+        <v>236</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>486</v>
+        <v>620</v>
       </c>
       <c r="E18" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="G18" s="2">
         <v>68</v>
       </c>
       <c r="H18" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>487</v>
+        <v>456</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>488</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>29425396</v>
+        <v>29599611</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>119</v>
+        <v>621</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>120</v>
+        <v>324</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>121</v>
+        <v>325</v>
       </c>
       <c r="E19" s="2">
         <v>2018</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>39</v>
+        <v>326</v>
+      </c>
+      <c r="G19" s="2">
+        <v>24</v>
+      </c>
+      <c r="H19" s="2">
+        <v>12</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>122</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>29404477</v>
+        <v>29575060</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>123</v>
+        <v>531</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>102</v>
+        <v>532</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>124</v>
+        <v>622</v>
       </c>
       <c r="E20" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>125</v>
+        <v>533</v>
       </c>
       <c r="G20" s="2">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="H20" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>126</v>
+        <v>534</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>127</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>29274866</v>
+        <v>29504692</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="E21" s="2">
         <v>2018</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="G21" s="2">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="H21" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>72</v>
+        <v>457</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>29274188</v>
+        <v>29473975</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>489</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>490</v>
+        <v>104</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>491</v>
+        <v>239</v>
       </c>
       <c r="E22" s="2">
         <v>2018</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="G22" s="2">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="H22" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>492</v>
+        <v>240</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>493</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>29271114</v>
+        <v>29461687</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>350</v>
+        <v>242</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>340</v>
+        <v>243</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>351</v>
+        <v>244</v>
       </c>
       <c r="E23" s="2">
         <v>2018</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>352</v>
+        <v>71</v>
       </c>
       <c r="G23" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H23" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>353</v>
+        <v>245</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>354</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>29221887</v>
+        <v>29454794</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>129</v>
+        <v>623</v>
       </c>
       <c r="E24" s="2">
         <v>2018</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G24" s="2">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="H24" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>29152781</v>
+        <v>29453451</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>325</v>
+        <v>116</v>
       </c>
       <c r="E25" s="2">
         <v>2018</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="G25" s="2">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="H25" s="2">
-        <v>4</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>3199</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>29146520</v>
+        <v>29425404</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>130</v>
+        <v>458</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>131</v>
+        <v>459</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>326</v>
+        <v>460</v>
       </c>
       <c r="E26" s="2">
         <v>2018</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="G26" s="2">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="H26" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>132</v>
+        <v>461</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>133</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>29091342</v>
+        <v>29425396</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>494</v>
+        <v>119</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>495</v>
+        <v>120</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>496</v>
+        <v>121</v>
       </c>
       <c r="E27" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="G27" s="2">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="H27" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>498</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>29084747</v>
+        <v>29404477</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E28" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="G28" s="2">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="H28" s="2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>28984067</v>
+        <v>29274866</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E29" s="2">
         <v>2018</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="G29" s="2">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="H29" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>28941023</v>
+        <v>29274188</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>355</v>
+        <v>624</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>356</v>
+        <v>463</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>357</v>
+        <v>464</v>
       </c>
       <c r="E30" s="2">
         <v>2018</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="G30" s="2">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H30" s="2">
         <v>5</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>358</v>
+        <v>465</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>359</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>28789880</v>
+        <v>29271114</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>499</v>
+        <v>329</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>501</v>
+        <v>625</v>
       </c>
       <c r="E31" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>68</v>
+        <v>330</v>
       </c>
       <c r="G31" s="2">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="H31" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>502</v>
+        <v>331</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>503</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>28783119</v>
+        <v>29221887</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E32" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="G32" s="2">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="H32" s="2">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>28595606</v>
+        <v>29152781</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>327</v>
+        <v>626</v>
       </c>
       <c r="E33" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="G33" s="2">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="H33" s="2">
-        <v>1</v>
-      </c>
-      <c r="I33" s="2">
-        <v>106</v>
+        <v>4</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>28576451</v>
+        <v>29146520</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>247</v>
+        <v>130</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>248</v>
+        <v>131</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>336</v>
+        <v>627</v>
       </c>
       <c r="E34" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="G34" s="2">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="H34" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>250</v>
+        <v>132</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>251</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>28564569</v>
+        <v>29091342</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>63</v>
+        <v>628</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>328</v>
+        <v>467</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>329</v>
+        <v>468</v>
       </c>
       <c r="E35" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G35" s="2">
-        <v>376</v>
+        <v>38</v>
       </c>
       <c r="H35" s="2">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>75</v>
+        <v>469</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>88</v>
+        <v>470</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>28498551</v>
+        <v>29084747</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="2">
         <v>62</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2017</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" s="2">
-        <v>66</v>
-      </c>
       <c r="H36" s="2">
-        <v>4</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>28470815</v>
+        <v>28984067</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>337</v>
+        <v>136</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>252</v>
+        <v>138</v>
       </c>
       <c r="E37" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>139</v>
       </c>
       <c r="G37" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H37" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>253</v>
+        <v>140</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>254</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>28416549</v>
+        <v>28941023</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>255</v>
+        <v>333</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>256</v>
+        <v>334</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>257</v>
+        <v>335</v>
       </c>
       <c r="E38" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G38" s="2">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="H38" s="2">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>258</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>28412293</v>
+        <v>28789880</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>61</v>
+        <v>471</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>103</v>
+        <v>472</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>152</v>
+        <v>473</v>
       </c>
       <c r="E39" s="2">
         <v>2017</v>
@@ -3583,152 +3588,152 @@
         <v>67</v>
       </c>
       <c r="H39" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>77</v>
+        <v>474</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>90</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>28369411</v>
+        <v>28783119</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>360</v>
+        <v>142</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>361</v>
+        <v>143</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>362</v>
+        <v>144</v>
       </c>
       <c r="E40" s="2">
         <v>2017</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="G40" s="2">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="H40" s="2">
-        <v>11</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>363</v>
+        <v>8</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>364</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>28332272</v>
+        <v>28595606</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>155</v>
+        <v>629</v>
       </c>
       <c r="E41" s="2">
         <v>2017</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="G41" s="2">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H41" s="2">
-        <v>12</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>156</v>
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
+        <v>106</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>28193664</v>
+        <v>28576451</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>158</v>
+        <v>247</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>101</v>
+        <v>248</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>159</v>
+        <v>630</v>
       </c>
       <c r="E42" s="2">
         <v>2017</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="G42" s="2">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="H42" s="2">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>91</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>28193518</v>
+        <v>28564569</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>259</v>
+        <v>63</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>260</v>
+        <v>631</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>338</v>
+        <v>632</v>
       </c>
       <c r="E43" s="2">
         <v>2017</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G43" s="2">
-        <v>152</v>
+        <v>376</v>
       </c>
       <c r="H43" s="2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>261</v>
+        <v>75</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>262</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>28128852</v>
+        <v>28498551</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E44" s="2">
         <v>2017</v>
@@ -3740,411 +3745,405 @@
         <v>66</v>
       </c>
       <c r="H44" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>28105744</v>
+        <v>28470815</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>161</v>
+        <v>633</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>330</v>
+        <v>252</v>
       </c>
       <c r="E45" s="2">
         <v>2017</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="G45" s="2">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H45" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>28078469</v>
+        <v>28416549</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>365</v>
+        <v>255</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>366</v>
+        <v>256</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>367</v>
+        <v>257</v>
       </c>
       <c r="E46" s="2">
         <v>2017</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="G46" s="2">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H46" s="2">
         <v>7</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>368</v>
-      </c>
       <c r="K46" s="2" t="s">
-        <v>369</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>27923693</v>
+        <v>28416221</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>165</v>
+        <v>536</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>166</v>
+        <v>537</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>167</v>
+        <v>538</v>
       </c>
       <c r="E47" s="2">
         <v>2017</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>68</v>
+        <v>249</v>
       </c>
       <c r="G47" s="2">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="H47" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>168</v>
+        <v>539</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>169</v>
+        <v>540</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>27873094</v>
+        <v>28412293</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>263</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>264</v>
+        <v>103</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>265</v>
+        <v>152</v>
       </c>
       <c r="E48" s="2">
         <v>2017</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>266</v>
+        <v>68</v>
       </c>
       <c r="G48" s="2">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H48" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>268</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>27537841</v>
+        <v>28404108</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>269</v>
+        <v>541</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>271</v>
+        <v>634</v>
       </c>
       <c r="E49" s="2">
         <v>2016</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="G49" s="2">
-        <v>165</v>
+        <v>1</v>
       </c>
       <c r="H49" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>273</v>
+        <v>542</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>274</v>
+        <v>543</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>27773808</v>
+        <v>28369411</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>276</v>
+        <v>635</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>277</v>
+        <v>636</v>
       </c>
       <c r="E50" s="2">
         <v>2017</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="G50" s="2">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="H50" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>278</v>
+        <v>339</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>279</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>27720838</v>
+        <v>28332272</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>280</v>
+        <v>153</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>281</v>
+        <v>155</v>
       </c>
       <c r="E51" s="2">
         <v>2017</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="G51" s="2">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="H51" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>282</v>
+        <v>156</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>283</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>27605597</v>
+        <v>28228479</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>370</v>
+        <v>497</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>371</v>
+        <v>498</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>372</v>
+        <v>499</v>
       </c>
       <c r="E52" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>373</v>
+        <v>500</v>
       </c>
       <c r="G52" s="2">
-        <v>71</v>
+        <v>292</v>
       </c>
       <c r="H52" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>374</v>
+        <v>501</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>375</v>
+        <v>502</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>27597318</v>
+        <v>28193664</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>376</v>
+        <v>158</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>377</v>
+        <v>159</v>
       </c>
       <c r="E53" s="2">
         <v>2017</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>378</v>
+        <v>69</v>
       </c>
       <c r="G53" s="2">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="H53" s="2">
-        <v>1</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>379</v>
+        <v>5</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>380</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>27453546</v>
+        <v>28193518</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>170</v>
+        <v>259</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>171</v>
+        <v>260</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>172</v>
+        <v>637</v>
       </c>
       <c r="E54" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G54" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H54" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>174</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>27353271</v>
+        <v>28128852</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="E55" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G55" s="2">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H55" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>27351341</v>
+        <v>28105744</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>178</v>
+        <v>638</v>
       </c>
       <c r="E56" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="G56" s="2">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="H56" s="2">
         <v>4</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>27236547</v>
+        <v>28078469</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>154</v>
+        <v>342</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="E57" s="2">
         <v>2017</v>
@@ -4156,443 +4155,443 @@
         <v>52</v>
       </c>
       <c r="H57" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>27025835</v>
+        <v>27923693</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>478</v>
+        <v>165</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>479</v>
+        <v>166</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>516</v>
+        <v>167</v>
       </c>
       <c r="E58" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="G58" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H58" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>480</v>
+        <v>168</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>481</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>27009831</v>
+        <v>27873094</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>385</v>
+        <v>263</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>386</v>
+        <v>264</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>387</v>
+        <v>265</v>
       </c>
       <c r="E59" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>71</v>
+        <v>266</v>
       </c>
       <c r="G59" s="2">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H59" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>388</v>
+        <v>267</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>389</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>27003037</v>
+        <v>27537841</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>390</v>
+        <v>269</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>391</v>
+        <v>271</v>
       </c>
       <c r="E60" s="2">
         <v>2016</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>378</v>
+        <v>272</v>
       </c>
       <c r="G60" s="2">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="H60" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>392</v>
+        <v>273</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>393</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>26926625</v>
+        <v>27670383</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>284</v>
+        <v>544</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>285</v>
+        <v>545</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>286</v>
+        <v>639</v>
       </c>
       <c r="E61" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>69</v>
+        <v>546</v>
       </c>
       <c r="G61" s="2">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="H61" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>287</v>
+        <v>547</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>288</v>
+        <v>548</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>26878268</v>
+        <v>27773808</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>395</v>
+        <v>276</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>396</v>
+        <v>277</v>
       </c>
       <c r="E62" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="G62" s="2">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="H62" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>397</v>
+        <v>278</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>398</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>26822022</v>
+        <v>27720838</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>399</v>
+        <v>280</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>400</v>
+        <v>103</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>401</v>
+        <v>281</v>
       </c>
       <c r="E63" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G63" s="2">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="H63" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>402</v>
+        <v>282</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>26778412</v>
+        <v>27605597</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>58</v>
+        <v>346</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>100</v>
+        <v>347</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>181</v>
+        <v>348</v>
       </c>
       <c r="E64" s="2">
         <v>2016</v>
       </c>
       <c r="F64" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G64" s="2">
         <v>71</v>
       </c>
-      <c r="G64" s="2">
-        <v>36</v>
-      </c>
       <c r="H64" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>94</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>26603202</v>
+        <v>27597318</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>182</v>
+        <v>352</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>184</v>
+        <v>353</v>
       </c>
       <c r="E65" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="G65" s="2">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="H65" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>186</v>
+        <v>355</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>187</v>
+        <v>356</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>26575258</v>
+        <v>27453546</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>331</v>
+        <v>172</v>
       </c>
       <c r="E66" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G66" s="2">
-        <v>373</v>
+        <v>151</v>
       </c>
       <c r="H66" s="2">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>26569658</v>
+        <v>27353271</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E67" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G67" s="2">
-        <v>373</v>
+        <v>60</v>
       </c>
       <c r="H67" s="2">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>26521268</v>
+        <v>27351341</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E68" s="2">
         <v>2016</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="G68" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H68" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>26453968</v>
+        <v>27291249</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>404</v>
+        <v>640</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>223</v>
+        <v>102</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>405</v>
+        <v>503</v>
       </c>
       <c r="E69" s="2">
         <v>2016</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="G69" s="2">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="H69" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>406</v>
+        <v>504</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>407</v>
+        <v>505</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>26423374</v>
+        <v>27236547</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>289</v>
+        <v>357</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>290</v>
+        <v>154</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>291</v>
+        <v>358</v>
       </c>
       <c r="E70" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="G70" s="2">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="H70" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>26371152</v>
+        <v>27025835</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>295</v>
+        <v>452</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>296</v>
+        <v>453</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>297</v>
+        <v>487</v>
       </c>
       <c r="E71" s="2">
         <v>2016</v>
@@ -4604,1813 +4603,1837 @@
         <v>62</v>
       </c>
       <c r="H71" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>298</v>
+        <v>454</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>299</v>
+        <v>455</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>26303801</v>
+        <v>27021330</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>300</v>
+        <v>549</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>301</v>
+        <v>550</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>302</v>
+        <v>551</v>
       </c>
       <c r="E72" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G72" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H72" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>303</v>
+        <v>552</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>304</v>
+        <v>553</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>26196665</v>
+        <v>27009831</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>195</v>
+        <v>361</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>196</v>
+        <v>362</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="E73" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G73" s="2">
-        <v>373</v>
+        <v>36</v>
       </c>
       <c r="H73" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>197</v>
+        <v>364</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>198</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>26196502</v>
+        <v>27003037</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>199</v>
+        <v>366</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>166</v>
+        <v>324</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>200</v>
+        <v>367</v>
       </c>
       <c r="E74" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>70</v>
+        <v>354</v>
       </c>
       <c r="G74" s="2">
-        <v>373</v>
+        <v>31</v>
       </c>
       <c r="H74" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>201</v>
+        <v>368</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>202</v>
+        <v>369</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>26170396</v>
+        <v>26926625</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>408</v>
+        <v>284</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>371</v>
+        <v>285</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>409</v>
+        <v>286</v>
       </c>
       <c r="E75" s="2">
         <v>2016</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>185</v>
+        <v>69</v>
       </c>
       <c r="G75" s="2">
-        <v>213</v>
+        <v>60</v>
       </c>
       <c r="H75" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>410</v>
+        <v>287</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>411</v>
+        <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>25847509</v>
+        <v>26878268</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>203</v>
+        <v>370</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>204</v>
+        <v>371</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>205</v>
+        <v>372</v>
       </c>
       <c r="E76" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="G76" s="2">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H76" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>206</v>
+        <v>373</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>207</v>
+        <v>374</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>25659285</v>
+        <v>26822022</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>209</v>
+        <v>376</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>210</v>
+        <v>377</v>
       </c>
       <c r="E77" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="G77" s="2">
-        <v>385</v>
+        <v>63</v>
       </c>
       <c r="H77" s="2">
-        <v>9973</v>
+        <v>5</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>212</v>
+        <v>378</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>213</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>25614962</v>
+        <v>26778412</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>504</v>
+        <v>58</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>505</v>
+        <v>100</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>506</v>
+        <v>181</v>
       </c>
       <c r="E78" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="G78" s="2">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="H78" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>507</v>
+        <v>80</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>508</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>25467591</v>
+        <v>26643326</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>305</v>
+        <v>554</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>306</v>
+        <v>555</v>
       </c>
       <c r="E79" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>211</v>
+        <v>69</v>
       </c>
       <c r="G79" s="2">
-        <v>385</v>
+        <v>60</v>
       </c>
       <c r="H79" s="2">
-        <v>9973</v>
+        <v>2</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>307</v>
+        <v>556</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>308</v>
+        <v>557</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>25467560</v>
+        <v>26603202</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>309</v>
+        <v>182</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>310</v>
+        <v>183</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>311</v>
+        <v>184</v>
       </c>
       <c r="E80" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="G80" s="2">
-        <v>385</v>
+        <v>213</v>
       </c>
       <c r="H80" s="2">
-        <v>9973</v>
+        <v>8</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>312</v>
+        <v>186</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>313</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>25322962</v>
+        <v>26575258</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>214</v>
+        <v>57</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>215</v>
+        <v>641</v>
       </c>
       <c r="E81" s="2">
         <v>2015</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="G81" s="2">
-        <v>61</v>
+        <v>373</v>
       </c>
       <c r="H81" s="2">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>217</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>25266287</v>
+        <v>26569658</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>218</v>
+        <v>56</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="E82" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>192</v>
+        <v>70</v>
       </c>
       <c r="G82" s="2">
-        <v>59</v>
+        <v>373</v>
       </c>
       <c r="H82" s="2">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>221</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>24936600</v>
+        <v>26521268</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>412</v>
+        <v>189</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>413</v>
+        <v>191</v>
       </c>
       <c r="E83" s="2">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="G83" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H83" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>414</v>
+        <v>193</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>415</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>24795201</v>
+        <v>26453968</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>222</v>
+        <v>380</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>223</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>333</v>
+        <v>642</v>
       </c>
       <c r="E84" s="2">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G84" s="2">
-        <v>370</v>
+        <v>64</v>
       </c>
       <c r="H84" s="2">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>224</v>
+        <v>381</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>225</v>
+        <v>382</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>24448487</v>
+        <v>26423374</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>416</v>
+        <v>289</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>417</v>
+        <v>290</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>418</v>
+        <v>291</v>
       </c>
       <c r="E85" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>419</v>
+        <v>292</v>
       </c>
       <c r="G85" s="2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H85" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>420</v>
+        <v>293</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>421</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>24444658</v>
+        <v>26392503</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>422</v>
+        <v>558</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>423</v>
+        <v>512</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>424</v>
+        <v>559</v>
       </c>
       <c r="E86" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G86" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H86" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>425</v>
+        <v>560</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>426</v>
+        <v>561</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>24154738</v>
+        <v>26371152</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>226</v>
+        <v>295</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>227</v>
+        <v>296</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="E87" s="2">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G87" s="2">
-        <v>209</v>
+        <v>62</v>
       </c>
       <c r="H87" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>228</v>
+        <v>298</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>229</v>
+        <v>299</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>24127258</v>
+        <v>26303801</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="E88" s="2">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>317</v>
+        <v>69</v>
       </c>
       <c r="G88" s="2">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="H88" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>23384816</v>
+        <v>26282418</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>427</v>
+        <v>562</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>428</v>
+        <v>563</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>429</v>
+        <v>564</v>
       </c>
       <c r="E89" s="2">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>430</v>
+        <v>69</v>
       </c>
       <c r="G89" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H89" s="2">
-        <v>1</v>
-      </c>
-      <c r="I89" s="3">
-        <v>43690</v>
+        <v>11</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>565</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>431</v>
+        <v>566</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>23089758</v>
+        <v>26196665</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>432</v>
+        <v>195</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>433</v>
+        <v>643</v>
       </c>
       <c r="E90" s="2">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G90" s="2">
-        <v>57</v>
+        <v>373</v>
       </c>
       <c r="H90" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>434</v>
+        <v>197</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>435</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>22850513</v>
+        <v>26196502</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>436</v>
+        <v>199</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>437</v>
+        <v>166</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>438</v>
+        <v>200</v>
       </c>
       <c r="E91" s="2">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G91" s="2">
-        <v>56</v>
+        <v>373</v>
       </c>
       <c r="H91" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>439</v>
+        <v>201</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>440</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>22430955</v>
+        <v>26170396</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>230</v>
+        <v>383</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>231</v>
+        <v>347</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>232</v>
+        <v>384</v>
       </c>
       <c r="E92" s="2">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>69</v>
+        <v>185</v>
       </c>
       <c r="G92" s="2">
-        <v>56</v>
+        <v>213</v>
       </c>
       <c r="H92" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>233</v>
+        <v>385</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>234</v>
+        <v>386</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>22256805</v>
+        <v>26170136</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>441</v>
+        <v>567</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>423</v>
+        <v>41</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>442</v>
+        <v>644</v>
       </c>
       <c r="E93" s="2">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G93" s="2">
-        <v>366</v>
+        <v>149</v>
       </c>
       <c r="H93" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>443</v>
+        <v>568</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>444</v>
+        <v>569</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>22234905</v>
+        <v>26100711</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>445</v>
+        <v>570</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>446</v>
+        <v>11</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>447</v>
+        <v>571</v>
       </c>
       <c r="E94" s="2">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="G94" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H94" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>448</v>
+        <v>572</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>449</v>
+        <v>573</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>22214777</v>
+        <v>25847509</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>450</v>
+        <v>203</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>451</v>
+        <v>205</v>
       </c>
       <c r="E95" s="2">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G95" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H95" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>452</v>
+        <v>206</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>453</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>22203595</v>
+        <v>25706092</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>454</v>
+        <v>574</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>115</v>
+        <v>310</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>455</v>
+        <v>575</v>
       </c>
       <c r="E96" s="2">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>69</v>
+        <v>576</v>
       </c>
       <c r="G96" s="2">
-        <v>56</v>
+        <v>313</v>
       </c>
       <c r="H96" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>456</v>
+        <v>577</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>457</v>
+        <v>578</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>21809362</v>
+        <v>25659285</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>458</v>
+        <v>208</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>459</v>
+        <v>209</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>460</v>
+        <v>210</v>
       </c>
       <c r="E97" s="2">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="G97" s="2">
-        <v>54</v>
+        <v>385</v>
       </c>
       <c r="H97" s="2">
-        <v>6</v>
+        <v>9973</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>461</v>
+        <v>212</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>462</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>21593143</v>
+        <v>25644279</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>463</v>
+        <v>579</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>459</v>
+        <v>580</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>464</v>
+        <v>581</v>
       </c>
       <c r="E98" s="2">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>465</v>
+        <v>39</v>
       </c>
       <c r="G98" s="2">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="H98" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>466</v>
+        <v>582</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>467</v>
+        <v>583</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>20585111</v>
+        <v>25614962</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="E99" s="2">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G99" s="2">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H99" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>20410884</v>
+        <v>25534735</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>472</v>
+        <v>584</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>473</v>
+        <v>585</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>474</v>
+        <v>586</v>
       </c>
       <c r="E100" s="2">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>475</v>
+        <v>69</v>
       </c>
       <c r="G100" s="2">
-        <v>465</v>
+        <v>59</v>
       </c>
       <c r="H100" s="2">
-        <v>7294</v>
+        <v>3</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>476</v>
+        <v>587</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>477</v>
+        <v>588</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>30957170</v>
+        <v>25467591</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>517</v>
+        <v>305</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>518</v>
+        <v>41</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>519</v>
+        <v>306</v>
       </c>
       <c r="E101" s="2">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>185</v>
+        <v>211</v>
+      </c>
+      <c r="G101" s="2">
+        <v>385</v>
+      </c>
+      <c r="H101" s="2">
+        <v>9973</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>520</v>
+        <v>308</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>30127629</v>
+        <v>25467560</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>521</v>
+        <v>309</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>522</v>
+        <v>310</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>523</v>
+        <v>311</v>
       </c>
       <c r="E102" s="2">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>524</v>
+        <v>211</v>
       </c>
       <c r="G102" s="2">
-        <v>11</v>
+        <v>385</v>
+      </c>
+      <c r="H102" s="2">
+        <v>9973</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>525</v>
+        <v>312</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>526</v>
+        <v>313</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>28228479</v>
+        <v>25451055</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>528</v>
+        <v>11</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>529</v>
+        <v>590</v>
       </c>
       <c r="E103" s="2">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>530</v>
+        <v>69</v>
       </c>
       <c r="G103" s="2">
-        <v>292</v>
+        <v>59</v>
       </c>
       <c r="H103" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>531</v>
+        <v>591</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>532</v>
+        <v>592</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>27291249</v>
+        <v>25451053</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>533</v>
+        <v>593</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>102</v>
+        <v>594</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>534</v>
+        <v>595</v>
       </c>
       <c r="E104" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="G104" s="2">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="H104" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>535</v>
+        <v>596</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>536</v>
+        <v>597</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>25266289</v>
+        <v>25322962</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>537</v>
+        <v>214</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>538</v>
+        <v>41</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>539</v>
+        <v>215</v>
       </c>
       <c r="E105" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="G105" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H105" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>540</v>
+        <v>216</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>541</v>
+        <v>217</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>30964552</v>
+        <v>25266289</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>542</v>
+        <v>506</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="E106" s="2">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>39</v>
+        <v>192</v>
+      </c>
+      <c r="G106" s="2">
+        <v>59</v>
+      </c>
+      <c r="H106" s="2">
+        <v>12</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>545</v>
+        <v>510</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>30882744</v>
+        <v>25266287</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>546</v>
+        <v>218</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>547</v>
+        <v>183</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>548</v>
+        <v>219</v>
       </c>
       <c r="E107" s="2">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>549</v>
+        <v>192</v>
       </c>
       <c r="G107" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H107" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>550</v>
+        <v>220</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>551</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>30718256</v>
+        <v>24936600</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>552</v>
+        <v>387</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>417</v>
+        <v>115</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>553</v>
+        <v>388</v>
       </c>
       <c r="E108" s="2">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G108" s="2">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H108" s="2">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>554</v>
+        <v>390</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>30485638</v>
+        <v>24795201</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>555</v>
+        <v>222</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>556</v>
+        <v>223</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>557</v>
+        <v>645</v>
       </c>
       <c r="E109" s="2">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="G109" s="2">
-        <v>49</v>
+        <v>370</v>
       </c>
       <c r="H109" s="2">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>558</v>
+        <v>224</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>559</v>
+        <v>225</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>30395912</v>
+        <v>24795200</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>560</v>
+        <v>598</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>97</v>
+        <v>599</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>561</v>
+        <v>600</v>
       </c>
       <c r="E110" s="2">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G110" s="2">
-        <v>70</v>
+        <v>370</v>
       </c>
       <c r="H110" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>562</v>
+        <v>601</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>563</v>
+        <v>602</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>29575060</v>
+        <v>24725237</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>564</v>
+        <v>603</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>565</v>
+        <v>100</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>566</v>
+        <v>604</v>
       </c>
       <c r="E111" s="2">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>567</v>
+        <v>70</v>
       </c>
       <c r="G111" s="2">
-        <v>90</v>
+        <v>370</v>
       </c>
       <c r="H111" s="2">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>568</v>
+        <v>605</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>28416221</v>
+        <v>24720679</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>570</v>
+        <v>607</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>571</v>
+        <v>223</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>572</v>
+        <v>646</v>
       </c>
       <c r="E112" s="2">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>249</v>
+        <v>70</v>
       </c>
       <c r="G112" s="2">
-        <v>2</v>
+        <v>370</v>
       </c>
       <c r="H112" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>573</v>
+        <v>608</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>574</v>
+        <v>609</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>28404108</v>
+        <v>24448487</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>575</v>
+        <v>391</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>243</v>
+        <v>392</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>576</v>
+        <v>393</v>
       </c>
       <c r="E113" s="2">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>249</v>
+        <v>394</v>
       </c>
       <c r="G113" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H113" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>577</v>
+        <v>395</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>578</v>
+        <v>396</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>27670383</v>
+        <v>24444658</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>579</v>
+        <v>397</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>580</v>
+        <v>398</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>581</v>
+        <v>647</v>
       </c>
       <c r="E114" s="2">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>582</v>
+        <v>68</v>
       </c>
       <c r="G114" s="2">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="H114" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>583</v>
+        <v>399</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>584</v>
+        <v>400</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>27021330</v>
+        <v>24154738</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>585</v>
+        <v>226</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>586</v>
+        <v>227</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>587</v>
+        <v>648</v>
       </c>
       <c r="E115" s="2">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>69</v>
+        <v>185</v>
       </c>
       <c r="G115" s="2">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="H115" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>588</v>
+        <v>228</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>589</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>26643326</v>
+        <v>24127258</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>590</v>
+        <v>314</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>11</v>
+        <v>315</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>591</v>
+        <v>316</v>
       </c>
       <c r="E116" s="2">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>69</v>
+        <v>317</v>
       </c>
       <c r="G116" s="2">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="H116" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>592</v>
+        <v>318</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>593</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>26392503</v>
+        <v>23384816</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>594</v>
+        <v>401</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>543</v>
+        <v>402</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>595</v>
+        <v>403</v>
       </c>
       <c r="E117" s="2">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>69</v>
+        <v>404</v>
       </c>
       <c r="G117" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H117" s="2">
-        <v>12</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>596</v>
+        <v>1</v>
+      </c>
+      <c r="I117" s="3">
+        <v>43690</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>597</v>
+        <v>405</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>26282418</v>
+        <v>23089758</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>598</v>
+        <v>406</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>599</v>
+        <v>115</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>600</v>
+        <v>407</v>
       </c>
       <c r="E118" s="2">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G118" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H118" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>601</v>
+        <v>408</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>602</v>
+        <v>409</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>26170136</v>
+        <v>22850513</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>603</v>
+        <v>410</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>41</v>
+        <v>411</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>604</v>
+        <v>412</v>
       </c>
       <c r="E119" s="2">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G119" s="2">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="H119" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>605</v>
+        <v>413</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>606</v>
+        <v>414</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>26100711</v>
+        <v>22430955</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>607</v>
+        <v>230</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>608</v>
+        <v>232</v>
       </c>
       <c r="E120" s="2">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G120" s="2">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H120" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>609</v>
+        <v>233</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>610</v>
+        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>25706092</v>
+        <v>22256805</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>611</v>
+        <v>415</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>310</v>
+        <v>398</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>612</v>
+        <v>416</v>
       </c>
       <c r="E121" s="2">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>613</v>
+        <v>70</v>
       </c>
       <c r="G121" s="2">
-        <v>313</v>
+        <v>366</v>
       </c>
       <c r="H121" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>614</v>
+        <v>417</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>615</v>
+        <v>418</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>25644279</v>
+        <v>22234905</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>616</v>
+        <v>419</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>617</v>
+        <v>420</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>618</v>
+        <v>421</v>
       </c>
       <c r="E122" s="2">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G122" s="2">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H122" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>619</v>
+        <v>422</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>620</v>
+        <v>423</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>25534735</v>
+        <v>22214777</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>621</v>
+        <v>424</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>622</v>
+        <v>115</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>623</v>
+        <v>425</v>
       </c>
       <c r="E123" s="2">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G123" s="2">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H123" s="2">
         <v>3</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>624</v>
+        <v>426</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>625</v>
+        <v>427</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>25451055</v>
+        <v>22203595</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>626</v>
+        <v>428</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>627</v>
+        <v>429</v>
       </c>
       <c r="E124" s="2">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G124" s="2">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H124" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>628</v>
+        <v>430</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>629</v>
+        <v>431</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>25451053</v>
+        <v>21809362</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>630</v>
+        <v>432</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>631</v>
+        <v>433</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>632</v>
+        <v>434</v>
       </c>
       <c r="E125" s="2">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G125" s="2">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H125" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>633</v>
+        <v>435</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>634</v>
+        <v>436</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>24795200</v>
+        <v>21593143</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>635</v>
+        <v>437</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>636</v>
+        <v>433</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>637</v>
+        <v>438</v>
       </c>
       <c r="E126" s="2">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>70</v>
+        <v>439</v>
       </c>
       <c r="G126" s="2">
-        <v>370</v>
+        <v>85</v>
       </c>
       <c r="H126" s="2">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>638</v>
+        <v>440</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>639</v>
+        <v>441</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>24725237</v>
+        <v>20585111</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>640</v>
+        <v>442</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>100</v>
+        <v>433</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>641</v>
+        <v>443</v>
       </c>
       <c r="E127" s="2">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G127" s="2">
-        <v>370</v>
+        <v>54</v>
       </c>
       <c r="H127" s="2">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>642</v>
+        <v>444</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>643</v>
+        <v>445</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>24720679</v>
+        <v>20410884</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>644</v>
+        <v>446</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>223</v>
+        <v>447</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>645</v>
+        <v>448</v>
       </c>
       <c r="E128" s="2">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>70</v>
+        <v>449</v>
       </c>
       <c r="G128" s="2">
-        <v>370</v>
+        <v>465</v>
       </c>
       <c r="H128" s="2">
-        <v>17</v>
+        <v>7294</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>646</v>
+        <v>450</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>647</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/contributed/publications.xlsx
+++ b/tabular/contributed/publications.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1780" windowWidth="46540" windowHeight="22460" tabRatio="500"/>
+    <workbookView xWindow="1400" yWindow="1820" windowWidth="46540" windowHeight="22460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="phdr_publications_1" localSheetId="0">Sheet1!$A$1:$K$128</definedName>
+    <definedName name="phdr_publications" localSheetId="0">Sheet1!$A$1:$K$129</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" calcMode="manual" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="653">
   <si>
     <t>id</t>
   </si>
@@ -1999,6 +1999,18 @@
   </si>
   <si>
     <t>X. Tong, S. Le Pogam, L. Li, K. Haines, K. Piso, V. Baronas, J. M. Yan, S. S. So, K. Klumpp and I. Nájera</t>
+  </si>
+  <si>
+    <t>Amino Acid Substitutions in Genotype 3a Hepatitis C Virus Polymerase Protein Affect Responses to Sofosbuvir.</t>
+  </si>
+  <si>
+    <t>Wing et al.</t>
+  </si>
+  <si>
+    <t>P. A. C. Wing, M. Jones, M. Cheung, S. DaSilva, C. Bamford, W. Y. Jason Lee, E. Aranday-Cortes, A. Da Silva Filipe, J. McLauchlan, D. Smith, W. Irving, M. Cunningham, A. Ansari, E. Barnes and G. R. Foster</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1053/j.gastro.2019.05.007</t>
   </si>
 </sst>
 </file>
@@ -2067,7 +2079,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="phdr_publications_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="phdr_publications" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2333,7 +2345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -2666,1676 +2678,1667 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>30964552</v>
+        <v>31078622</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>511</v>
+        <v>649</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>512</v>
+        <v>650</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>616</v>
+        <v>651</v>
       </c>
       <c r="E10" s="2">
         <v>2019</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>513</v>
+        <v>652</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>30957170</v>
+        <v>30964552</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>617</v>
+        <v>511</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>489</v>
+        <v>616</v>
       </c>
       <c r="E11" s="2">
         <v>2019</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>30882744</v>
+        <v>30957170</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>514</v>
+        <v>617</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>515</v>
+        <v>488</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>516</v>
+        <v>489</v>
       </c>
       <c r="E12" s="2">
         <v>2019</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="G12" s="2">
-        <v>38</v>
-      </c>
-      <c r="H12" s="2">
-        <v>4</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>518</v>
+        <v>185</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>30718256</v>
+        <v>30882744</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>392</v>
+        <v>515</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="E13" s="2">
         <v>2019</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>69</v>
+        <v>517</v>
       </c>
       <c r="G13" s="2">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="H13" s="2">
         <v>4</v>
       </c>
+      <c r="I13" s="2" t="s">
+        <v>518</v>
+      </c>
       <c r="K13" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>30485638</v>
+        <v>30718256</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>524</v>
+        <v>392</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E14" s="2">
         <v>2019</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="G14" s="2">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="H14" s="2">
         <v>4</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>526</v>
-      </c>
       <c r="K14" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>30395912</v>
+        <v>30485638</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
+        <v>524</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>618</v>
+        <v>525</v>
       </c>
       <c r="E15" s="2">
         <v>2019</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="G15" s="2">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="H15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>30127629</v>
+        <v>30395912</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>491</v>
+        <v>528</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>492</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>493</v>
+        <v>618</v>
       </c>
       <c r="E16" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>494</v>
+        <v>68</v>
       </c>
       <c r="G16" s="2">
-        <v>11</v>
+        <v>70</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>495</v>
+        <v>529</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>496</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>30125371</v>
+        <v>30127629</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>320</v>
+        <v>491</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>321</v>
+        <v>492</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>619</v>
+        <v>493</v>
       </c>
       <c r="E17" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>39</v>
+        <v>494</v>
       </c>
       <c r="G17" s="2">
-        <v>69</v>
-      </c>
-      <c r="H17" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>322</v>
+        <v>495</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>323</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>30107485</v>
+        <v>30125371</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>236</v>
+        <v>321</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E18" s="2">
         <v>2019</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="G18" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H18" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>456</v>
+        <v>322</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>237</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>29599611</v>
+        <v>30107485</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>621</v>
+        <v>235</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>325</v>
+        <v>620</v>
       </c>
       <c r="E19" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>326</v>
+        <v>192</v>
       </c>
       <c r="G19" s="2">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="H19" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>327</v>
+        <v>456</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>328</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>29575060</v>
+        <v>29599611</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>531</v>
+        <v>621</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>532</v>
+        <v>324</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>622</v>
+        <v>325</v>
       </c>
       <c r="E20" s="2">
         <v>2018</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>533</v>
+        <v>326</v>
       </c>
       <c r="G20" s="2">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="H20" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>534</v>
+        <v>327</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>535</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>29504692</v>
+        <v>29575060</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>107</v>
+        <v>531</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>108</v>
+        <v>532</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>109</v>
+        <v>622</v>
       </c>
       <c r="E21" s="2">
         <v>2018</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>110</v>
+        <v>533</v>
       </c>
       <c r="G21" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H21" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>457</v>
+        <v>534</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>111</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>29473975</v>
+        <v>29504692</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>238</v>
+        <v>107</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>239</v>
+        <v>109</v>
       </c>
       <c r="E22" s="2">
         <v>2018</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="G22" s="2">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H22" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>240</v>
+        <v>457</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>241</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>29461687</v>
+        <v>29473975</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>243</v>
+        <v>104</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E23" s="2">
         <v>2018</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="G23" s="2">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="H23" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>29454794</v>
+        <v>29461687</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>112</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>97</v>
+        <v>243</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>623</v>
+        <v>244</v>
       </c>
       <c r="E24" s="2">
         <v>2018</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G24" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="H24" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>29453451</v>
+        <v>29454794</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>116</v>
+        <v>623</v>
       </c>
       <c r="E25" s="2">
         <v>2018</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="G25" s="2">
+        <v>154</v>
+      </c>
+      <c r="H25" s="2">
         <v>8</v>
       </c>
-      <c r="H25" s="2">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2">
-        <v>3199</v>
+      <c r="I25" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>29425404</v>
+        <v>29453451</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>458</v>
+        <v>114</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>459</v>
+        <v>115</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>460</v>
+        <v>116</v>
       </c>
       <c r="E26" s="2">
         <v>2018</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="G26" s="2">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="H26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>461</v>
+      <c r="I26" s="2">
+        <v>3199</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>462</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>29425396</v>
+        <v>29425404</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>119</v>
+        <v>458</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>120</v>
+        <v>459</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>121</v>
+        <v>460</v>
       </c>
       <c r="E27" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G27" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H27" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>615</v>
+        <v>461</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>122</v>
+        <v>462</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>29404477</v>
+        <v>29425396</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E28" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="G28" s="2">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="H28" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>126</v>
+        <v>615</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>29274866</v>
+        <v>29404477</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E29" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G29" s="2">
-        <v>154</v>
+        <v>1</v>
       </c>
       <c r="H29" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>29274188</v>
+        <v>29274866</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>624</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>463</v>
+        <v>98</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>464</v>
+        <v>128</v>
       </c>
       <c r="E30" s="2">
         <v>2018</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="G30" s="2">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="H30" s="2">
         <v>5</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>465</v>
+        <v>72</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>466</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>29271114</v>
+        <v>29274188</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>329</v>
+        <v>624</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>321</v>
+        <v>463</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>625</v>
+        <v>464</v>
       </c>
       <c r="E31" s="2">
         <v>2018</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>330</v>
+        <v>139</v>
       </c>
       <c r="G31" s="2">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="H31" s="2">
         <v>5</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>331</v>
+        <v>465</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>332</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>29221887</v>
+        <v>29271114</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>329</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>99</v>
+        <v>321</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>129</v>
+        <v>625</v>
       </c>
       <c r="E32" s="2">
         <v>2018</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>68</v>
+        <v>330</v>
       </c>
       <c r="G32" s="2">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="H32" s="2">
         <v>5</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>73</v>
+        <v>331</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>85</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>29152781</v>
+        <v>29221887</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>626</v>
+        <v>129</v>
       </c>
       <c r="E33" s="2">
         <v>2018</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="G33" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H33" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>29146520</v>
+        <v>29152781</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E34" s="2">
         <v>2018</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="2">
         <v>67</v>
-      </c>
-      <c r="G34" s="2">
-        <v>154</v>
       </c>
       <c r="H34" s="2">
         <v>4</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>29091342</v>
+        <v>29146520</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>628</v>
+        <v>130</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>467</v>
+        <v>131</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>468</v>
+        <v>627</v>
       </c>
       <c r="E35" s="2">
         <v>2018</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G35" s="2">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="H35" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>469</v>
+        <v>132</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>470</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>29084747</v>
+        <v>29091342</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>134</v>
+        <v>628</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>101</v>
+        <v>467</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>135</v>
+        <v>468</v>
       </c>
       <c r="E36" s="2">
         <v>2018</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G36" s="2">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="H36" s="2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>469</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>87</v>
+        <v>470</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>28984067</v>
+        <v>29084747</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E37" s="2">
         <v>2018</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="G37" s="2">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H37" s="2">
-        <v>2</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>28941023</v>
+        <v>28984067</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>333</v>
+        <v>136</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>334</v>
+        <v>137</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>335</v>
+        <v>138</v>
       </c>
       <c r="E38" s="2">
         <v>2018</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="G38" s="2">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H38" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>336</v>
+        <v>140</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>337</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>28789880</v>
+        <v>28941023</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>471</v>
+        <v>333</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>472</v>
+        <v>334</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>473</v>
+        <v>335</v>
       </c>
       <c r="E39" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G39" s="2">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="H39" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>474</v>
+        <v>336</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>475</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>28783119</v>
+        <v>28789880</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>142</v>
+        <v>471</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>143</v>
+        <v>472</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>144</v>
+        <v>473</v>
       </c>
       <c r="E40" s="2">
         <v>2017</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="G40" s="2">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="H40" s="2">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>474</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>146</v>
+        <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>28595606</v>
+        <v>28783119</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>629</v>
+        <v>144</v>
       </c>
       <c r="E41" s="2">
         <v>2017</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G41" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H41" s="2">
-        <v>1</v>
-      </c>
-      <c r="I41" s="2">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>28576451</v>
+        <v>28595606</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>247</v>
+        <v>147</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>248</v>
+        <v>148</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E42" s="2">
         <v>2017</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="G42" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H42" s="2">
-        <v>8</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>250</v>
+        <v>1</v>
+      </c>
+      <c r="I42" s="2">
+        <v>106</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>251</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>28564569</v>
+        <v>28576451</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>63</v>
+        <v>247</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>631</v>
+        <v>248</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E43" s="2">
         <v>2017</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="G43" s="2">
-        <v>376</v>
+        <v>2</v>
       </c>
       <c r="H43" s="2">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>28498551</v>
+        <v>28564569</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>102</v>
+        <v>631</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>151</v>
+        <v>632</v>
       </c>
       <c r="E44" s="2">
         <v>2017</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="G44" s="2">
-        <v>66</v>
+        <v>376</v>
       </c>
       <c r="H44" s="2">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>28470815</v>
+        <v>28498551</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>633</v>
+        <v>62</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>252</v>
+        <v>151</v>
       </c>
       <c r="E45" s="2">
         <v>2017</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="G45" s="2">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="H45" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>254</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>28416549</v>
+        <v>28470815</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>255</v>
+        <v>633</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>256</v>
+        <v>102</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E46" s="2">
         <v>2017</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="G46" s="2">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="H46" s="2">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>28416221</v>
+        <v>28416549</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>536</v>
+        <v>255</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>537</v>
+        <v>256</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>538</v>
+        <v>257</v>
       </c>
       <c r="E47" s="2">
         <v>2017</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>249</v>
+        <v>69</v>
       </c>
       <c r="G47" s="2">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="H47" s="2">
         <v>7</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="K47" s="2" t="s">
-        <v>540</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>28412293</v>
+        <v>28416221</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>536</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>103</v>
+        <v>537</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>152</v>
+        <v>538</v>
       </c>
       <c r="E48" s="2">
         <v>2017</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>68</v>
+        <v>249</v>
       </c>
       <c r="G48" s="2">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="H48" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>77</v>
+        <v>539</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>90</v>
+        <v>540</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>28404108</v>
+        <v>28412293</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>541</v>
+        <v>61</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>243</v>
+        <v>103</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>634</v>
+        <v>152</v>
       </c>
       <c r="E49" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>249</v>
+        <v>68</v>
       </c>
       <c r="G49" s="2">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="H49" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>542</v>
+        <v>77</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>543</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>28369411</v>
+        <v>28404108</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>338</v>
+        <v>541</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>635</v>
+        <v>243</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E50" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="G50" s="2">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="H50" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>339</v>
+        <v>542</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>340</v>
+        <v>543</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>28332272</v>
+        <v>28369411</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>153</v>
+        <v>338</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>154</v>
+        <v>635</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>155</v>
+        <v>636</v>
       </c>
       <c r="E51" s="2">
         <v>2017</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="G51" s="2">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H51" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>156</v>
+        <v>339</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>157</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>28228479</v>
+        <v>28332272</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>497</v>
+        <v>153</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>498</v>
+        <v>154</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>499</v>
+        <v>155</v>
       </c>
       <c r="E52" s="2">
         <v>2017</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="G52" s="2">
-        <v>292</v>
+        <v>47</v>
       </c>
       <c r="H52" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>501</v>
+        <v>156</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>502</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>28193664</v>
+        <v>28228479</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>158</v>
+        <v>497</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>101</v>
+        <v>498</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>159</v>
+        <v>499</v>
       </c>
       <c r="E53" s="2">
         <v>2017</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>69</v>
+        <v>500</v>
       </c>
       <c r="G53" s="2">
-        <v>61</v>
+        <v>292</v>
       </c>
       <c r="H53" s="2">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>91</v>
+        <v>502</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>28193518</v>
+        <v>28193664</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>259</v>
+        <v>158</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>260</v>
+        <v>101</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>637</v>
+        <v>159</v>
       </c>
       <c r="E54" s="2">
         <v>2017</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G54" s="2">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="H54" s="2">
-        <v>6</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>261</v>
+        <v>5</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>262</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>28128852</v>
+        <v>28193518</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>259</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>160</v>
+        <v>637</v>
       </c>
       <c r="E55" s="2">
         <v>2017</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G55" s="2">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="H55" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>92</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>28105744</v>
+        <v>28128852</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>638</v>
+        <v>160</v>
       </c>
       <c r="E56" s="2">
         <v>2017</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="G56" s="2">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="H56" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>28078469</v>
+        <v>28105744</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>341</v>
+        <v>161</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>342</v>
+        <v>162</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>343</v>
+        <v>638</v>
       </c>
       <c r="E57" s="2">
         <v>2017</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>266</v>
+        <v>71</v>
       </c>
       <c r="G57" s="2">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H57" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>344</v>
+        <v>163</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>345</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>27923693</v>
+        <v>28078469</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>165</v>
+        <v>341</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>166</v>
+        <v>342</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>167</v>
+        <v>343</v>
       </c>
       <c r="E58" s="2">
         <v>2017</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c r="G58" s="2">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H58" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>168</v>
+        <v>344</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>169</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>27873094</v>
+        <v>27923693</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>264</v>
+        <v>166</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>265</v>
+        <v>167</v>
       </c>
       <c r="E59" s="2">
         <v>2017</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>266</v>
+        <v>68</v>
       </c>
       <c r="G59" s="2">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H59" s="2">
         <v>4</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>267</v>
+        <v>168</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>268</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>27537841</v>
+        <v>27873094</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E60" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G60" s="2">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="H60" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>27670383</v>
+        <v>27537841</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>544</v>
+        <v>269</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>545</v>
+        <v>270</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>639</v>
+        <v>271</v>
       </c>
       <c r="E61" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>546</v>
+        <v>272</v>
       </c>
       <c r="G61" s="2">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="H61" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>547</v>
+        <v>273</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>548</v>
+        <v>274</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>27773808</v>
+        <v>27670383</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>275</v>
+        <v>544</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>276</v>
+        <v>545</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>277</v>
+        <v>639</v>
       </c>
       <c r="E62" s="2">
         <v>2017</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>67</v>
+        <v>546</v>
       </c>
       <c r="G62" s="2">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="H62" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>278</v>
+        <v>547</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>279</v>
+        <v>548</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>27720838</v>
+        <v>27773808</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>103</v>
+        <v>276</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E63" s="2">
         <v>2017</v>
@@ -4347,603 +4350,603 @@
         <v>152</v>
       </c>
       <c r="H63" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>27605597</v>
+        <v>27720838</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>347</v>
+        <v>103</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="E64" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>349</v>
+        <v>67</v>
       </c>
       <c r="G64" s="2">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="H64" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>350</v>
+        <v>282</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>351</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>27597318</v>
+        <v>27605597</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>115</v>
+        <v>347</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E65" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G65" s="2">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="H65" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>27453546</v>
+        <v>27597318</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>170</v>
+        <v>352</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>172</v>
+        <v>353</v>
       </c>
       <c r="E66" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>67</v>
+        <v>354</v>
       </c>
       <c r="G66" s="2">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="H66" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>173</v>
+        <v>355</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>174</v>
+        <v>356</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>27353271</v>
+        <v>27453546</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E67" s="2">
         <v>2016</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G67" s="2">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="H67" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>27351341</v>
+        <v>27353271</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>177</v>
+        <v>41</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E68" s="2">
         <v>2016</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="G68" s="2">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H68" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>27291249</v>
+        <v>27351341</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>640</v>
+        <v>176</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>503</v>
+        <v>178</v>
       </c>
       <c r="E69" s="2">
         <v>2016</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="G69" s="2">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="H69" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>504</v>
+        <v>179</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>505</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>27236547</v>
+        <v>27291249</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>357</v>
+        <v>640</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>358</v>
+        <v>503</v>
       </c>
       <c r="E70" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>266</v>
+        <v>139</v>
       </c>
       <c r="G70" s="2">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="H70" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>359</v>
+        <v>504</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>360</v>
+        <v>505</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>27025835</v>
+        <v>27236547</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>453</v>
+        <v>154</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>487</v>
+        <v>358</v>
       </c>
       <c r="E71" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>192</v>
+        <v>266</v>
       </c>
       <c r="G71" s="2">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H71" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>454</v>
+        <v>359</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>455</v>
+        <v>360</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>27021330</v>
+        <v>27025835</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>549</v>
+        <v>452</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>550</v>
+        <v>453</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>551</v>
+        <v>487</v>
       </c>
       <c r="E72" s="2">
         <v>2016</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="G72" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H72" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>552</v>
+        <v>454</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>553</v>
+        <v>455</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>27009831</v>
+        <v>27021330</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>361</v>
+        <v>549</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>362</v>
+        <v>550</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>363</v>
+        <v>551</v>
       </c>
       <c r="E73" s="2">
         <v>2016</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G73" s="2">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="H73" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>364</v>
+        <v>552</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>365</v>
+        <v>553</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>27003037</v>
+        <v>27009831</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E74" s="2">
         <v>2016</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>354</v>
+        <v>71</v>
       </c>
       <c r="G74" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H74" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>26926625</v>
+        <v>27003037</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>284</v>
+        <v>366</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>286</v>
+        <v>367</v>
       </c>
       <c r="E75" s="2">
         <v>2016</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>69</v>
+        <v>354</v>
       </c>
       <c r="G75" s="2">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="H75" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>287</v>
+        <v>368</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>288</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>26878268</v>
+        <v>26926625</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>370</v>
+        <v>284</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>371</v>
+        <v>285</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>372</v>
+        <v>286</v>
       </c>
       <c r="E76" s="2">
         <v>2016</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="G76" s="2">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H76" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>373</v>
+        <v>287</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>374</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>26822022</v>
+        <v>26878268</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E77" s="2">
         <v>2016</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="G77" s="2">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="H77" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>26778412</v>
+        <v>26822022</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>58</v>
+        <v>375</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>100</v>
+        <v>376</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>181</v>
+        <v>377</v>
       </c>
       <c r="E78" s="2">
         <v>2016</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="G78" s="2">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="H78" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>94</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>26643326</v>
+        <v>26778412</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>554</v>
+        <v>58</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>555</v>
+        <v>181</v>
       </c>
       <c r="E79" s="2">
         <v>2016</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G79" s="2">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H79" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>556</v>
+        <v>80</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>557</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>26603202</v>
+        <v>26643326</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>182</v>
+        <v>554</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>184</v>
+        <v>555</v>
       </c>
       <c r="E80" s="2">
         <v>2016</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>185</v>
+        <v>69</v>
       </c>
       <c r="G80" s="2">
-        <v>213</v>
+        <v>60</v>
       </c>
       <c r="H80" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>186</v>
+        <v>556</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>187</v>
+        <v>557</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>26575258</v>
+        <v>26603202</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>641</v>
+        <v>184</v>
       </c>
       <c r="E81" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="G81" s="2">
-        <v>373</v>
+        <v>213</v>
       </c>
       <c r="H81" s="2">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>26569658</v>
+        <v>26575258</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>188</v>
+        <v>641</v>
       </c>
       <c r="E82" s="2">
         <v>2015</v>
@@ -4958,216 +4961,216 @@
         <v>27</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>26521268</v>
+        <v>26569658</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>189</v>
+        <v>56</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E83" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>192</v>
+        <v>70</v>
       </c>
       <c r="G83" s="2">
-        <v>62</v>
+        <v>373</v>
       </c>
       <c r="H83" s="2">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>194</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>26453968</v>
+        <v>26521268</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>380</v>
+        <v>189</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>642</v>
+        <v>191</v>
       </c>
       <c r="E84" s="2">
         <v>2016</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="G84" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H84" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>381</v>
+        <v>193</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>382</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>26423374</v>
+        <v>26453968</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>289</v>
+        <v>380</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>291</v>
+        <v>642</v>
       </c>
       <c r="E85" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>292</v>
+        <v>68</v>
       </c>
       <c r="G85" s="2">
+        <v>64</v>
+      </c>
+      <c r="H85" s="2">
         <v>2</v>
       </c>
-      <c r="H85" s="2">
-        <v>8</v>
-      </c>
       <c r="I85" s="2" t="s">
-        <v>293</v>
+        <v>381</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>294</v>
+        <v>382</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>26392503</v>
+        <v>26423374</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>558</v>
+        <v>289</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>512</v>
+        <v>290</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>559</v>
+        <v>291</v>
       </c>
       <c r="E86" s="2">
         <v>2015</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>69</v>
+        <v>292</v>
       </c>
       <c r="G86" s="2">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="H86" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>560</v>
+        <v>293</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>561</v>
+        <v>294</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>26371152</v>
+        <v>26392503</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>295</v>
+        <v>558</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>296</v>
+        <v>512</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>297</v>
+        <v>559</v>
       </c>
       <c r="E87" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>192</v>
+        <v>69</v>
       </c>
       <c r="G87" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H87" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>298</v>
+        <v>560</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>299</v>
+        <v>561</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>26303801</v>
+        <v>26371152</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E88" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="G88" s="2">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H88" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>26282418</v>
+        <v>26303801</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>562</v>
+        <v>300</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>563</v>
+        <v>301</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>564</v>
+        <v>302</v>
       </c>
       <c r="E89" s="2">
         <v>2015</v>
@@ -5182,56 +5185,56 @@
         <v>11</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>565</v>
+        <v>303</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>566</v>
+        <v>304</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>26196665</v>
+        <v>26282418</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>195</v>
+        <v>562</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>196</v>
+        <v>563</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>643</v>
+        <v>564</v>
       </c>
       <c r="E90" s="2">
         <v>2015</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G90" s="2">
-        <v>373</v>
+        <v>59</v>
       </c>
       <c r="H90" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>197</v>
+        <v>565</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>198</v>
+        <v>566</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>26196502</v>
+        <v>26196665</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>200</v>
+        <v>643</v>
       </c>
       <c r="E91" s="2">
         <v>2015</v>
@@ -5246,248 +5249,248 @@
         <v>8</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>26170396</v>
+        <v>26196502</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>383</v>
+        <v>199</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>347</v>
+        <v>166</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>384</v>
+        <v>200</v>
       </c>
       <c r="E92" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="G92" s="2">
-        <v>213</v>
+        <v>373</v>
       </c>
       <c r="H92" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>385</v>
+        <v>201</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>386</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>26170136</v>
+        <v>26170396</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>567</v>
+        <v>383</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>41</v>
+        <v>347</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>644</v>
+        <v>384</v>
       </c>
       <c r="E93" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c r="G93" s="2">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="H93" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>568</v>
+        <v>385</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>569</v>
+        <v>386</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>26100711</v>
+        <v>26170136</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
       <c r="E94" s="2">
         <v>2015</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G94" s="2">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="H94" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>25847509</v>
+        <v>26100711</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>203</v>
+        <v>570</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>205</v>
+        <v>571</v>
       </c>
       <c r="E95" s="2">
         <v>2015</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="G95" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H95" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>206</v>
+        <v>572</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>207</v>
+        <v>573</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>25706092</v>
+        <v>25847509</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>574</v>
+        <v>203</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>310</v>
+        <v>204</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>575</v>
+        <v>205</v>
       </c>
       <c r="E96" s="2">
         <v>2015</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>576</v>
+        <v>39</v>
       </c>
       <c r="G96" s="2">
-        <v>313</v>
+        <v>62</v>
       </c>
       <c r="H96" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>577</v>
+        <v>206</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>578</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>25659285</v>
+        <v>25706092</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>208</v>
+        <v>574</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>209</v>
+        <v>310</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>210</v>
+        <v>575</v>
       </c>
       <c r="E97" s="2">
         <v>2015</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>211</v>
+        <v>576</v>
       </c>
       <c r="G97" s="2">
-        <v>385</v>
+        <v>313</v>
       </c>
       <c r="H97" s="2">
-        <v>9973</v>
+        <v>12</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>212</v>
+        <v>577</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>213</v>
+        <v>578</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>25644279</v>
+        <v>25659285</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>579</v>
+        <v>208</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>580</v>
+        <v>209</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>581</v>
+        <v>210</v>
       </c>
       <c r="E98" s="2">
         <v>2015</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="G98" s="2">
-        <v>61</v>
+        <v>385</v>
       </c>
       <c r="H98" s="2">
-        <v>5</v>
+        <v>9973</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>582</v>
+        <v>212</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>583</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>25614962</v>
+        <v>25644279</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>476</v>
+        <v>579</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>477</v>
+        <v>580</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>478</v>
+        <v>581</v>
       </c>
       <c r="E99" s="2">
         <v>2015</v>
@@ -5499,91 +5502,91 @@
         <v>61</v>
       </c>
       <c r="H99" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>479</v>
+        <v>582</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>480</v>
+        <v>583</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>25534735</v>
+        <v>25614962</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>584</v>
+        <v>476</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>585</v>
+        <v>477</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="E100" s="2">
         <v>2015</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G100" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H100" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>587</v>
+        <v>479</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>588</v>
+        <v>480</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>25467591</v>
+        <v>25534735</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>305</v>
+        <v>584</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>41</v>
+        <v>585</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>306</v>
+        <v>586</v>
       </c>
       <c r="E101" s="2">
         <v>2015</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>211</v>
+        <v>69</v>
       </c>
       <c r="G101" s="2">
-        <v>385</v>
+        <v>59</v>
       </c>
       <c r="H101" s="2">
-        <v>9973</v>
+        <v>3</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>307</v>
+        <v>587</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>308</v>
+        <v>588</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>25467560</v>
+        <v>25467591</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>310</v>
+        <v>41</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E102" s="2">
         <v>2015</v>
@@ -5598,56 +5601,56 @@
         <v>9973</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>25451055</v>
+        <v>25467560</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>589</v>
+        <v>309</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>11</v>
+        <v>310</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>590</v>
+        <v>311</v>
       </c>
       <c r="E103" s="2">
         <v>2015</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>69</v>
+        <v>211</v>
       </c>
       <c r="G103" s="2">
-        <v>59</v>
+        <v>385</v>
       </c>
       <c r="H103" s="2">
-        <v>2</v>
+        <v>9973</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>591</v>
+        <v>312</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>592</v>
+        <v>313</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>25451053</v>
+        <v>25451055</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>594</v>
+        <v>11</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="E104" s="2">
         <v>2015</v>
@@ -5662,88 +5665,88 @@
         <v>2</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>25322962</v>
+        <v>25451053</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>214</v>
+        <v>593</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>41</v>
+        <v>594</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>215</v>
+        <v>595</v>
       </c>
       <c r="E105" s="2">
         <v>2015</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="G105" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H105" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>216</v>
+        <v>596</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>217</v>
+        <v>597</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>25266289</v>
+        <v>25322962</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>506</v>
+        <v>214</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>507</v>
+        <v>41</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>508</v>
+        <v>215</v>
       </c>
       <c r="E106" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="G106" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H106" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>509</v>
+        <v>216</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>510</v>
+        <v>217</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>25266287</v>
+        <v>25266289</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>218</v>
+        <v>506</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>183</v>
+        <v>507</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>219</v>
+        <v>508</v>
       </c>
       <c r="E107" s="2">
         <v>2014</v>
@@ -5758,88 +5761,88 @@
         <v>12</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>220</v>
+        <v>509</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>221</v>
+        <v>510</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>24936600</v>
+        <v>25266287</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>387</v>
+        <v>218</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>388</v>
+        <v>219</v>
       </c>
       <c r="E108" s="2">
         <v>2014</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="G108" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H108" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>389</v>
+        <v>220</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>390</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>24795201</v>
+        <v>24936600</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>222</v>
+        <v>387</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>645</v>
+        <v>388</v>
       </c>
       <c r="E109" s="2">
         <v>2014</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G109" s="2">
-        <v>370</v>
+        <v>58</v>
       </c>
       <c r="H109" s="2">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>224</v>
+        <v>389</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>225</v>
+        <v>390</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>24795200</v>
+        <v>24795201</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>598</v>
+        <v>222</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>599</v>
+        <v>223</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>600</v>
+        <v>645</v>
       </c>
       <c r="E110" s="2">
         <v>2014</v>
@@ -5854,24 +5857,24 @@
         <v>21</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>601</v>
+        <v>224</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>602</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>24725237</v>
+        <v>24795200</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>100</v>
+        <v>599</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E111" s="2">
         <v>2014</v>
@@ -5886,24 +5889,24 @@
         <v>21</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>24720679</v>
+        <v>24725237</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>646</v>
+        <v>604</v>
       </c>
       <c r="E112" s="2">
         <v>2014</v>
@@ -5915,193 +5918,193 @@
         <v>370</v>
       </c>
       <c r="H112" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>24448487</v>
+        <v>24720679</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>391</v>
+        <v>607</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>392</v>
+        <v>223</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>393</v>
+        <v>646</v>
       </c>
       <c r="E113" s="2">
         <v>2014</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>394</v>
+        <v>70</v>
       </c>
       <c r="G113" s="2">
-        <v>19</v>
+        <v>370</v>
       </c>
       <c r="H113" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>395</v>
+        <v>608</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>396</v>
+        <v>609</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>24444658</v>
+        <v>24448487</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>647</v>
+        <v>393</v>
       </c>
       <c r="E114" s="2">
         <v>2014</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>68</v>
+        <v>394</v>
       </c>
       <c r="G114" s="2">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="H114" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>24154738</v>
+        <v>24444658</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>226</v>
+        <v>397</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>227</v>
+        <v>398</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E115" s="2">
         <v>2014</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="G115" s="2">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="H115" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>228</v>
+        <v>399</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>229</v>
+        <v>400</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>24127258</v>
+        <v>24154738</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>314</v>
+        <v>226</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>315</v>
+        <v>227</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>316</v>
+        <v>648</v>
       </c>
       <c r="E116" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c r="G116" s="2">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="H116" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>318</v>
+        <v>228</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>319</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>23384816</v>
+        <v>24127258</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>401</v>
+        <v>314</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>403</v>
+        <v>316</v>
       </c>
       <c r="E117" s="2">
         <v>2013</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>404</v>
+        <v>317</v>
       </c>
       <c r="G117" s="2">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="H117" s="2">
-        <v>1</v>
-      </c>
-      <c r="I117" s="3">
-        <v>43690</v>
+        <v>12</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>405</v>
+        <v>319</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>23089758</v>
+        <v>23384816</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>115</v>
+        <v>402</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E118" s="2">
         <v>2013</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>69</v>
+        <v>404</v>
       </c>
       <c r="G118" s="2">
         <v>57</v>
@@ -6109,57 +6112,57 @@
       <c r="H118" s="2">
         <v>1</v>
       </c>
-      <c r="I118" s="2" t="s">
-        <v>408</v>
+      <c r="I118" s="3">
+        <v>43690</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>22850513</v>
+        <v>23089758</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>411</v>
+        <v>115</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E119" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G119" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H119" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>22430955</v>
+        <v>22850513</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>230</v>
+        <v>410</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>231</v>
+        <v>411</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>232</v>
+        <v>412</v>
       </c>
       <c r="E120" s="2">
         <v>2012</v>
@@ -6171,123 +6174,123 @@
         <v>56</v>
       </c>
       <c r="H120" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>234</v>
+        <v>414</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>22256805</v>
+        <v>22430955</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>415</v>
+        <v>230</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>398</v>
+        <v>231</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>416</v>
+        <v>232</v>
       </c>
       <c r="E121" s="2">
         <v>2012</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G121" s="2">
-        <v>366</v>
+        <v>56</v>
       </c>
       <c r="H121" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>417</v>
+        <v>233</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>418</v>
+        <v>234</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>22234905</v>
+        <v>22256805</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E122" s="2">
         <v>2012</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="G122" s="2">
-        <v>55</v>
+        <v>366</v>
       </c>
       <c r="H122" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>22214777</v>
+        <v>22234905</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>115</v>
+        <v>420</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E123" s="2">
         <v>2012</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G123" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H123" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>22203595</v>
+        <v>22214777</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E124" s="2">
         <v>2012</v>
@@ -6302,137 +6305,169 @@
         <v>3</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>21809362</v>
+        <v>22203595</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>433</v>
+        <v>115</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E125" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="G125" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H125" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>21593143</v>
+        <v>21809362</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>433</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E126" s="2">
         <v>2011</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>439</v>
+        <v>39</v>
       </c>
       <c r="G126" s="2">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="H126" s="2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>20585111</v>
+        <v>21593143</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>433</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E127" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>69</v>
+        <v>439</v>
       </c>
       <c r="G127" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H127" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>20410884</v>
+        <v>20585111</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E128" s="2">
         <v>2010</v>
       </c>
       <c r="F128" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G128" s="2">
+        <v>54</v>
+      </c>
+      <c r="H128" s="2">
+        <v>9</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>20410884</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E129" s="2">
+        <v>2010</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="G128" s="2">
+      <c r="G129" s="2">
         <v>465</v>
       </c>
-      <c r="H128" s="2">
+      <c r="H129" s="2">
         <v>7294</v>
       </c>
-      <c r="I128" s="2" t="s">
+      <c r="I129" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="K128" s="2" t="s">
+      <c r="K129" s="2" t="s">
         <v>451</v>
       </c>
     </row>
